--- a/DAILY REPORT/OCT/Wk3/14-10-2025 REP'S DAILY REPORT - NEUTRACETICALS.xlsx
+++ b/DAILY REPORT/OCT/Wk3/14-10-2025 REP'S DAILY REPORT - NEUTRACETICALS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t xml:space="preserve">EMBASSY PHARMACEUTICALS AND CHEMICAL LTD</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">NAMES OF REP: PHARM ARABAMBI BABATUNDE</t>
   </si>
   <si>
-    <t xml:space="preserve">TERRITORY COVERED: </t>
+    <t xml:space="preserve">TERRITORY COVERED: OYO TOWN</t>
   </si>
   <si>
     <t xml:space="preserve">DATE: 14/10/2025</t>
@@ -64,19 +64,85 @@
     <t xml:space="preserve">1)</t>
   </si>
   <si>
+    <t xml:space="preserve">DR PERIOLA A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEAMAK HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODO-ERAN, OYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYEMAX/FORTE, NERVERON, GLUCOREX, BPCAP, LIPIDMAX, COQ10/FORTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I WAS ASKED TO CHECK BACK DUE TO THE MULTITUDE OF PATIENT WAITING TO SEE HIM</t>
+  </si>
+  <si>
     <t xml:space="preserve">2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR OPABODE W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPABODE MEMORIAL HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKE-EBO, OYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE ASKED ME TO SPEAK TO DR AISHAT</t>
   </si>
   <si>
     <t xml:space="preserve">3)</t>
   </si>
   <si>
+    <t xml:space="preserve">DR AKINADE D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOSHEN HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE WELCOMES GLUCOREX AND I GAVE HIM A PACK AND TOLD HIM TO KEEP ME INFORMED ON RESULTS HE GETS</t>
+  </si>
+  <si>
     <t xml:space="preserve">4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR AISHAT O.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHE TOLD ME TO SPEAK TO ALHAJA WHO BOUGHT A BOX OF NERVERON</t>
   </si>
   <si>
     <t xml:space="preserve">5)</t>
   </si>
   <si>
+    <t xml:space="preserve">DR MUNTAQIM W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I TOLD HIM TO HELP ME RCOMMEND THE NERVERON</t>
+  </si>
+  <si>
     <t xml:space="preserve">6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR CLIFFORD U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERMAN SNELLEN EYE FOUNDATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYEMAX/FORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I LEFT HIM A MESSAGE CONCERNING EYEMAX/FORTE</t>
   </si>
   <si>
     <t xml:space="preserve">7)</t>
@@ -97,6 +163,75 @@
     <t xml:space="preserve">NAME OF PHARMACY</t>
   </si>
   <si>
+    <t xml:space="preserve">PHARM LEKAN O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBANI PHARMACEUTICAL LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE PROMISED TO PAY FOR GLUCOREX AND FIBRONIL I SUPPLIED BEFORE NOW AND TO HIM SOMETIMES BEFORE HE PLACE ANOTHER ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARM AKINJO R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOBA PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE WAS INTRESTED IN FIBRONIL AND ASKED ME TO SPEAK TO MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARM AFEEZ I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOODALL PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE PROMISED TO REQUEST FOR GLUCOREX AND BPCAP FROM THEIR BRANCH IN IBADAN AFTER DETAILING THEM TO HIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARM OLUWATUNMISE Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHE PROMISED TO RECOMMEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALH OPABODE H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A BOX OF NERVERON, #44,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHE PROMISED TO PAY IN THE NEXT 3 WEEKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE WAS NOT ON SEAT BUT I WILL REACH OUT TO HIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARM MUIDEEN O. (OWNER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKOD PHARMACY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NERVERON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE REQUESTED FOR 2 BOXES OF NERVERON AFTER PHARM AMOS INFORMED ME IT HAS FINISHED. I’M HOWEVER WAITING FOR HIM TO CLEAR 2 INVOICES ALREADY ON GROUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARM AMOS P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE PROMISED TO HELP PUSH THE SUPPLIED GLUCOREX AS HE HAS BEEN DOING</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -109,7 +244,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,15 +296,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <name val="CALIBRI"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -190,21 +331,23 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="CALIBRI"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="CALIBRI"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="CALIBRI"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -280,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,15 +456,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,15 +480,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -353,19 +496,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,11 +504,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,7 +528,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,8 +721,8 @@
   </sheetPr>
   <dimension ref="A2:AMJ47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -677,13 +824,27 @@
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>8035794572</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1703,15 +1864,29 @@
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>8034734891</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2728,18 +2903,32 @@
       <c r="AMI12" s="6"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>8033799374</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3756,18 +3945,32 @@
       <c r="AMI13" s="6"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>8056769424</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -4784,18 +4987,32 @@
       <c r="AMI14" s="6"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>9134886871</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -5812,18 +6029,32 @@
       <c r="AMI15" s="6"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>8135735483</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -6840,16 +7071,16 @@
       <c r="AMI16" s="6"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
@@ -7871,13 +8102,13 @@
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
@@ -8899,13 +9130,13 @@
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6"/>
@@ -9927,13 +10158,13 @@
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
@@ -10975,10 +11206,10 @@
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
@@ -10996,18 +11227,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="n">
+        <v>8064933094</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -12024,18 +12269,32 @@
       <c r="AMI24" s="6"/>
       <c r="AMJ24" s="6"/>
     </row>
-    <row r="25" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
-      <c r="B25" s="14" t="s">
-        <v>14</v>
+      <c r="B25" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8" t="n">
+        <v>8033977144</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -13052,34 +13311,2116 @@
       <c r="AMI25" s="6"/>
       <c r="AMJ25" s="6"/>
     </row>
-    <row r="26" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="17" t="s">
-        <v>15</v>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17"/>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="17" t="s">
-        <v>16</v>
+      <c r="C26" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14" t="s">
+      <c r="D26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>9024393504</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="7"/>
+      <c r="H26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
+      <c r="AT26" s="17"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="17"/>
+      <c r="AY26" s="17"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="17"/>
+      <c r="BC26" s="17"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="17"/>
+      <c r="BL26" s="17"/>
+      <c r="BM26" s="17"/>
+      <c r="BN26" s="17"/>
+      <c r="BO26" s="17"/>
+      <c r="BP26" s="17"/>
+      <c r="BQ26" s="17"/>
+      <c r="BR26" s="17"/>
+      <c r="BS26" s="17"/>
+      <c r="BT26" s="17"/>
+      <c r="BU26" s="17"/>
+      <c r="BV26" s="17"/>
+      <c r="BW26" s="17"/>
+      <c r="BX26" s="17"/>
+      <c r="BY26" s="17"/>
+      <c r="BZ26" s="17"/>
+      <c r="CA26" s="17"/>
+      <c r="CB26" s="17"/>
+      <c r="CC26" s="17"/>
+      <c r="CD26" s="17"/>
+      <c r="CE26" s="17"/>
+      <c r="CF26" s="17"/>
+      <c r="CG26" s="17"/>
+      <c r="CH26" s="17"/>
+      <c r="CI26" s="17"/>
+      <c r="CJ26" s="17"/>
+      <c r="CK26" s="17"/>
+      <c r="CL26" s="17"/>
+      <c r="CM26" s="17"/>
+      <c r="CN26" s="17"/>
+      <c r="CO26" s="17"/>
+      <c r="CP26" s="17"/>
+      <c r="CQ26" s="17"/>
+      <c r="CR26" s="17"/>
+      <c r="CS26" s="17"/>
+      <c r="CT26" s="17"/>
+      <c r="CU26" s="17"/>
+      <c r="CV26" s="17"/>
+      <c r="CW26" s="17"/>
+      <c r="CX26" s="17"/>
+      <c r="CY26" s="17"/>
+      <c r="CZ26" s="17"/>
+      <c r="DA26" s="17"/>
+      <c r="DB26" s="17"/>
+      <c r="DC26" s="17"/>
+      <c r="DD26" s="17"/>
+      <c r="DE26" s="17"/>
+      <c r="DF26" s="17"/>
+      <c r="DG26" s="17"/>
+      <c r="DH26" s="17"/>
+      <c r="DI26" s="17"/>
+      <c r="DJ26" s="17"/>
+      <c r="DK26" s="17"/>
+      <c r="DL26" s="17"/>
+      <c r="DM26" s="17"/>
+      <c r="DN26" s="17"/>
+      <c r="DO26" s="17"/>
+      <c r="DP26" s="17"/>
+      <c r="DQ26" s="17"/>
+      <c r="DR26" s="17"/>
+      <c r="DS26" s="17"/>
+      <c r="DT26" s="17"/>
+      <c r="DU26" s="17"/>
+      <c r="DV26" s="17"/>
+      <c r="DW26" s="17"/>
+      <c r="DX26" s="17"/>
+      <c r="DY26" s="17"/>
+      <c r="DZ26" s="17"/>
+      <c r="EA26" s="17"/>
+      <c r="EB26" s="17"/>
+      <c r="EC26" s="17"/>
+      <c r="ED26" s="17"/>
+      <c r="EE26" s="17"/>
+      <c r="EF26" s="17"/>
+      <c r="EG26" s="17"/>
+      <c r="EH26" s="17"/>
+      <c r="EI26" s="17"/>
+      <c r="EJ26" s="17"/>
+      <c r="EK26" s="17"/>
+      <c r="EL26" s="17"/>
+      <c r="EM26" s="17"/>
+      <c r="EN26" s="17"/>
+      <c r="EO26" s="17"/>
+      <c r="EP26" s="17"/>
+      <c r="EQ26" s="17"/>
+      <c r="ER26" s="17"/>
+      <c r="ES26" s="17"/>
+      <c r="ET26" s="17"/>
+      <c r="EU26" s="17"/>
+      <c r="EV26" s="17"/>
+      <c r="EW26" s="17"/>
+      <c r="EX26" s="17"/>
+      <c r="EY26" s="17"/>
+      <c r="EZ26" s="17"/>
+      <c r="FA26" s="17"/>
+      <c r="FB26" s="17"/>
+      <c r="FC26" s="17"/>
+      <c r="FD26" s="17"/>
+      <c r="FE26" s="17"/>
+      <c r="FF26" s="17"/>
+      <c r="FG26" s="17"/>
+      <c r="FH26" s="17"/>
+      <c r="FI26" s="17"/>
+      <c r="FJ26" s="17"/>
+      <c r="FK26" s="17"/>
+      <c r="FL26" s="17"/>
+      <c r="FM26" s="17"/>
+      <c r="FN26" s="17"/>
+      <c r="FO26" s="17"/>
+      <c r="FP26" s="17"/>
+      <c r="FQ26" s="17"/>
+      <c r="FR26" s="17"/>
+      <c r="FS26" s="17"/>
+      <c r="FT26" s="17"/>
+      <c r="FU26" s="17"/>
+      <c r="FV26" s="17"/>
+      <c r="FW26" s="17"/>
+      <c r="FX26" s="17"/>
+      <c r="FY26" s="17"/>
+      <c r="FZ26" s="17"/>
+      <c r="GA26" s="17"/>
+      <c r="GB26" s="17"/>
+      <c r="GC26" s="17"/>
+      <c r="GD26" s="17"/>
+      <c r="GE26" s="17"/>
+      <c r="GF26" s="17"/>
+      <c r="GG26" s="17"/>
+      <c r="GH26" s="17"/>
+      <c r="GI26" s="17"/>
+      <c r="GJ26" s="17"/>
+      <c r="GK26" s="17"/>
+      <c r="GL26" s="17"/>
+      <c r="GM26" s="17"/>
+      <c r="GN26" s="17"/>
+      <c r="GO26" s="17"/>
+      <c r="GP26" s="17"/>
+      <c r="GQ26" s="17"/>
+      <c r="GR26" s="17"/>
+      <c r="GS26" s="17"/>
+      <c r="GT26" s="17"/>
+      <c r="GU26" s="17"/>
+      <c r="GV26" s="17"/>
+      <c r="GW26" s="17"/>
+      <c r="GX26" s="17"/>
+      <c r="GY26" s="17"/>
+      <c r="GZ26" s="17"/>
+      <c r="HA26" s="17"/>
+      <c r="HB26" s="17"/>
+      <c r="HC26" s="17"/>
+      <c r="HD26" s="17"/>
+      <c r="HE26" s="17"/>
+      <c r="HF26" s="17"/>
+      <c r="HG26" s="17"/>
+      <c r="HH26" s="17"/>
+      <c r="HI26" s="17"/>
+      <c r="HJ26" s="17"/>
+      <c r="HK26" s="17"/>
+      <c r="HL26" s="17"/>
+      <c r="HM26" s="17"/>
+      <c r="HN26" s="17"/>
+      <c r="HO26" s="17"/>
+      <c r="HP26" s="17"/>
+      <c r="HQ26" s="17"/>
+      <c r="HR26" s="17"/>
+      <c r="HS26" s="17"/>
+      <c r="HT26" s="17"/>
+      <c r="HU26" s="17"/>
+      <c r="HV26" s="17"/>
+      <c r="HW26" s="17"/>
+      <c r="HX26" s="17"/>
+      <c r="HY26" s="17"/>
+      <c r="HZ26" s="17"/>
+      <c r="IA26" s="17"/>
+      <c r="IB26" s="17"/>
+      <c r="IC26" s="17"/>
+      <c r="ID26" s="17"/>
+      <c r="IE26" s="17"/>
+      <c r="IF26" s="17"/>
+      <c r="IG26" s="17"/>
+      <c r="IH26" s="17"/>
+      <c r="II26" s="17"/>
+      <c r="IJ26" s="17"/>
+      <c r="IK26" s="17"/>
+      <c r="IL26" s="17"/>
+      <c r="IM26" s="17"/>
+      <c r="IN26" s="17"/>
+      <c r="IO26" s="17"/>
+      <c r="IP26" s="17"/>
+      <c r="IQ26" s="17"/>
+      <c r="IR26" s="17"/>
+      <c r="IS26" s="17"/>
+      <c r="IT26" s="17"/>
+      <c r="IU26" s="17"/>
+      <c r="IV26" s="17"/>
+      <c r="IW26" s="17"/>
+      <c r="IX26" s="17"/>
+      <c r="IY26" s="17"/>
+      <c r="IZ26" s="17"/>
+      <c r="JA26" s="17"/>
+      <c r="JB26" s="17"/>
+      <c r="JC26" s="17"/>
+      <c r="JD26" s="17"/>
+      <c r="JE26" s="17"/>
+      <c r="JF26" s="17"/>
+      <c r="JG26" s="17"/>
+      <c r="JH26" s="17"/>
+      <c r="JI26" s="17"/>
+      <c r="JJ26" s="17"/>
+      <c r="JK26" s="17"/>
+      <c r="JL26" s="17"/>
+      <c r="JM26" s="17"/>
+      <c r="JN26" s="17"/>
+      <c r="JO26" s="17"/>
+      <c r="JP26" s="17"/>
+      <c r="JQ26" s="17"/>
+      <c r="JR26" s="17"/>
+      <c r="JS26" s="17"/>
+      <c r="JT26" s="17"/>
+      <c r="JU26" s="17"/>
+      <c r="JV26" s="17"/>
+      <c r="JW26" s="17"/>
+      <c r="JX26" s="17"/>
+      <c r="JY26" s="17"/>
+      <c r="JZ26" s="17"/>
+      <c r="KA26" s="17"/>
+      <c r="KB26" s="17"/>
+      <c r="KC26" s="17"/>
+      <c r="KD26" s="17"/>
+      <c r="KE26" s="17"/>
+      <c r="KF26" s="17"/>
+      <c r="KG26" s="17"/>
+      <c r="KH26" s="17"/>
+      <c r="KI26" s="17"/>
+      <c r="KJ26" s="17"/>
+      <c r="KK26" s="17"/>
+      <c r="KL26" s="17"/>
+      <c r="KM26" s="17"/>
+      <c r="KN26" s="17"/>
+      <c r="KO26" s="17"/>
+      <c r="KP26" s="17"/>
+      <c r="KQ26" s="17"/>
+      <c r="KR26" s="17"/>
+      <c r="KS26" s="17"/>
+      <c r="KT26" s="17"/>
+      <c r="KU26" s="17"/>
+      <c r="KV26" s="17"/>
+      <c r="KW26" s="17"/>
+      <c r="KX26" s="17"/>
+      <c r="KY26" s="17"/>
+      <c r="KZ26" s="17"/>
+      <c r="LA26" s="17"/>
+      <c r="LB26" s="17"/>
+      <c r="LC26" s="17"/>
+      <c r="LD26" s="17"/>
+      <c r="LE26" s="17"/>
+      <c r="LF26" s="17"/>
+      <c r="LG26" s="17"/>
+      <c r="LH26" s="17"/>
+      <c r="LI26" s="17"/>
+      <c r="LJ26" s="17"/>
+      <c r="LK26" s="17"/>
+      <c r="LL26" s="17"/>
+      <c r="LM26" s="17"/>
+      <c r="LN26" s="17"/>
+      <c r="LO26" s="17"/>
+      <c r="LP26" s="17"/>
+      <c r="LQ26" s="17"/>
+      <c r="LR26" s="17"/>
+      <c r="LS26" s="17"/>
+      <c r="LT26" s="17"/>
+      <c r="LU26" s="17"/>
+      <c r="LV26" s="17"/>
+      <c r="LW26" s="17"/>
+      <c r="LX26" s="17"/>
+      <c r="LY26" s="17"/>
+      <c r="LZ26" s="17"/>
+      <c r="MA26" s="17"/>
+      <c r="MB26" s="17"/>
+      <c r="MC26" s="17"/>
+      <c r="MD26" s="17"/>
+      <c r="ME26" s="17"/>
+      <c r="MF26" s="17"/>
+      <c r="MG26" s="17"/>
+      <c r="MH26" s="17"/>
+      <c r="MI26" s="17"/>
+      <c r="MJ26" s="17"/>
+      <c r="MK26" s="17"/>
+      <c r="ML26" s="17"/>
+      <c r="MM26" s="17"/>
+      <c r="MN26" s="17"/>
+      <c r="MO26" s="17"/>
+      <c r="MP26" s="17"/>
+      <c r="MQ26" s="17"/>
+      <c r="MR26" s="17"/>
+      <c r="MS26" s="17"/>
+      <c r="MT26" s="17"/>
+      <c r="MU26" s="17"/>
+      <c r="MV26" s="17"/>
+      <c r="MW26" s="17"/>
+      <c r="MX26" s="17"/>
+      <c r="MY26" s="17"/>
+      <c r="MZ26" s="17"/>
+      <c r="NA26" s="17"/>
+      <c r="NB26" s="17"/>
+      <c r="NC26" s="17"/>
+      <c r="ND26" s="17"/>
+      <c r="NE26" s="17"/>
+      <c r="NF26" s="17"/>
+      <c r="NG26" s="17"/>
+      <c r="NH26" s="17"/>
+      <c r="NI26" s="17"/>
+      <c r="NJ26" s="17"/>
+      <c r="NK26" s="17"/>
+      <c r="NL26" s="17"/>
+      <c r="NM26" s="17"/>
+      <c r="NN26" s="17"/>
+      <c r="NO26" s="17"/>
+      <c r="NP26" s="17"/>
+      <c r="NQ26" s="17"/>
+      <c r="NR26" s="17"/>
+      <c r="NS26" s="17"/>
+      <c r="NT26" s="17"/>
+      <c r="NU26" s="17"/>
+      <c r="NV26" s="17"/>
+      <c r="NW26" s="17"/>
+      <c r="NX26" s="17"/>
+      <c r="NY26" s="17"/>
+      <c r="NZ26" s="17"/>
+      <c r="OA26" s="17"/>
+      <c r="OB26" s="17"/>
+      <c r="OC26" s="17"/>
+      <c r="OD26" s="17"/>
+      <c r="OE26" s="17"/>
+      <c r="OF26" s="17"/>
+      <c r="OG26" s="17"/>
+      <c r="OH26" s="17"/>
+      <c r="OI26" s="17"/>
+      <c r="OJ26" s="17"/>
+      <c r="OK26" s="17"/>
+      <c r="OL26" s="17"/>
+      <c r="OM26" s="17"/>
+      <c r="ON26" s="17"/>
+      <c r="OO26" s="17"/>
+      <c r="OP26" s="17"/>
+      <c r="OQ26" s="17"/>
+      <c r="OR26" s="17"/>
+      <c r="OS26" s="17"/>
+      <c r="OT26" s="17"/>
+      <c r="OU26" s="17"/>
+      <c r="OV26" s="17"/>
+      <c r="OW26" s="17"/>
+      <c r="OX26" s="17"/>
+      <c r="OY26" s="17"/>
+      <c r="OZ26" s="17"/>
+      <c r="PA26" s="17"/>
+      <c r="PB26" s="17"/>
+      <c r="PC26" s="17"/>
+      <c r="PD26" s="17"/>
+      <c r="PE26" s="17"/>
+      <c r="PF26" s="17"/>
+      <c r="PG26" s="17"/>
+      <c r="PH26" s="17"/>
+      <c r="PI26" s="17"/>
+      <c r="PJ26" s="17"/>
+      <c r="PK26" s="17"/>
+      <c r="PL26" s="17"/>
+      <c r="PM26" s="17"/>
+      <c r="PN26" s="17"/>
+      <c r="PO26" s="17"/>
+      <c r="PP26" s="17"/>
+      <c r="PQ26" s="17"/>
+      <c r="PR26" s="17"/>
+      <c r="PS26" s="17"/>
+      <c r="PT26" s="17"/>
+      <c r="PU26" s="17"/>
+      <c r="PV26" s="17"/>
+      <c r="PW26" s="17"/>
+      <c r="PX26" s="17"/>
+      <c r="PY26" s="17"/>
+      <c r="PZ26" s="17"/>
+      <c r="QA26" s="17"/>
+      <c r="QB26" s="17"/>
+      <c r="QC26" s="17"/>
+      <c r="QD26" s="17"/>
+      <c r="QE26" s="17"/>
+      <c r="QF26" s="17"/>
+      <c r="QG26" s="17"/>
+      <c r="QH26" s="17"/>
+      <c r="QI26" s="17"/>
+      <c r="QJ26" s="17"/>
+      <c r="QK26" s="17"/>
+      <c r="QL26" s="17"/>
+      <c r="QM26" s="17"/>
+      <c r="QN26" s="17"/>
+      <c r="QO26" s="17"/>
+      <c r="QP26" s="17"/>
+      <c r="QQ26" s="17"/>
+      <c r="QR26" s="17"/>
+      <c r="QS26" s="17"/>
+      <c r="QT26" s="17"/>
+      <c r="QU26" s="17"/>
+      <c r="QV26" s="17"/>
+      <c r="QW26" s="17"/>
+      <c r="QX26" s="17"/>
+      <c r="QY26" s="17"/>
+      <c r="QZ26" s="17"/>
+      <c r="RA26" s="17"/>
+      <c r="RB26" s="17"/>
+      <c r="RC26" s="17"/>
+      <c r="RD26" s="17"/>
+      <c r="RE26" s="17"/>
+      <c r="RF26" s="17"/>
+      <c r="RG26" s="17"/>
+      <c r="RH26" s="17"/>
+      <c r="RI26" s="17"/>
+      <c r="RJ26" s="17"/>
+      <c r="RK26" s="17"/>
+      <c r="RL26" s="17"/>
+      <c r="RM26" s="17"/>
+      <c r="RN26" s="17"/>
+      <c r="RO26" s="17"/>
+      <c r="RP26" s="17"/>
+      <c r="RQ26" s="17"/>
+      <c r="RR26" s="17"/>
+      <c r="RS26" s="17"/>
+      <c r="RT26" s="17"/>
+      <c r="RU26" s="17"/>
+      <c r="RV26" s="17"/>
+      <c r="RW26" s="17"/>
+      <c r="RX26" s="17"/>
+      <c r="RY26" s="17"/>
+      <c r="RZ26" s="17"/>
+      <c r="SA26" s="17"/>
+      <c r="SB26" s="17"/>
+      <c r="SC26" s="17"/>
+      <c r="SD26" s="17"/>
+      <c r="SE26" s="17"/>
+      <c r="SF26" s="17"/>
+      <c r="SG26" s="17"/>
+      <c r="SH26" s="17"/>
+      <c r="SI26" s="17"/>
+      <c r="SJ26" s="17"/>
+      <c r="SK26" s="17"/>
+      <c r="SL26" s="17"/>
+      <c r="SM26" s="17"/>
+      <c r="SN26" s="17"/>
+      <c r="SO26" s="17"/>
+      <c r="SP26" s="17"/>
+      <c r="SQ26" s="17"/>
+      <c r="SR26" s="17"/>
+      <c r="SS26" s="17"/>
+      <c r="ST26" s="17"/>
+      <c r="SU26" s="17"/>
+      <c r="SV26" s="17"/>
+      <c r="SW26" s="17"/>
+      <c r="SX26" s="17"/>
+      <c r="SY26" s="17"/>
+      <c r="SZ26" s="17"/>
+      <c r="TA26" s="17"/>
+      <c r="TB26" s="17"/>
+      <c r="TC26" s="17"/>
+      <c r="TD26" s="17"/>
+      <c r="TE26" s="17"/>
+      <c r="TF26" s="17"/>
+      <c r="TG26" s="17"/>
+      <c r="TH26" s="17"/>
+      <c r="TI26" s="17"/>
+      <c r="TJ26" s="17"/>
+      <c r="TK26" s="17"/>
+      <c r="TL26" s="17"/>
+      <c r="TM26" s="17"/>
+      <c r="TN26" s="17"/>
+      <c r="TO26" s="17"/>
+      <c r="TP26" s="17"/>
+      <c r="TQ26" s="17"/>
+      <c r="TR26" s="17"/>
+      <c r="TS26" s="17"/>
+      <c r="TT26" s="17"/>
+      <c r="TU26" s="17"/>
+      <c r="TV26" s="17"/>
+      <c r="TW26" s="17"/>
+      <c r="TX26" s="17"/>
+      <c r="TY26" s="17"/>
+      <c r="TZ26" s="17"/>
+      <c r="UA26" s="17"/>
+      <c r="UB26" s="17"/>
+      <c r="UC26" s="17"/>
+      <c r="UD26" s="17"/>
+      <c r="UE26" s="17"/>
+      <c r="UF26" s="17"/>
+      <c r="UG26" s="17"/>
+      <c r="UH26" s="17"/>
+      <c r="UI26" s="17"/>
+      <c r="UJ26" s="17"/>
+      <c r="UK26" s="17"/>
+      <c r="UL26" s="17"/>
+      <c r="UM26" s="17"/>
+      <c r="UN26" s="17"/>
+      <c r="UO26" s="17"/>
+      <c r="UP26" s="17"/>
+      <c r="UQ26" s="17"/>
+      <c r="UR26" s="17"/>
+      <c r="US26" s="17"/>
+      <c r="UT26" s="17"/>
+      <c r="UU26" s="17"/>
+      <c r="UV26" s="17"/>
+      <c r="UW26" s="17"/>
+      <c r="UX26" s="17"/>
+      <c r="UY26" s="17"/>
+      <c r="UZ26" s="17"/>
+      <c r="VA26" s="17"/>
+      <c r="VB26" s="17"/>
+      <c r="VC26" s="17"/>
+      <c r="VD26" s="17"/>
+      <c r="VE26" s="17"/>
+      <c r="VF26" s="17"/>
+      <c r="VG26" s="17"/>
+      <c r="VH26" s="17"/>
+      <c r="VI26" s="17"/>
+      <c r="VJ26" s="17"/>
+      <c r="VK26" s="17"/>
+      <c r="VL26" s="17"/>
+      <c r="VM26" s="17"/>
+      <c r="VN26" s="17"/>
+      <c r="VO26" s="17"/>
+      <c r="VP26" s="17"/>
+      <c r="VQ26" s="17"/>
+      <c r="VR26" s="17"/>
+      <c r="VS26" s="17"/>
+      <c r="VT26" s="17"/>
+      <c r="VU26" s="17"/>
+      <c r="VV26" s="17"/>
+      <c r="VW26" s="17"/>
+      <c r="VX26" s="17"/>
+      <c r="VY26" s="17"/>
+      <c r="VZ26" s="17"/>
+      <c r="WA26" s="17"/>
+      <c r="WB26" s="17"/>
+      <c r="WC26" s="17"/>
+      <c r="WD26" s="17"/>
+      <c r="WE26" s="17"/>
+      <c r="WF26" s="17"/>
+      <c r="WG26" s="17"/>
+      <c r="WH26" s="17"/>
+      <c r="WI26" s="17"/>
+      <c r="WJ26" s="17"/>
+      <c r="WK26" s="17"/>
+      <c r="WL26" s="17"/>
+      <c r="WM26" s="17"/>
+      <c r="WN26" s="17"/>
+      <c r="WO26" s="17"/>
+      <c r="WP26" s="17"/>
+      <c r="WQ26" s="17"/>
+      <c r="WR26" s="17"/>
+      <c r="WS26" s="17"/>
+      <c r="WT26" s="17"/>
+      <c r="WU26" s="17"/>
+      <c r="WV26" s="17"/>
+      <c r="WW26" s="17"/>
+      <c r="WX26" s="17"/>
+      <c r="WY26" s="17"/>
+      <c r="WZ26" s="17"/>
+      <c r="XA26" s="17"/>
+      <c r="XB26" s="17"/>
+      <c r="XC26" s="17"/>
+      <c r="XD26" s="17"/>
+      <c r="XE26" s="17"/>
+      <c r="XF26" s="17"/>
+      <c r="XG26" s="17"/>
+      <c r="XH26" s="17"/>
+      <c r="XI26" s="17"/>
+      <c r="XJ26" s="17"/>
+      <c r="XK26" s="17"/>
+      <c r="XL26" s="17"/>
+      <c r="XM26" s="17"/>
+      <c r="XN26" s="17"/>
+      <c r="XO26" s="17"/>
+      <c r="XP26" s="17"/>
+      <c r="XQ26" s="17"/>
+      <c r="XR26" s="17"/>
+      <c r="XS26" s="17"/>
+      <c r="XT26" s="17"/>
+      <c r="XU26" s="17"/>
+      <c r="XV26" s="17"/>
+      <c r="XW26" s="17"/>
+      <c r="XX26" s="17"/>
+      <c r="XY26" s="17"/>
+      <c r="XZ26" s="17"/>
+      <c r="YA26" s="17"/>
+      <c r="YB26" s="17"/>
+      <c r="YC26" s="17"/>
+      <c r="YD26" s="17"/>
+      <c r="YE26" s="17"/>
+      <c r="YF26" s="17"/>
+      <c r="YG26" s="17"/>
+      <c r="YH26" s="17"/>
+      <c r="YI26" s="17"/>
+      <c r="YJ26" s="17"/>
+      <c r="YK26" s="17"/>
+      <c r="YL26" s="17"/>
+      <c r="YM26" s="17"/>
+      <c r="YN26" s="17"/>
+      <c r="YO26" s="17"/>
+      <c r="YP26" s="17"/>
+      <c r="YQ26" s="17"/>
+      <c r="YR26" s="17"/>
+      <c r="YS26" s="17"/>
+      <c r="YT26" s="17"/>
+      <c r="YU26" s="17"/>
+      <c r="YV26" s="17"/>
+      <c r="YW26" s="17"/>
+      <c r="YX26" s="17"/>
+      <c r="YY26" s="17"/>
+      <c r="YZ26" s="17"/>
+      <c r="ZA26" s="17"/>
+      <c r="ZB26" s="17"/>
+      <c r="ZC26" s="17"/>
+      <c r="ZD26" s="17"/>
+      <c r="ZE26" s="17"/>
+      <c r="ZF26" s="17"/>
+      <c r="ZG26" s="17"/>
+      <c r="ZH26" s="17"/>
+      <c r="ZI26" s="17"/>
+      <c r="ZJ26" s="17"/>
+      <c r="ZK26" s="17"/>
+      <c r="ZL26" s="17"/>
+      <c r="ZM26" s="17"/>
+      <c r="ZN26" s="17"/>
+      <c r="ZO26" s="17"/>
+      <c r="ZP26" s="17"/>
+      <c r="ZQ26" s="17"/>
+      <c r="ZR26" s="17"/>
+      <c r="ZS26" s="17"/>
+      <c r="ZT26" s="17"/>
+      <c r="ZU26" s="17"/>
+      <c r="ZV26" s="17"/>
+      <c r="ZW26" s="17"/>
+      <c r="ZX26" s="17"/>
+      <c r="ZY26" s="17"/>
+      <c r="ZZ26" s="17"/>
+      <c r="AAA26" s="17"/>
+      <c r="AAB26" s="17"/>
+      <c r="AAC26" s="17"/>
+      <c r="AAD26" s="17"/>
+      <c r="AAE26" s="17"/>
+      <c r="AAF26" s="17"/>
+      <c r="AAG26" s="17"/>
+      <c r="AAH26" s="17"/>
+      <c r="AAI26" s="17"/>
+      <c r="AAJ26" s="17"/>
+      <c r="AAK26" s="17"/>
+      <c r="AAL26" s="17"/>
+      <c r="AAM26" s="17"/>
+      <c r="AAN26" s="17"/>
+      <c r="AAO26" s="17"/>
+      <c r="AAP26" s="17"/>
+      <c r="AAQ26" s="17"/>
+      <c r="AAR26" s="17"/>
+      <c r="AAS26" s="17"/>
+      <c r="AAT26" s="17"/>
+      <c r="AAU26" s="17"/>
+      <c r="AAV26" s="17"/>
+      <c r="AAW26" s="17"/>
+      <c r="AAX26" s="17"/>
+      <c r="AAY26" s="17"/>
+      <c r="AAZ26" s="17"/>
+      <c r="ABA26" s="17"/>
+      <c r="ABB26" s="17"/>
+      <c r="ABC26" s="17"/>
+      <c r="ABD26" s="17"/>
+      <c r="ABE26" s="17"/>
+      <c r="ABF26" s="17"/>
+      <c r="ABG26" s="17"/>
+      <c r="ABH26" s="17"/>
+      <c r="ABI26" s="17"/>
+      <c r="ABJ26" s="17"/>
+      <c r="ABK26" s="17"/>
+      <c r="ABL26" s="17"/>
+      <c r="ABM26" s="17"/>
+      <c r="ABN26" s="17"/>
+      <c r="ABO26" s="17"/>
+      <c r="ABP26" s="17"/>
+      <c r="ABQ26" s="17"/>
+      <c r="ABR26" s="17"/>
+      <c r="ABS26" s="17"/>
+      <c r="ABT26" s="17"/>
+      <c r="ABU26" s="17"/>
+      <c r="ABV26" s="17"/>
+      <c r="ABW26" s="17"/>
+      <c r="ABX26" s="17"/>
+      <c r="ABY26" s="17"/>
+      <c r="ABZ26" s="17"/>
+      <c r="ACA26" s="17"/>
+      <c r="ACB26" s="17"/>
+      <c r="ACC26" s="17"/>
+      <c r="ACD26" s="17"/>
+      <c r="ACE26" s="17"/>
+      <c r="ACF26" s="17"/>
+      <c r="ACG26" s="17"/>
+      <c r="ACH26" s="17"/>
+      <c r="ACI26" s="17"/>
+      <c r="ACJ26" s="17"/>
+      <c r="ACK26" s="17"/>
+      <c r="ACL26" s="17"/>
+      <c r="ACM26" s="17"/>
+      <c r="ACN26" s="17"/>
+      <c r="ACO26" s="17"/>
+      <c r="ACP26" s="17"/>
+      <c r="ACQ26" s="17"/>
+      <c r="ACR26" s="17"/>
+      <c r="ACS26" s="17"/>
+      <c r="ACT26" s="17"/>
+      <c r="ACU26" s="17"/>
+      <c r="ACV26" s="17"/>
+      <c r="ACW26" s="17"/>
+      <c r="ACX26" s="17"/>
+      <c r="ACY26" s="17"/>
+      <c r="ACZ26" s="17"/>
+      <c r="ADA26" s="17"/>
+      <c r="ADB26" s="17"/>
+      <c r="ADC26" s="17"/>
+      <c r="ADD26" s="17"/>
+      <c r="ADE26" s="17"/>
+      <c r="ADF26" s="17"/>
+      <c r="ADG26" s="17"/>
+      <c r="ADH26" s="17"/>
+      <c r="ADI26" s="17"/>
+      <c r="ADJ26" s="17"/>
+      <c r="ADK26" s="17"/>
+      <c r="ADL26" s="17"/>
+      <c r="ADM26" s="17"/>
+      <c r="ADN26" s="17"/>
+      <c r="ADO26" s="17"/>
+      <c r="ADP26" s="17"/>
+      <c r="ADQ26" s="17"/>
+      <c r="ADR26" s="17"/>
+      <c r="ADS26" s="17"/>
+      <c r="ADT26" s="17"/>
+      <c r="ADU26" s="17"/>
+      <c r="ADV26" s="17"/>
+      <c r="ADW26" s="17"/>
+      <c r="ADX26" s="17"/>
+      <c r="ADY26" s="17"/>
+      <c r="ADZ26" s="17"/>
+      <c r="AEA26" s="17"/>
+      <c r="AEB26" s="17"/>
+      <c r="AEC26" s="17"/>
+      <c r="AED26" s="17"/>
+      <c r="AEE26" s="17"/>
+      <c r="AEF26" s="17"/>
+      <c r="AEG26" s="17"/>
+      <c r="AEH26" s="17"/>
+      <c r="AEI26" s="17"/>
+      <c r="AEJ26" s="17"/>
+      <c r="AEK26" s="17"/>
+      <c r="AEL26" s="17"/>
+      <c r="AEM26" s="17"/>
+      <c r="AEN26" s="17"/>
+      <c r="AEO26" s="17"/>
+      <c r="AEP26" s="17"/>
+      <c r="AEQ26" s="17"/>
+      <c r="AER26" s="17"/>
+      <c r="AES26" s="17"/>
+      <c r="AET26" s="17"/>
+      <c r="AEU26" s="17"/>
+      <c r="AEV26" s="17"/>
+      <c r="AEW26" s="17"/>
+      <c r="AEX26" s="17"/>
+      <c r="AEY26" s="17"/>
+      <c r="AEZ26" s="17"/>
+      <c r="AFA26" s="17"/>
+      <c r="AFB26" s="17"/>
+      <c r="AFC26" s="17"/>
+      <c r="AFD26" s="17"/>
+      <c r="AFE26" s="17"/>
+      <c r="AFF26" s="17"/>
+      <c r="AFG26" s="17"/>
+      <c r="AFH26" s="17"/>
+      <c r="AFI26" s="17"/>
+      <c r="AFJ26" s="17"/>
+      <c r="AFK26" s="17"/>
+      <c r="AFL26" s="17"/>
+      <c r="AFM26" s="17"/>
+      <c r="AFN26" s="17"/>
+      <c r="AFO26" s="17"/>
+      <c r="AFP26" s="17"/>
+      <c r="AFQ26" s="17"/>
+      <c r="AFR26" s="17"/>
+      <c r="AFS26" s="17"/>
+      <c r="AFT26" s="17"/>
+      <c r="AFU26" s="17"/>
+      <c r="AFV26" s="17"/>
+      <c r="AFW26" s="17"/>
+      <c r="AFX26" s="17"/>
+      <c r="AFY26" s="17"/>
+      <c r="AFZ26" s="17"/>
+      <c r="AGA26" s="17"/>
+      <c r="AGB26" s="17"/>
+      <c r="AGC26" s="17"/>
+      <c r="AGD26" s="17"/>
+      <c r="AGE26" s="17"/>
+      <c r="AGF26" s="17"/>
+      <c r="AGG26" s="17"/>
+      <c r="AGH26" s="17"/>
+      <c r="AGI26" s="17"/>
+      <c r="AGJ26" s="17"/>
+      <c r="AGK26" s="17"/>
+      <c r="AGL26" s="17"/>
+      <c r="AGM26" s="17"/>
+      <c r="AGN26" s="17"/>
+      <c r="AGO26" s="17"/>
+      <c r="AGP26" s="17"/>
+      <c r="AGQ26" s="17"/>
+      <c r="AGR26" s="17"/>
+      <c r="AGS26" s="17"/>
+      <c r="AGT26" s="17"/>
+      <c r="AGU26" s="17"/>
+      <c r="AGV26" s="17"/>
+      <c r="AGW26" s="17"/>
+      <c r="AGX26" s="17"/>
+      <c r="AGY26" s="17"/>
+      <c r="AGZ26" s="17"/>
+      <c r="AHA26" s="17"/>
+      <c r="AHB26" s="17"/>
+      <c r="AHC26" s="17"/>
+      <c r="AHD26" s="17"/>
+      <c r="AHE26" s="17"/>
+      <c r="AHF26" s="17"/>
+      <c r="AHG26" s="17"/>
+      <c r="AHH26" s="17"/>
+      <c r="AHI26" s="17"/>
+      <c r="AHJ26" s="17"/>
+      <c r="AHK26" s="17"/>
+      <c r="AHL26" s="17"/>
+      <c r="AHM26" s="17"/>
+      <c r="AHN26" s="17"/>
+      <c r="AHO26" s="17"/>
+      <c r="AHP26" s="17"/>
+      <c r="AHQ26" s="17"/>
+      <c r="AHR26" s="17"/>
+      <c r="AHS26" s="17"/>
+      <c r="AHT26" s="17"/>
+      <c r="AHU26" s="17"/>
+      <c r="AHV26" s="17"/>
+      <c r="AHW26" s="17"/>
+      <c r="AHX26" s="17"/>
+      <c r="AHY26" s="17"/>
+      <c r="AHZ26" s="17"/>
+      <c r="AIA26" s="17"/>
+      <c r="AIB26" s="17"/>
+      <c r="AIC26" s="17"/>
+      <c r="AID26" s="17"/>
+      <c r="AIE26" s="17"/>
+      <c r="AIF26" s="17"/>
+      <c r="AIG26" s="17"/>
+      <c r="AIH26" s="17"/>
+      <c r="AII26" s="17"/>
+      <c r="AIJ26" s="17"/>
+      <c r="AIK26" s="17"/>
+      <c r="AIL26" s="17"/>
+      <c r="AIM26" s="17"/>
+      <c r="AIN26" s="17"/>
+      <c r="AIO26" s="17"/>
+      <c r="AIP26" s="17"/>
+      <c r="AIQ26" s="17"/>
+      <c r="AIR26" s="17"/>
+      <c r="AIS26" s="17"/>
+      <c r="AIT26" s="17"/>
+      <c r="AIU26" s="17"/>
+      <c r="AIV26" s="17"/>
+      <c r="AIW26" s="17"/>
+      <c r="AIX26" s="17"/>
+      <c r="AIY26" s="17"/>
+      <c r="AIZ26" s="17"/>
+      <c r="AJA26" s="17"/>
+      <c r="AJB26" s="17"/>
+      <c r="AJC26" s="17"/>
+      <c r="AJD26" s="17"/>
+      <c r="AJE26" s="17"/>
+      <c r="AJF26" s="17"/>
+      <c r="AJG26" s="17"/>
+      <c r="AJH26" s="17"/>
+      <c r="AJI26" s="17"/>
+      <c r="AJJ26" s="17"/>
+      <c r="AJK26" s="17"/>
+      <c r="AJL26" s="17"/>
+      <c r="AJM26" s="17"/>
+      <c r="AJN26" s="17"/>
+      <c r="AJO26" s="17"/>
+      <c r="AJP26" s="17"/>
+      <c r="AJQ26" s="17"/>
+      <c r="AJR26" s="17"/>
+      <c r="AJS26" s="17"/>
+      <c r="AJT26" s="17"/>
+      <c r="AJU26" s="17"/>
+      <c r="AJV26" s="17"/>
+      <c r="AJW26" s="17"/>
+      <c r="AJX26" s="17"/>
+      <c r="AJY26" s="17"/>
+      <c r="AJZ26" s="17"/>
+      <c r="AKA26" s="17"/>
+      <c r="AKB26" s="17"/>
+      <c r="AKC26" s="17"/>
+      <c r="AKD26" s="17"/>
+      <c r="AKE26" s="17"/>
+      <c r="AKF26" s="17"/>
+      <c r="AKG26" s="17"/>
+      <c r="AKH26" s="17"/>
+      <c r="AKI26" s="17"/>
+      <c r="AKJ26" s="17"/>
+      <c r="AKK26" s="17"/>
+      <c r="AKL26" s="17"/>
+      <c r="AKM26" s="17"/>
+      <c r="AKN26" s="17"/>
+      <c r="AKO26" s="17"/>
+      <c r="AKP26" s="17"/>
+      <c r="AKQ26" s="17"/>
+      <c r="AKR26" s="17"/>
+      <c r="AKS26" s="17"/>
+      <c r="AKT26" s="17"/>
+      <c r="AKU26" s="17"/>
+      <c r="AKV26" s="17"/>
+      <c r="AKW26" s="17"/>
+      <c r="AKX26" s="17"/>
+      <c r="AKY26" s="17"/>
+      <c r="AKZ26" s="17"/>
+      <c r="ALA26" s="17"/>
+      <c r="ALB26" s="17"/>
+      <c r="ALC26" s="17"/>
+      <c r="ALD26" s="17"/>
+      <c r="ALE26" s="17"/>
+      <c r="ALF26" s="17"/>
+      <c r="ALG26" s="17"/>
+      <c r="ALH26" s="17"/>
+      <c r="ALI26" s="17"/>
+      <c r="ALJ26" s="17"/>
+      <c r="ALK26" s="17"/>
+      <c r="ALL26" s="17"/>
+      <c r="ALM26" s="17"/>
+      <c r="ALN26" s="17"/>
+      <c r="ALO26" s="17"/>
+      <c r="ALP26" s="17"/>
+      <c r="ALQ26" s="17"/>
+      <c r="ALR26" s="17"/>
+      <c r="ALS26" s="17"/>
+      <c r="ALT26" s="17"/>
+      <c r="ALU26" s="17"/>
+      <c r="ALV26" s="17"/>
+      <c r="ALW26" s="17"/>
+      <c r="ALX26" s="17"/>
+      <c r="ALY26" s="17"/>
+      <c r="ALZ26" s="17"/>
+      <c r="AMA26" s="17"/>
+      <c r="AMB26" s="17"/>
+      <c r="AMC26" s="17"/>
+      <c r="AMD26" s="17"/>
+      <c r="AME26" s="17"/>
+      <c r="AMF26" s="17"/>
+      <c r="AMG26" s="17"/>
+      <c r="AMH26" s="17"/>
+      <c r="AMI26" s="17"/>
+      <c r="AMJ26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17"/>
+      <c r="B27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="8" t="n">
+        <v>8026117853</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="17"/>
+      <c r="AO27" s="17"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
+      <c r="AT27" s="17"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="17"/>
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="17"/>
+      <c r="AY27" s="17"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="17"/>
+      <c r="BB27" s="17"/>
+      <c r="BC27" s="17"/>
+      <c r="BD27" s="17"/>
+      <c r="BE27" s="17"/>
+      <c r="BF27" s="17"/>
+      <c r="BG27" s="17"/>
+      <c r="BH27" s="17"/>
+      <c r="BI27" s="17"/>
+      <c r="BJ27" s="17"/>
+      <c r="BK27" s="17"/>
+      <c r="BL27" s="17"/>
+      <c r="BM27" s="17"/>
+      <c r="BN27" s="17"/>
+      <c r="BO27" s="17"/>
+      <c r="BP27" s="17"/>
+      <c r="BQ27" s="17"/>
+      <c r="BR27" s="17"/>
+      <c r="BS27" s="17"/>
+      <c r="BT27" s="17"/>
+      <c r="BU27" s="17"/>
+      <c r="BV27" s="17"/>
+      <c r="BW27" s="17"/>
+      <c r="BX27" s="17"/>
+      <c r="BY27" s="17"/>
+      <c r="BZ27" s="17"/>
+      <c r="CA27" s="17"/>
+      <c r="CB27" s="17"/>
+      <c r="CC27" s="17"/>
+      <c r="CD27" s="17"/>
+      <c r="CE27" s="17"/>
+      <c r="CF27" s="17"/>
+      <c r="CG27" s="17"/>
+      <c r="CH27" s="17"/>
+      <c r="CI27" s="17"/>
+      <c r="CJ27" s="17"/>
+      <c r="CK27" s="17"/>
+      <c r="CL27" s="17"/>
+      <c r="CM27" s="17"/>
+      <c r="CN27" s="17"/>
+      <c r="CO27" s="17"/>
+      <c r="CP27" s="17"/>
+      <c r="CQ27" s="17"/>
+      <c r="CR27" s="17"/>
+      <c r="CS27" s="17"/>
+      <c r="CT27" s="17"/>
+      <c r="CU27" s="17"/>
+      <c r="CV27" s="17"/>
+      <c r="CW27" s="17"/>
+      <c r="CX27" s="17"/>
+      <c r="CY27" s="17"/>
+      <c r="CZ27" s="17"/>
+      <c r="DA27" s="17"/>
+      <c r="DB27" s="17"/>
+      <c r="DC27" s="17"/>
+      <c r="DD27" s="17"/>
+      <c r="DE27" s="17"/>
+      <c r="DF27" s="17"/>
+      <c r="DG27" s="17"/>
+      <c r="DH27" s="17"/>
+      <c r="DI27" s="17"/>
+      <c r="DJ27" s="17"/>
+      <c r="DK27" s="17"/>
+      <c r="DL27" s="17"/>
+      <c r="DM27" s="17"/>
+      <c r="DN27" s="17"/>
+      <c r="DO27" s="17"/>
+      <c r="DP27" s="17"/>
+      <c r="DQ27" s="17"/>
+      <c r="DR27" s="17"/>
+      <c r="DS27" s="17"/>
+      <c r="DT27" s="17"/>
+      <c r="DU27" s="17"/>
+      <c r="DV27" s="17"/>
+      <c r="DW27" s="17"/>
+      <c r="DX27" s="17"/>
+      <c r="DY27" s="17"/>
+      <c r="DZ27" s="17"/>
+      <c r="EA27" s="17"/>
+      <c r="EB27" s="17"/>
+      <c r="EC27" s="17"/>
+      <c r="ED27" s="17"/>
+      <c r="EE27" s="17"/>
+      <c r="EF27" s="17"/>
+      <c r="EG27" s="17"/>
+      <c r="EH27" s="17"/>
+      <c r="EI27" s="17"/>
+      <c r="EJ27" s="17"/>
+      <c r="EK27" s="17"/>
+      <c r="EL27" s="17"/>
+      <c r="EM27" s="17"/>
+      <c r="EN27" s="17"/>
+      <c r="EO27" s="17"/>
+      <c r="EP27" s="17"/>
+      <c r="EQ27" s="17"/>
+      <c r="ER27" s="17"/>
+      <c r="ES27" s="17"/>
+      <c r="ET27" s="17"/>
+      <c r="EU27" s="17"/>
+      <c r="EV27" s="17"/>
+      <c r="EW27" s="17"/>
+      <c r="EX27" s="17"/>
+      <c r="EY27" s="17"/>
+      <c r="EZ27" s="17"/>
+      <c r="FA27" s="17"/>
+      <c r="FB27" s="17"/>
+      <c r="FC27" s="17"/>
+      <c r="FD27" s="17"/>
+      <c r="FE27" s="17"/>
+      <c r="FF27" s="17"/>
+      <c r="FG27" s="17"/>
+      <c r="FH27" s="17"/>
+      <c r="FI27" s="17"/>
+      <c r="FJ27" s="17"/>
+      <c r="FK27" s="17"/>
+      <c r="FL27" s="17"/>
+      <c r="FM27" s="17"/>
+      <c r="FN27" s="17"/>
+      <c r="FO27" s="17"/>
+      <c r="FP27" s="17"/>
+      <c r="FQ27" s="17"/>
+      <c r="FR27" s="17"/>
+      <c r="FS27" s="17"/>
+      <c r="FT27" s="17"/>
+      <c r="FU27" s="17"/>
+      <c r="FV27" s="17"/>
+      <c r="FW27" s="17"/>
+      <c r="FX27" s="17"/>
+      <c r="FY27" s="17"/>
+      <c r="FZ27" s="17"/>
+      <c r="GA27" s="17"/>
+      <c r="GB27" s="17"/>
+      <c r="GC27" s="17"/>
+      <c r="GD27" s="17"/>
+      <c r="GE27" s="17"/>
+      <c r="GF27" s="17"/>
+      <c r="GG27" s="17"/>
+      <c r="GH27" s="17"/>
+      <c r="GI27" s="17"/>
+      <c r="GJ27" s="17"/>
+      <c r="GK27" s="17"/>
+      <c r="GL27" s="17"/>
+      <c r="GM27" s="17"/>
+      <c r="GN27" s="17"/>
+      <c r="GO27" s="17"/>
+      <c r="GP27" s="17"/>
+      <c r="GQ27" s="17"/>
+      <c r="GR27" s="17"/>
+      <c r="GS27" s="17"/>
+      <c r="GT27" s="17"/>
+      <c r="GU27" s="17"/>
+      <c r="GV27" s="17"/>
+      <c r="GW27" s="17"/>
+      <c r="GX27" s="17"/>
+      <c r="GY27" s="17"/>
+      <c r="GZ27" s="17"/>
+      <c r="HA27" s="17"/>
+      <c r="HB27" s="17"/>
+      <c r="HC27" s="17"/>
+      <c r="HD27" s="17"/>
+      <c r="HE27" s="17"/>
+      <c r="HF27" s="17"/>
+      <c r="HG27" s="17"/>
+      <c r="HH27" s="17"/>
+      <c r="HI27" s="17"/>
+      <c r="HJ27" s="17"/>
+      <c r="HK27" s="17"/>
+      <c r="HL27" s="17"/>
+      <c r="HM27" s="17"/>
+      <c r="HN27" s="17"/>
+      <c r="HO27" s="17"/>
+      <c r="HP27" s="17"/>
+      <c r="HQ27" s="17"/>
+      <c r="HR27" s="17"/>
+      <c r="HS27" s="17"/>
+      <c r="HT27" s="17"/>
+      <c r="HU27" s="17"/>
+      <c r="HV27" s="17"/>
+      <c r="HW27" s="17"/>
+      <c r="HX27" s="17"/>
+      <c r="HY27" s="17"/>
+      <c r="HZ27" s="17"/>
+      <c r="IA27" s="17"/>
+      <c r="IB27" s="17"/>
+      <c r="IC27" s="17"/>
+      <c r="ID27" s="17"/>
+      <c r="IE27" s="17"/>
+      <c r="IF27" s="17"/>
+      <c r="IG27" s="17"/>
+      <c r="IH27" s="17"/>
+      <c r="II27" s="17"/>
+      <c r="IJ27" s="17"/>
+      <c r="IK27" s="17"/>
+      <c r="IL27" s="17"/>
+      <c r="IM27" s="17"/>
+      <c r="IN27" s="17"/>
+      <c r="IO27" s="17"/>
+      <c r="IP27" s="17"/>
+      <c r="IQ27" s="17"/>
+      <c r="IR27" s="17"/>
+      <c r="IS27" s="17"/>
+      <c r="IT27" s="17"/>
+      <c r="IU27" s="17"/>
+      <c r="IV27" s="17"/>
+      <c r="IW27" s="17"/>
+      <c r="IX27" s="17"/>
+      <c r="IY27" s="17"/>
+      <c r="IZ27" s="17"/>
+      <c r="JA27" s="17"/>
+      <c r="JB27" s="17"/>
+      <c r="JC27" s="17"/>
+      <c r="JD27" s="17"/>
+      <c r="JE27" s="17"/>
+      <c r="JF27" s="17"/>
+      <c r="JG27" s="17"/>
+      <c r="JH27" s="17"/>
+      <c r="JI27" s="17"/>
+      <c r="JJ27" s="17"/>
+      <c r="JK27" s="17"/>
+      <c r="JL27" s="17"/>
+      <c r="JM27" s="17"/>
+      <c r="JN27" s="17"/>
+      <c r="JO27" s="17"/>
+      <c r="JP27" s="17"/>
+      <c r="JQ27" s="17"/>
+      <c r="JR27" s="17"/>
+      <c r="JS27" s="17"/>
+      <c r="JT27" s="17"/>
+      <c r="JU27" s="17"/>
+      <c r="JV27" s="17"/>
+      <c r="JW27" s="17"/>
+      <c r="JX27" s="17"/>
+      <c r="JY27" s="17"/>
+      <c r="JZ27" s="17"/>
+      <c r="KA27" s="17"/>
+      <c r="KB27" s="17"/>
+      <c r="KC27" s="17"/>
+      <c r="KD27" s="17"/>
+      <c r="KE27" s="17"/>
+      <c r="KF27" s="17"/>
+      <c r="KG27" s="17"/>
+      <c r="KH27" s="17"/>
+      <c r="KI27" s="17"/>
+      <c r="KJ27" s="17"/>
+      <c r="KK27" s="17"/>
+      <c r="KL27" s="17"/>
+      <c r="KM27" s="17"/>
+      <c r="KN27" s="17"/>
+      <c r="KO27" s="17"/>
+      <c r="KP27" s="17"/>
+      <c r="KQ27" s="17"/>
+      <c r="KR27" s="17"/>
+      <c r="KS27" s="17"/>
+      <c r="KT27" s="17"/>
+      <c r="KU27" s="17"/>
+      <c r="KV27" s="17"/>
+      <c r="KW27" s="17"/>
+      <c r="KX27" s="17"/>
+      <c r="KY27" s="17"/>
+      <c r="KZ27" s="17"/>
+      <c r="LA27" s="17"/>
+      <c r="LB27" s="17"/>
+      <c r="LC27" s="17"/>
+      <c r="LD27" s="17"/>
+      <c r="LE27" s="17"/>
+      <c r="LF27" s="17"/>
+      <c r="LG27" s="17"/>
+      <c r="LH27" s="17"/>
+      <c r="LI27" s="17"/>
+      <c r="LJ27" s="17"/>
+      <c r="LK27" s="17"/>
+      <c r="LL27" s="17"/>
+      <c r="LM27" s="17"/>
+      <c r="LN27" s="17"/>
+      <c r="LO27" s="17"/>
+      <c r="LP27" s="17"/>
+      <c r="LQ27" s="17"/>
+      <c r="LR27" s="17"/>
+      <c r="LS27" s="17"/>
+      <c r="LT27" s="17"/>
+      <c r="LU27" s="17"/>
+      <c r="LV27" s="17"/>
+      <c r="LW27" s="17"/>
+      <c r="LX27" s="17"/>
+      <c r="LY27" s="17"/>
+      <c r="LZ27" s="17"/>
+      <c r="MA27" s="17"/>
+      <c r="MB27" s="17"/>
+      <c r="MC27" s="17"/>
+      <c r="MD27" s="17"/>
+      <c r="ME27" s="17"/>
+      <c r="MF27" s="17"/>
+      <c r="MG27" s="17"/>
+      <c r="MH27" s="17"/>
+      <c r="MI27" s="17"/>
+      <c r="MJ27" s="17"/>
+      <c r="MK27" s="17"/>
+      <c r="ML27" s="17"/>
+      <c r="MM27" s="17"/>
+      <c r="MN27" s="17"/>
+      <c r="MO27" s="17"/>
+      <c r="MP27" s="17"/>
+      <c r="MQ27" s="17"/>
+      <c r="MR27" s="17"/>
+      <c r="MS27" s="17"/>
+      <c r="MT27" s="17"/>
+      <c r="MU27" s="17"/>
+      <c r="MV27" s="17"/>
+      <c r="MW27" s="17"/>
+      <c r="MX27" s="17"/>
+      <c r="MY27" s="17"/>
+      <c r="MZ27" s="17"/>
+      <c r="NA27" s="17"/>
+      <c r="NB27" s="17"/>
+      <c r="NC27" s="17"/>
+      <c r="ND27" s="17"/>
+      <c r="NE27" s="17"/>
+      <c r="NF27" s="17"/>
+      <c r="NG27" s="17"/>
+      <c r="NH27" s="17"/>
+      <c r="NI27" s="17"/>
+      <c r="NJ27" s="17"/>
+      <c r="NK27" s="17"/>
+      <c r="NL27" s="17"/>
+      <c r="NM27" s="17"/>
+      <c r="NN27" s="17"/>
+      <c r="NO27" s="17"/>
+      <c r="NP27" s="17"/>
+      <c r="NQ27" s="17"/>
+      <c r="NR27" s="17"/>
+      <c r="NS27" s="17"/>
+      <c r="NT27" s="17"/>
+      <c r="NU27" s="17"/>
+      <c r="NV27" s="17"/>
+      <c r="NW27" s="17"/>
+      <c r="NX27" s="17"/>
+      <c r="NY27" s="17"/>
+      <c r="NZ27" s="17"/>
+      <c r="OA27" s="17"/>
+      <c r="OB27" s="17"/>
+      <c r="OC27" s="17"/>
+      <c r="OD27" s="17"/>
+      <c r="OE27" s="17"/>
+      <c r="OF27" s="17"/>
+      <c r="OG27" s="17"/>
+      <c r="OH27" s="17"/>
+      <c r="OI27" s="17"/>
+      <c r="OJ27" s="17"/>
+      <c r="OK27" s="17"/>
+      <c r="OL27" s="17"/>
+      <c r="OM27" s="17"/>
+      <c r="ON27" s="17"/>
+      <c r="OO27" s="17"/>
+      <c r="OP27" s="17"/>
+      <c r="OQ27" s="17"/>
+      <c r="OR27" s="17"/>
+      <c r="OS27" s="17"/>
+      <c r="OT27" s="17"/>
+      <c r="OU27" s="17"/>
+      <c r="OV27" s="17"/>
+      <c r="OW27" s="17"/>
+      <c r="OX27" s="17"/>
+      <c r="OY27" s="17"/>
+      <c r="OZ27" s="17"/>
+      <c r="PA27" s="17"/>
+      <c r="PB27" s="17"/>
+      <c r="PC27" s="17"/>
+      <c r="PD27" s="17"/>
+      <c r="PE27" s="17"/>
+      <c r="PF27" s="17"/>
+      <c r="PG27" s="17"/>
+      <c r="PH27" s="17"/>
+      <c r="PI27" s="17"/>
+      <c r="PJ27" s="17"/>
+      <c r="PK27" s="17"/>
+      <c r="PL27" s="17"/>
+      <c r="PM27" s="17"/>
+      <c r="PN27" s="17"/>
+      <c r="PO27" s="17"/>
+      <c r="PP27" s="17"/>
+      <c r="PQ27" s="17"/>
+      <c r="PR27" s="17"/>
+      <c r="PS27" s="17"/>
+      <c r="PT27" s="17"/>
+      <c r="PU27" s="17"/>
+      <c r="PV27" s="17"/>
+      <c r="PW27" s="17"/>
+      <c r="PX27" s="17"/>
+      <c r="PY27" s="17"/>
+      <c r="PZ27" s="17"/>
+      <c r="QA27" s="17"/>
+      <c r="QB27" s="17"/>
+      <c r="QC27" s="17"/>
+      <c r="QD27" s="17"/>
+      <c r="QE27" s="17"/>
+      <c r="QF27" s="17"/>
+      <c r="QG27" s="17"/>
+      <c r="QH27" s="17"/>
+      <c r="QI27" s="17"/>
+      <c r="QJ27" s="17"/>
+      <c r="QK27" s="17"/>
+      <c r="QL27" s="17"/>
+      <c r="QM27" s="17"/>
+      <c r="QN27" s="17"/>
+      <c r="QO27" s="17"/>
+      <c r="QP27" s="17"/>
+      <c r="QQ27" s="17"/>
+      <c r="QR27" s="17"/>
+      <c r="QS27" s="17"/>
+      <c r="QT27" s="17"/>
+      <c r="QU27" s="17"/>
+      <c r="QV27" s="17"/>
+      <c r="QW27" s="17"/>
+      <c r="QX27" s="17"/>
+      <c r="QY27" s="17"/>
+      <c r="QZ27" s="17"/>
+      <c r="RA27" s="17"/>
+      <c r="RB27" s="17"/>
+      <c r="RC27" s="17"/>
+      <c r="RD27" s="17"/>
+      <c r="RE27" s="17"/>
+      <c r="RF27" s="17"/>
+      <c r="RG27" s="17"/>
+      <c r="RH27" s="17"/>
+      <c r="RI27" s="17"/>
+      <c r="RJ27" s="17"/>
+      <c r="RK27" s="17"/>
+      <c r="RL27" s="17"/>
+      <c r="RM27" s="17"/>
+      <c r="RN27" s="17"/>
+      <c r="RO27" s="17"/>
+      <c r="RP27" s="17"/>
+      <c r="RQ27" s="17"/>
+      <c r="RR27" s="17"/>
+      <c r="RS27" s="17"/>
+      <c r="RT27" s="17"/>
+      <c r="RU27" s="17"/>
+      <c r="RV27" s="17"/>
+      <c r="RW27" s="17"/>
+      <c r="RX27" s="17"/>
+      <c r="RY27" s="17"/>
+      <c r="RZ27" s="17"/>
+      <c r="SA27" s="17"/>
+      <c r="SB27" s="17"/>
+      <c r="SC27" s="17"/>
+      <c r="SD27" s="17"/>
+      <c r="SE27" s="17"/>
+      <c r="SF27" s="17"/>
+      <c r="SG27" s="17"/>
+      <c r="SH27" s="17"/>
+      <c r="SI27" s="17"/>
+      <c r="SJ27" s="17"/>
+      <c r="SK27" s="17"/>
+      <c r="SL27" s="17"/>
+      <c r="SM27" s="17"/>
+      <c r="SN27" s="17"/>
+      <c r="SO27" s="17"/>
+      <c r="SP27" s="17"/>
+      <c r="SQ27" s="17"/>
+      <c r="SR27" s="17"/>
+      <c r="SS27" s="17"/>
+      <c r="ST27" s="17"/>
+      <c r="SU27" s="17"/>
+      <c r="SV27" s="17"/>
+      <c r="SW27" s="17"/>
+      <c r="SX27" s="17"/>
+      <c r="SY27" s="17"/>
+      <c r="SZ27" s="17"/>
+      <c r="TA27" s="17"/>
+      <c r="TB27" s="17"/>
+      <c r="TC27" s="17"/>
+      <c r="TD27" s="17"/>
+      <c r="TE27" s="17"/>
+      <c r="TF27" s="17"/>
+      <c r="TG27" s="17"/>
+      <c r="TH27" s="17"/>
+      <c r="TI27" s="17"/>
+      <c r="TJ27" s="17"/>
+      <c r="TK27" s="17"/>
+      <c r="TL27" s="17"/>
+      <c r="TM27" s="17"/>
+      <c r="TN27" s="17"/>
+      <c r="TO27" s="17"/>
+      <c r="TP27" s="17"/>
+      <c r="TQ27" s="17"/>
+      <c r="TR27" s="17"/>
+      <c r="TS27" s="17"/>
+      <c r="TT27" s="17"/>
+      <c r="TU27" s="17"/>
+      <c r="TV27" s="17"/>
+      <c r="TW27" s="17"/>
+      <c r="TX27" s="17"/>
+      <c r="TY27" s="17"/>
+      <c r="TZ27" s="17"/>
+      <c r="UA27" s="17"/>
+      <c r="UB27" s="17"/>
+      <c r="UC27" s="17"/>
+      <c r="UD27" s="17"/>
+      <c r="UE27" s="17"/>
+      <c r="UF27" s="17"/>
+      <c r="UG27" s="17"/>
+      <c r="UH27" s="17"/>
+      <c r="UI27" s="17"/>
+      <c r="UJ27" s="17"/>
+      <c r="UK27" s="17"/>
+      <c r="UL27" s="17"/>
+      <c r="UM27" s="17"/>
+      <c r="UN27" s="17"/>
+      <c r="UO27" s="17"/>
+      <c r="UP27" s="17"/>
+      <c r="UQ27" s="17"/>
+      <c r="UR27" s="17"/>
+      <c r="US27" s="17"/>
+      <c r="UT27" s="17"/>
+      <c r="UU27" s="17"/>
+      <c r="UV27" s="17"/>
+      <c r="UW27" s="17"/>
+      <c r="UX27" s="17"/>
+      <c r="UY27" s="17"/>
+      <c r="UZ27" s="17"/>
+      <c r="VA27" s="17"/>
+      <c r="VB27" s="17"/>
+      <c r="VC27" s="17"/>
+      <c r="VD27" s="17"/>
+      <c r="VE27" s="17"/>
+      <c r="VF27" s="17"/>
+      <c r="VG27" s="17"/>
+      <c r="VH27" s="17"/>
+      <c r="VI27" s="17"/>
+      <c r="VJ27" s="17"/>
+      <c r="VK27" s="17"/>
+      <c r="VL27" s="17"/>
+      <c r="VM27" s="17"/>
+      <c r="VN27" s="17"/>
+      <c r="VO27" s="17"/>
+      <c r="VP27" s="17"/>
+      <c r="VQ27" s="17"/>
+      <c r="VR27" s="17"/>
+      <c r="VS27" s="17"/>
+      <c r="VT27" s="17"/>
+      <c r="VU27" s="17"/>
+      <c r="VV27" s="17"/>
+      <c r="VW27" s="17"/>
+      <c r="VX27" s="17"/>
+      <c r="VY27" s="17"/>
+      <c r="VZ27" s="17"/>
+      <c r="WA27" s="17"/>
+      <c r="WB27" s="17"/>
+      <c r="WC27" s="17"/>
+      <c r="WD27" s="17"/>
+      <c r="WE27" s="17"/>
+      <c r="WF27" s="17"/>
+      <c r="WG27" s="17"/>
+      <c r="WH27" s="17"/>
+      <c r="WI27" s="17"/>
+      <c r="WJ27" s="17"/>
+      <c r="WK27" s="17"/>
+      <c r="WL27" s="17"/>
+      <c r="WM27" s="17"/>
+      <c r="WN27" s="17"/>
+      <c r="WO27" s="17"/>
+      <c r="WP27" s="17"/>
+      <c r="WQ27" s="17"/>
+      <c r="WR27" s="17"/>
+      <c r="WS27" s="17"/>
+      <c r="WT27" s="17"/>
+      <c r="WU27" s="17"/>
+      <c r="WV27" s="17"/>
+      <c r="WW27" s="17"/>
+      <c r="WX27" s="17"/>
+      <c r="WY27" s="17"/>
+      <c r="WZ27" s="17"/>
+      <c r="XA27" s="17"/>
+      <c r="XB27" s="17"/>
+      <c r="XC27" s="17"/>
+      <c r="XD27" s="17"/>
+      <c r="XE27" s="17"/>
+      <c r="XF27" s="17"/>
+      <c r="XG27" s="17"/>
+      <c r="XH27" s="17"/>
+      <c r="XI27" s="17"/>
+      <c r="XJ27" s="17"/>
+      <c r="XK27" s="17"/>
+      <c r="XL27" s="17"/>
+      <c r="XM27" s="17"/>
+      <c r="XN27" s="17"/>
+      <c r="XO27" s="17"/>
+      <c r="XP27" s="17"/>
+      <c r="XQ27" s="17"/>
+      <c r="XR27" s="17"/>
+      <c r="XS27" s="17"/>
+      <c r="XT27" s="17"/>
+      <c r="XU27" s="17"/>
+      <c r="XV27" s="17"/>
+      <c r="XW27" s="17"/>
+      <c r="XX27" s="17"/>
+      <c r="XY27" s="17"/>
+      <c r="XZ27" s="17"/>
+      <c r="YA27" s="17"/>
+      <c r="YB27" s="17"/>
+      <c r="YC27" s="17"/>
+      <c r="YD27" s="17"/>
+      <c r="YE27" s="17"/>
+      <c r="YF27" s="17"/>
+      <c r="YG27" s="17"/>
+      <c r="YH27" s="17"/>
+      <c r="YI27" s="17"/>
+      <c r="YJ27" s="17"/>
+      <c r="YK27" s="17"/>
+      <c r="YL27" s="17"/>
+      <c r="YM27" s="17"/>
+      <c r="YN27" s="17"/>
+      <c r="YO27" s="17"/>
+      <c r="YP27" s="17"/>
+      <c r="YQ27" s="17"/>
+      <c r="YR27" s="17"/>
+      <c r="YS27" s="17"/>
+      <c r="YT27" s="17"/>
+      <c r="YU27" s="17"/>
+      <c r="YV27" s="17"/>
+      <c r="YW27" s="17"/>
+      <c r="YX27" s="17"/>
+      <c r="YY27" s="17"/>
+      <c r="YZ27" s="17"/>
+      <c r="ZA27" s="17"/>
+      <c r="ZB27" s="17"/>
+      <c r="ZC27" s="17"/>
+      <c r="ZD27" s="17"/>
+      <c r="ZE27" s="17"/>
+      <c r="ZF27" s="17"/>
+      <c r="ZG27" s="17"/>
+      <c r="ZH27" s="17"/>
+      <c r="ZI27" s="17"/>
+      <c r="ZJ27" s="17"/>
+      <c r="ZK27" s="17"/>
+      <c r="ZL27" s="17"/>
+      <c r="ZM27" s="17"/>
+      <c r="ZN27" s="17"/>
+      <c r="ZO27" s="17"/>
+      <c r="ZP27" s="17"/>
+      <c r="ZQ27" s="17"/>
+      <c r="ZR27" s="17"/>
+      <c r="ZS27" s="17"/>
+      <c r="ZT27" s="17"/>
+      <c r="ZU27" s="17"/>
+      <c r="ZV27" s="17"/>
+      <c r="ZW27" s="17"/>
+      <c r="ZX27" s="17"/>
+      <c r="ZY27" s="17"/>
+      <c r="ZZ27" s="17"/>
+      <c r="AAA27" s="17"/>
+      <c r="AAB27" s="17"/>
+      <c r="AAC27" s="17"/>
+      <c r="AAD27" s="17"/>
+      <c r="AAE27" s="17"/>
+      <c r="AAF27" s="17"/>
+      <c r="AAG27" s="17"/>
+      <c r="AAH27" s="17"/>
+      <c r="AAI27" s="17"/>
+      <c r="AAJ27" s="17"/>
+      <c r="AAK27" s="17"/>
+      <c r="AAL27" s="17"/>
+      <c r="AAM27" s="17"/>
+      <c r="AAN27" s="17"/>
+      <c r="AAO27" s="17"/>
+      <c r="AAP27" s="17"/>
+      <c r="AAQ27" s="17"/>
+      <c r="AAR27" s="17"/>
+      <c r="AAS27" s="17"/>
+      <c r="AAT27" s="17"/>
+      <c r="AAU27" s="17"/>
+      <c r="AAV27" s="17"/>
+      <c r="AAW27" s="17"/>
+      <c r="AAX27" s="17"/>
+      <c r="AAY27" s="17"/>
+      <c r="AAZ27" s="17"/>
+      <c r="ABA27" s="17"/>
+      <c r="ABB27" s="17"/>
+      <c r="ABC27" s="17"/>
+      <c r="ABD27" s="17"/>
+      <c r="ABE27" s="17"/>
+      <c r="ABF27" s="17"/>
+      <c r="ABG27" s="17"/>
+      <c r="ABH27" s="17"/>
+      <c r="ABI27" s="17"/>
+      <c r="ABJ27" s="17"/>
+      <c r="ABK27" s="17"/>
+      <c r="ABL27" s="17"/>
+      <c r="ABM27" s="17"/>
+      <c r="ABN27" s="17"/>
+      <c r="ABO27" s="17"/>
+      <c r="ABP27" s="17"/>
+      <c r="ABQ27" s="17"/>
+      <c r="ABR27" s="17"/>
+      <c r="ABS27" s="17"/>
+      <c r="ABT27" s="17"/>
+      <c r="ABU27" s="17"/>
+      <c r="ABV27" s="17"/>
+      <c r="ABW27" s="17"/>
+      <c r="ABX27" s="17"/>
+      <c r="ABY27" s="17"/>
+      <c r="ABZ27" s="17"/>
+      <c r="ACA27" s="17"/>
+      <c r="ACB27" s="17"/>
+      <c r="ACC27" s="17"/>
+      <c r="ACD27" s="17"/>
+      <c r="ACE27" s="17"/>
+      <c r="ACF27" s="17"/>
+      <c r="ACG27" s="17"/>
+      <c r="ACH27" s="17"/>
+      <c r="ACI27" s="17"/>
+      <c r="ACJ27" s="17"/>
+      <c r="ACK27" s="17"/>
+      <c r="ACL27" s="17"/>
+      <c r="ACM27" s="17"/>
+      <c r="ACN27" s="17"/>
+      <c r="ACO27" s="17"/>
+      <c r="ACP27" s="17"/>
+      <c r="ACQ27" s="17"/>
+      <c r="ACR27" s="17"/>
+      <c r="ACS27" s="17"/>
+      <c r="ACT27" s="17"/>
+      <c r="ACU27" s="17"/>
+      <c r="ACV27" s="17"/>
+      <c r="ACW27" s="17"/>
+      <c r="ACX27" s="17"/>
+      <c r="ACY27" s="17"/>
+      <c r="ACZ27" s="17"/>
+      <c r="ADA27" s="17"/>
+      <c r="ADB27" s="17"/>
+      <c r="ADC27" s="17"/>
+      <c r="ADD27" s="17"/>
+      <c r="ADE27" s="17"/>
+      <c r="ADF27" s="17"/>
+      <c r="ADG27" s="17"/>
+      <c r="ADH27" s="17"/>
+      <c r="ADI27" s="17"/>
+      <c r="ADJ27" s="17"/>
+      <c r="ADK27" s="17"/>
+      <c r="ADL27" s="17"/>
+      <c r="ADM27" s="17"/>
+      <c r="ADN27" s="17"/>
+      <c r="ADO27" s="17"/>
+      <c r="ADP27" s="17"/>
+      <c r="ADQ27" s="17"/>
+      <c r="ADR27" s="17"/>
+      <c r="ADS27" s="17"/>
+      <c r="ADT27" s="17"/>
+      <c r="ADU27" s="17"/>
+      <c r="ADV27" s="17"/>
+      <c r="ADW27" s="17"/>
+      <c r="ADX27" s="17"/>
+      <c r="ADY27" s="17"/>
+      <c r="ADZ27" s="17"/>
+      <c r="AEA27" s="17"/>
+      <c r="AEB27" s="17"/>
+      <c r="AEC27" s="17"/>
+      <c r="AED27" s="17"/>
+      <c r="AEE27" s="17"/>
+      <c r="AEF27" s="17"/>
+      <c r="AEG27" s="17"/>
+      <c r="AEH27" s="17"/>
+      <c r="AEI27" s="17"/>
+      <c r="AEJ27" s="17"/>
+      <c r="AEK27" s="17"/>
+      <c r="AEL27" s="17"/>
+      <c r="AEM27" s="17"/>
+      <c r="AEN27" s="17"/>
+      <c r="AEO27" s="17"/>
+      <c r="AEP27" s="17"/>
+      <c r="AEQ27" s="17"/>
+      <c r="AER27" s="17"/>
+      <c r="AES27" s="17"/>
+      <c r="AET27" s="17"/>
+      <c r="AEU27" s="17"/>
+      <c r="AEV27" s="17"/>
+      <c r="AEW27" s="17"/>
+      <c r="AEX27" s="17"/>
+      <c r="AEY27" s="17"/>
+      <c r="AEZ27" s="17"/>
+      <c r="AFA27" s="17"/>
+      <c r="AFB27" s="17"/>
+      <c r="AFC27" s="17"/>
+      <c r="AFD27" s="17"/>
+      <c r="AFE27" s="17"/>
+      <c r="AFF27" s="17"/>
+      <c r="AFG27" s="17"/>
+      <c r="AFH27" s="17"/>
+      <c r="AFI27" s="17"/>
+      <c r="AFJ27" s="17"/>
+      <c r="AFK27" s="17"/>
+      <c r="AFL27" s="17"/>
+      <c r="AFM27" s="17"/>
+      <c r="AFN27" s="17"/>
+      <c r="AFO27" s="17"/>
+      <c r="AFP27" s="17"/>
+      <c r="AFQ27" s="17"/>
+      <c r="AFR27" s="17"/>
+      <c r="AFS27" s="17"/>
+      <c r="AFT27" s="17"/>
+      <c r="AFU27" s="17"/>
+      <c r="AFV27" s="17"/>
+      <c r="AFW27" s="17"/>
+      <c r="AFX27" s="17"/>
+      <c r="AFY27" s="17"/>
+      <c r="AFZ27" s="17"/>
+      <c r="AGA27" s="17"/>
+      <c r="AGB27" s="17"/>
+      <c r="AGC27" s="17"/>
+      <c r="AGD27" s="17"/>
+      <c r="AGE27" s="17"/>
+      <c r="AGF27" s="17"/>
+      <c r="AGG27" s="17"/>
+      <c r="AGH27" s="17"/>
+      <c r="AGI27" s="17"/>
+      <c r="AGJ27" s="17"/>
+      <c r="AGK27" s="17"/>
+      <c r="AGL27" s="17"/>
+      <c r="AGM27" s="17"/>
+      <c r="AGN27" s="17"/>
+      <c r="AGO27" s="17"/>
+      <c r="AGP27" s="17"/>
+      <c r="AGQ27" s="17"/>
+      <c r="AGR27" s="17"/>
+      <c r="AGS27" s="17"/>
+      <c r="AGT27" s="17"/>
+      <c r="AGU27" s="17"/>
+      <c r="AGV27" s="17"/>
+      <c r="AGW27" s="17"/>
+      <c r="AGX27" s="17"/>
+      <c r="AGY27" s="17"/>
+      <c r="AGZ27" s="17"/>
+      <c r="AHA27" s="17"/>
+      <c r="AHB27" s="17"/>
+      <c r="AHC27" s="17"/>
+      <c r="AHD27" s="17"/>
+      <c r="AHE27" s="17"/>
+      <c r="AHF27" s="17"/>
+      <c r="AHG27" s="17"/>
+      <c r="AHH27" s="17"/>
+      <c r="AHI27" s="17"/>
+      <c r="AHJ27" s="17"/>
+      <c r="AHK27" s="17"/>
+      <c r="AHL27" s="17"/>
+      <c r="AHM27" s="17"/>
+      <c r="AHN27" s="17"/>
+      <c r="AHO27" s="17"/>
+      <c r="AHP27" s="17"/>
+      <c r="AHQ27" s="17"/>
+      <c r="AHR27" s="17"/>
+      <c r="AHS27" s="17"/>
+      <c r="AHT27" s="17"/>
+      <c r="AHU27" s="17"/>
+      <c r="AHV27" s="17"/>
+      <c r="AHW27" s="17"/>
+      <c r="AHX27" s="17"/>
+      <c r="AHY27" s="17"/>
+      <c r="AHZ27" s="17"/>
+      <c r="AIA27" s="17"/>
+      <c r="AIB27" s="17"/>
+      <c r="AIC27" s="17"/>
+      <c r="AID27" s="17"/>
+      <c r="AIE27" s="17"/>
+      <c r="AIF27" s="17"/>
+      <c r="AIG27" s="17"/>
+      <c r="AIH27" s="17"/>
+      <c r="AII27" s="17"/>
+      <c r="AIJ27" s="17"/>
+      <c r="AIK27" s="17"/>
+      <c r="AIL27" s="17"/>
+      <c r="AIM27" s="17"/>
+      <c r="AIN27" s="17"/>
+      <c r="AIO27" s="17"/>
+      <c r="AIP27" s="17"/>
+      <c r="AIQ27" s="17"/>
+      <c r="AIR27" s="17"/>
+      <c r="AIS27" s="17"/>
+      <c r="AIT27" s="17"/>
+      <c r="AIU27" s="17"/>
+      <c r="AIV27" s="17"/>
+      <c r="AIW27" s="17"/>
+      <c r="AIX27" s="17"/>
+      <c r="AIY27" s="17"/>
+      <c r="AIZ27" s="17"/>
+      <c r="AJA27" s="17"/>
+      <c r="AJB27" s="17"/>
+      <c r="AJC27" s="17"/>
+      <c r="AJD27" s="17"/>
+      <c r="AJE27" s="17"/>
+      <c r="AJF27" s="17"/>
+      <c r="AJG27" s="17"/>
+      <c r="AJH27" s="17"/>
+      <c r="AJI27" s="17"/>
+      <c r="AJJ27" s="17"/>
+      <c r="AJK27" s="17"/>
+      <c r="AJL27" s="17"/>
+      <c r="AJM27" s="17"/>
+      <c r="AJN27" s="17"/>
+      <c r="AJO27" s="17"/>
+      <c r="AJP27" s="17"/>
+      <c r="AJQ27" s="17"/>
+      <c r="AJR27" s="17"/>
+      <c r="AJS27" s="17"/>
+      <c r="AJT27" s="17"/>
+      <c r="AJU27" s="17"/>
+      <c r="AJV27" s="17"/>
+      <c r="AJW27" s="17"/>
+      <c r="AJX27" s="17"/>
+      <c r="AJY27" s="17"/>
+      <c r="AJZ27" s="17"/>
+      <c r="AKA27" s="17"/>
+      <c r="AKB27" s="17"/>
+      <c r="AKC27" s="17"/>
+      <c r="AKD27" s="17"/>
+      <c r="AKE27" s="17"/>
+      <c r="AKF27" s="17"/>
+      <c r="AKG27" s="17"/>
+      <c r="AKH27" s="17"/>
+      <c r="AKI27" s="17"/>
+      <c r="AKJ27" s="17"/>
+      <c r="AKK27" s="17"/>
+      <c r="AKL27" s="17"/>
+      <c r="AKM27" s="17"/>
+      <c r="AKN27" s="17"/>
+      <c r="AKO27" s="17"/>
+      <c r="AKP27" s="17"/>
+      <c r="AKQ27" s="17"/>
+      <c r="AKR27" s="17"/>
+      <c r="AKS27" s="17"/>
+      <c r="AKT27" s="17"/>
+      <c r="AKU27" s="17"/>
+      <c r="AKV27" s="17"/>
+      <c r="AKW27" s="17"/>
+      <c r="AKX27" s="17"/>
+      <c r="AKY27" s="17"/>
+      <c r="AKZ27" s="17"/>
+      <c r="ALA27" s="17"/>
+      <c r="ALB27" s="17"/>
+      <c r="ALC27" s="17"/>
+      <c r="ALD27" s="17"/>
+      <c r="ALE27" s="17"/>
+      <c r="ALF27" s="17"/>
+      <c r="ALG27" s="17"/>
+      <c r="ALH27" s="17"/>
+      <c r="ALI27" s="17"/>
+      <c r="ALJ27" s="17"/>
+      <c r="ALK27" s="17"/>
+      <c r="ALL27" s="17"/>
+      <c r="ALM27" s="17"/>
+      <c r="ALN27" s="17"/>
+      <c r="ALO27" s="17"/>
+      <c r="ALP27" s="17"/>
+      <c r="ALQ27" s="17"/>
+      <c r="ALR27" s="17"/>
+      <c r="ALS27" s="17"/>
+      <c r="ALT27" s="17"/>
+      <c r="ALU27" s="17"/>
+      <c r="ALV27" s="17"/>
+      <c r="ALW27" s="17"/>
+      <c r="ALX27" s="17"/>
+      <c r="ALY27" s="17"/>
+      <c r="ALZ27" s="17"/>
+      <c r="AMA27" s="17"/>
+      <c r="AMB27" s="17"/>
+      <c r="AMC27" s="17"/>
+      <c r="AMD27" s="17"/>
+      <c r="AME27" s="17"/>
+      <c r="AMF27" s="17"/>
+      <c r="AMG27" s="17"/>
+      <c r="AMH27" s="17"/>
+      <c r="AMI27" s="17"/>
+      <c r="AMJ27" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>8033824119</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -14096,18 +16437,32 @@
       <c r="AMI28" s="6"/>
       <c r="AMJ28" s="6"/>
     </row>
-    <row r="29" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>8168810290</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -15124,2081 +17479,3129 @@
       <c r="AMI29" s="6"/>
       <c r="AMJ29" s="6"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="14" t="s">
-        <v>19</v>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
-      <c r="AG30" s="6"/>
-      <c r="AH30" s="6"/>
-      <c r="AI30" s="6"/>
-      <c r="AJ30" s="6"/>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-      <c r="AO30" s="6"/>
-      <c r="AP30" s="6"/>
-      <c r="AQ30" s="6"/>
-      <c r="AR30" s="6"/>
-      <c r="AS30" s="6"/>
-      <c r="AT30" s="6"/>
-      <c r="AU30" s="6"/>
-      <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
-      <c r="BG30" s="6"/>
-      <c r="BH30" s="6"/>
-      <c r="BI30" s="6"/>
-      <c r="BJ30" s="6"/>
-      <c r="BK30" s="6"/>
-      <c r="BL30" s="6"/>
-      <c r="BM30" s="6"/>
-      <c r="BN30" s="6"/>
-      <c r="BO30" s="6"/>
-      <c r="BP30" s="6"/>
-      <c r="BQ30" s="6"/>
-      <c r="BR30" s="6"/>
-      <c r="BS30" s="6"/>
-      <c r="BT30" s="6"/>
-      <c r="BU30" s="6"/>
-      <c r="BV30" s="6"/>
-      <c r="BW30" s="6"/>
-      <c r="BX30" s="6"/>
-      <c r="BY30" s="6"/>
-      <c r="BZ30" s="6"/>
-      <c r="CA30" s="6"/>
-      <c r="CB30" s="6"/>
-      <c r="CC30" s="6"/>
-      <c r="CD30" s="6"/>
-      <c r="CE30" s="6"/>
-      <c r="CF30" s="6"/>
-      <c r="CG30" s="6"/>
-      <c r="CH30" s="6"/>
-      <c r="CI30" s="6"/>
-      <c r="CJ30" s="6"/>
-      <c r="CK30" s="6"/>
-      <c r="CL30" s="6"/>
-      <c r="CM30" s="6"/>
-      <c r="CN30" s="6"/>
-      <c r="CO30" s="6"/>
-      <c r="CP30" s="6"/>
-      <c r="CQ30" s="6"/>
-      <c r="CR30" s="6"/>
-      <c r="CS30" s="6"/>
-      <c r="CT30" s="6"/>
-      <c r="CU30" s="6"/>
-      <c r="CV30" s="6"/>
-      <c r="CW30" s="6"/>
-      <c r="CX30" s="6"/>
-      <c r="CY30" s="6"/>
-      <c r="CZ30" s="6"/>
-      <c r="DA30" s="6"/>
-      <c r="DB30" s="6"/>
-      <c r="DC30" s="6"/>
-      <c r="DD30" s="6"/>
-      <c r="DE30" s="6"/>
-      <c r="DF30" s="6"/>
-      <c r="DG30" s="6"/>
-      <c r="DH30" s="6"/>
-      <c r="DI30" s="6"/>
-      <c r="DJ30" s="6"/>
-      <c r="DK30" s="6"/>
-      <c r="DL30" s="6"/>
-      <c r="DM30" s="6"/>
-      <c r="DN30" s="6"/>
-      <c r="DO30" s="6"/>
-      <c r="DP30" s="6"/>
-      <c r="DQ30" s="6"/>
-      <c r="DR30" s="6"/>
-      <c r="DS30" s="6"/>
-      <c r="DT30" s="6"/>
-      <c r="DU30" s="6"/>
-      <c r="DV30" s="6"/>
-      <c r="DW30" s="6"/>
-      <c r="DX30" s="6"/>
-      <c r="DY30" s="6"/>
-      <c r="DZ30" s="6"/>
-      <c r="EA30" s="6"/>
-      <c r="EB30" s="6"/>
-      <c r="EC30" s="6"/>
-      <c r="ED30" s="6"/>
-      <c r="EE30" s="6"/>
-      <c r="EF30" s="6"/>
-      <c r="EG30" s="6"/>
-      <c r="EH30" s="6"/>
-      <c r="EI30" s="6"/>
-      <c r="EJ30" s="6"/>
-      <c r="EK30" s="6"/>
-      <c r="EL30" s="6"/>
-      <c r="EM30" s="6"/>
-      <c r="EN30" s="6"/>
-      <c r="EO30" s="6"/>
-      <c r="EP30" s="6"/>
-      <c r="EQ30" s="6"/>
-      <c r="ER30" s="6"/>
-      <c r="ES30" s="6"/>
-      <c r="ET30" s="6"/>
-      <c r="EU30" s="6"/>
-      <c r="EV30" s="6"/>
-      <c r="EW30" s="6"/>
-      <c r="EX30" s="6"/>
-      <c r="EY30" s="6"/>
-      <c r="EZ30" s="6"/>
-      <c r="FA30" s="6"/>
-      <c r="FB30" s="6"/>
-      <c r="FC30" s="6"/>
-      <c r="FD30" s="6"/>
-      <c r="FE30" s="6"/>
-      <c r="FF30" s="6"/>
-      <c r="FG30" s="6"/>
-      <c r="FH30" s="6"/>
-      <c r="FI30" s="6"/>
-      <c r="FJ30" s="6"/>
-      <c r="FK30" s="6"/>
-      <c r="FL30" s="6"/>
-      <c r="FM30" s="6"/>
-      <c r="FN30" s="6"/>
-      <c r="FO30" s="6"/>
-      <c r="FP30" s="6"/>
-      <c r="FQ30" s="6"/>
-      <c r="FR30" s="6"/>
-      <c r="FS30" s="6"/>
-      <c r="FT30" s="6"/>
-      <c r="FU30" s="6"/>
-      <c r="FV30" s="6"/>
-      <c r="FW30" s="6"/>
-      <c r="FX30" s="6"/>
-      <c r="FY30" s="6"/>
-      <c r="FZ30" s="6"/>
-      <c r="GA30" s="6"/>
-      <c r="GB30" s="6"/>
-      <c r="GC30" s="6"/>
-      <c r="GD30" s="6"/>
-      <c r="GE30" s="6"/>
-      <c r="GF30" s="6"/>
-      <c r="GG30" s="6"/>
-      <c r="GH30" s="6"/>
-      <c r="GI30" s="6"/>
-      <c r="GJ30" s="6"/>
-      <c r="GK30" s="6"/>
-      <c r="GL30" s="6"/>
-      <c r="GM30" s="6"/>
-      <c r="GN30" s="6"/>
-      <c r="GO30" s="6"/>
-      <c r="GP30" s="6"/>
-      <c r="GQ30" s="6"/>
-      <c r="GR30" s="6"/>
-      <c r="GS30" s="6"/>
-      <c r="GT30" s="6"/>
-      <c r="GU30" s="6"/>
-      <c r="GV30" s="6"/>
-      <c r="GW30" s="6"/>
-      <c r="GX30" s="6"/>
-      <c r="GY30" s="6"/>
-      <c r="GZ30" s="6"/>
-      <c r="HA30" s="6"/>
-      <c r="HB30" s="6"/>
-      <c r="HC30" s="6"/>
-      <c r="HD30" s="6"/>
-      <c r="HE30" s="6"/>
-      <c r="HF30" s="6"/>
-      <c r="HG30" s="6"/>
-      <c r="HH30" s="6"/>
-      <c r="HI30" s="6"/>
-      <c r="HJ30" s="6"/>
-      <c r="HK30" s="6"/>
-      <c r="HL30" s="6"/>
-      <c r="HM30" s="6"/>
-      <c r="HN30" s="6"/>
-      <c r="HO30" s="6"/>
-      <c r="HP30" s="6"/>
-      <c r="HQ30" s="6"/>
-      <c r="HR30" s="6"/>
-      <c r="HS30" s="6"/>
-      <c r="HT30" s="6"/>
-      <c r="HU30" s="6"/>
-      <c r="HV30" s="6"/>
-      <c r="HW30" s="6"/>
-      <c r="HX30" s="6"/>
-      <c r="HY30" s="6"/>
-      <c r="HZ30" s="6"/>
-      <c r="IA30" s="6"/>
-      <c r="IB30" s="6"/>
-      <c r="IC30" s="6"/>
-      <c r="ID30" s="6"/>
-      <c r="IE30" s="6"/>
-      <c r="IF30" s="6"/>
-      <c r="IG30" s="6"/>
-      <c r="IH30" s="6"/>
-      <c r="II30" s="6"/>
-      <c r="IJ30" s="6"/>
-      <c r="IK30" s="6"/>
-      <c r="IL30" s="6"/>
-      <c r="IM30" s="6"/>
-      <c r="IN30" s="6"/>
-      <c r="IO30" s="6"/>
-      <c r="IP30" s="6"/>
-      <c r="IQ30" s="6"/>
-      <c r="IR30" s="6"/>
-      <c r="IS30" s="6"/>
-      <c r="IT30" s="6"/>
-      <c r="IU30" s="6"/>
-      <c r="IV30" s="6"/>
-      <c r="IW30" s="6"/>
-      <c r="IX30" s="6"/>
-      <c r="IY30" s="6"/>
-      <c r="IZ30" s="6"/>
-      <c r="JA30" s="6"/>
-      <c r="JB30" s="6"/>
-      <c r="JC30" s="6"/>
-      <c r="JD30" s="6"/>
-      <c r="JE30" s="6"/>
-      <c r="JF30" s="6"/>
-      <c r="JG30" s="6"/>
-      <c r="JH30" s="6"/>
-      <c r="JI30" s="6"/>
-      <c r="JJ30" s="6"/>
-      <c r="JK30" s="6"/>
-      <c r="JL30" s="6"/>
-      <c r="JM30" s="6"/>
-      <c r="JN30" s="6"/>
-      <c r="JO30" s="6"/>
-      <c r="JP30" s="6"/>
-      <c r="JQ30" s="6"/>
-      <c r="JR30" s="6"/>
-      <c r="JS30" s="6"/>
-      <c r="JT30" s="6"/>
-      <c r="JU30" s="6"/>
-      <c r="JV30" s="6"/>
-      <c r="JW30" s="6"/>
-      <c r="JX30" s="6"/>
-      <c r="JY30" s="6"/>
-      <c r="JZ30" s="6"/>
-      <c r="KA30" s="6"/>
-      <c r="KB30" s="6"/>
-      <c r="KC30" s="6"/>
-      <c r="KD30" s="6"/>
-      <c r="KE30" s="6"/>
-      <c r="KF30" s="6"/>
-      <c r="KG30" s="6"/>
-      <c r="KH30" s="6"/>
-      <c r="KI30" s="6"/>
-      <c r="KJ30" s="6"/>
-      <c r="KK30" s="6"/>
-      <c r="KL30" s="6"/>
-      <c r="KM30" s="6"/>
-      <c r="KN30" s="6"/>
-      <c r="KO30" s="6"/>
-      <c r="KP30" s="6"/>
-      <c r="KQ30" s="6"/>
-      <c r="KR30" s="6"/>
-      <c r="KS30" s="6"/>
-      <c r="KT30" s="6"/>
-      <c r="KU30" s="6"/>
-      <c r="KV30" s="6"/>
-      <c r="KW30" s="6"/>
-      <c r="KX30" s="6"/>
-      <c r="KY30" s="6"/>
-      <c r="KZ30" s="6"/>
-      <c r="LA30" s="6"/>
-      <c r="LB30" s="6"/>
-      <c r="LC30" s="6"/>
-      <c r="LD30" s="6"/>
-      <c r="LE30" s="6"/>
-      <c r="LF30" s="6"/>
-      <c r="LG30" s="6"/>
-      <c r="LH30" s="6"/>
-      <c r="LI30" s="6"/>
-      <c r="LJ30" s="6"/>
-      <c r="LK30" s="6"/>
-      <c r="LL30" s="6"/>
-      <c r="LM30" s="6"/>
-      <c r="LN30" s="6"/>
-      <c r="LO30" s="6"/>
-      <c r="LP30" s="6"/>
-      <c r="LQ30" s="6"/>
-      <c r="LR30" s="6"/>
-      <c r="LS30" s="6"/>
-      <c r="LT30" s="6"/>
-      <c r="LU30" s="6"/>
-      <c r="LV30" s="6"/>
-      <c r="LW30" s="6"/>
-      <c r="LX30" s="6"/>
-      <c r="LY30" s="6"/>
-      <c r="LZ30" s="6"/>
-      <c r="MA30" s="6"/>
-      <c r="MB30" s="6"/>
-      <c r="MC30" s="6"/>
-      <c r="MD30" s="6"/>
-      <c r="ME30" s="6"/>
-      <c r="MF30" s="6"/>
-      <c r="MG30" s="6"/>
-      <c r="MH30" s="6"/>
-      <c r="MI30" s="6"/>
-      <c r="MJ30" s="6"/>
-      <c r="MK30" s="6"/>
-      <c r="ML30" s="6"/>
-      <c r="MM30" s="6"/>
-      <c r="MN30" s="6"/>
-      <c r="MO30" s="6"/>
-      <c r="MP30" s="6"/>
-      <c r="MQ30" s="6"/>
-      <c r="MR30" s="6"/>
-      <c r="MS30" s="6"/>
-      <c r="MT30" s="6"/>
-      <c r="MU30" s="6"/>
-      <c r="MV30" s="6"/>
-      <c r="MW30" s="6"/>
-      <c r="MX30" s="6"/>
-      <c r="MY30" s="6"/>
-      <c r="MZ30" s="6"/>
-      <c r="NA30" s="6"/>
-      <c r="NB30" s="6"/>
-      <c r="NC30" s="6"/>
-      <c r="ND30" s="6"/>
-      <c r="NE30" s="6"/>
-      <c r="NF30" s="6"/>
-      <c r="NG30" s="6"/>
-      <c r="NH30" s="6"/>
-      <c r="NI30" s="6"/>
-      <c r="NJ30" s="6"/>
-      <c r="NK30" s="6"/>
-      <c r="NL30" s="6"/>
-      <c r="NM30" s="6"/>
-      <c r="NN30" s="6"/>
-      <c r="NO30" s="6"/>
-      <c r="NP30" s="6"/>
-      <c r="NQ30" s="6"/>
-      <c r="NR30" s="6"/>
-      <c r="NS30" s="6"/>
-      <c r="NT30" s="6"/>
-      <c r="NU30" s="6"/>
-      <c r="NV30" s="6"/>
-      <c r="NW30" s="6"/>
-      <c r="NX30" s="6"/>
-      <c r="NY30" s="6"/>
-      <c r="NZ30" s="6"/>
-      <c r="OA30" s="6"/>
-      <c r="OB30" s="6"/>
-      <c r="OC30" s="6"/>
-      <c r="OD30" s="6"/>
-      <c r="OE30" s="6"/>
-      <c r="OF30" s="6"/>
-      <c r="OG30" s="6"/>
-      <c r="OH30" s="6"/>
-      <c r="OI30" s="6"/>
-      <c r="OJ30" s="6"/>
-      <c r="OK30" s="6"/>
-      <c r="OL30" s="6"/>
-      <c r="OM30" s="6"/>
-      <c r="ON30" s="6"/>
-      <c r="OO30" s="6"/>
-      <c r="OP30" s="6"/>
-      <c r="OQ30" s="6"/>
-      <c r="OR30" s="6"/>
-      <c r="OS30" s="6"/>
-      <c r="OT30" s="6"/>
-      <c r="OU30" s="6"/>
-      <c r="OV30" s="6"/>
-      <c r="OW30" s="6"/>
-      <c r="OX30" s="6"/>
-      <c r="OY30" s="6"/>
-      <c r="OZ30" s="6"/>
-      <c r="PA30" s="6"/>
-      <c r="PB30" s="6"/>
-      <c r="PC30" s="6"/>
-      <c r="PD30" s="6"/>
-      <c r="PE30" s="6"/>
-      <c r="PF30" s="6"/>
-      <c r="PG30" s="6"/>
-      <c r="PH30" s="6"/>
-      <c r="PI30" s="6"/>
-      <c r="PJ30" s="6"/>
-      <c r="PK30" s="6"/>
-      <c r="PL30" s="6"/>
-      <c r="PM30" s="6"/>
-      <c r="PN30" s="6"/>
-      <c r="PO30" s="6"/>
-      <c r="PP30" s="6"/>
-      <c r="PQ30" s="6"/>
-      <c r="PR30" s="6"/>
-      <c r="PS30" s="6"/>
-      <c r="PT30" s="6"/>
-      <c r="PU30" s="6"/>
-      <c r="PV30" s="6"/>
-      <c r="PW30" s="6"/>
-      <c r="PX30" s="6"/>
-      <c r="PY30" s="6"/>
-      <c r="PZ30" s="6"/>
-      <c r="QA30" s="6"/>
-      <c r="QB30" s="6"/>
-      <c r="QC30" s="6"/>
-      <c r="QD30" s="6"/>
-      <c r="QE30" s="6"/>
-      <c r="QF30" s="6"/>
-      <c r="QG30" s="6"/>
-      <c r="QH30" s="6"/>
-      <c r="QI30" s="6"/>
-      <c r="QJ30" s="6"/>
-      <c r="QK30" s="6"/>
-      <c r="QL30" s="6"/>
-      <c r="QM30" s="6"/>
-      <c r="QN30" s="6"/>
-      <c r="QO30" s="6"/>
-      <c r="QP30" s="6"/>
-      <c r="QQ30" s="6"/>
-      <c r="QR30" s="6"/>
-      <c r="QS30" s="6"/>
-      <c r="QT30" s="6"/>
-      <c r="QU30" s="6"/>
-      <c r="QV30" s="6"/>
-      <c r="QW30" s="6"/>
-      <c r="QX30" s="6"/>
-      <c r="QY30" s="6"/>
-      <c r="QZ30" s="6"/>
-      <c r="RA30" s="6"/>
-      <c r="RB30" s="6"/>
-      <c r="RC30" s="6"/>
-      <c r="RD30" s="6"/>
-      <c r="RE30" s="6"/>
-      <c r="RF30" s="6"/>
-      <c r="RG30" s="6"/>
-      <c r="RH30" s="6"/>
-      <c r="RI30" s="6"/>
-      <c r="RJ30" s="6"/>
-      <c r="RK30" s="6"/>
-      <c r="RL30" s="6"/>
-      <c r="RM30" s="6"/>
-      <c r="RN30" s="6"/>
-      <c r="RO30" s="6"/>
-      <c r="RP30" s="6"/>
-      <c r="RQ30" s="6"/>
-      <c r="RR30" s="6"/>
-      <c r="RS30" s="6"/>
-      <c r="RT30" s="6"/>
-      <c r="RU30" s="6"/>
-      <c r="RV30" s="6"/>
-      <c r="RW30" s="6"/>
-      <c r="RX30" s="6"/>
-      <c r="RY30" s="6"/>
-      <c r="RZ30" s="6"/>
-      <c r="SA30" s="6"/>
-      <c r="SB30" s="6"/>
-      <c r="SC30" s="6"/>
-      <c r="SD30" s="6"/>
-      <c r="SE30" s="6"/>
-      <c r="SF30" s="6"/>
-      <c r="SG30" s="6"/>
-      <c r="SH30" s="6"/>
-      <c r="SI30" s="6"/>
-      <c r="SJ30" s="6"/>
-      <c r="SK30" s="6"/>
-      <c r="SL30" s="6"/>
-      <c r="SM30" s="6"/>
-      <c r="SN30" s="6"/>
-      <c r="SO30" s="6"/>
-      <c r="SP30" s="6"/>
-      <c r="SQ30" s="6"/>
-      <c r="SR30" s="6"/>
-      <c r="SS30" s="6"/>
-      <c r="ST30" s="6"/>
-      <c r="SU30" s="6"/>
-      <c r="SV30" s="6"/>
-      <c r="SW30" s="6"/>
-      <c r="SX30" s="6"/>
-      <c r="SY30" s="6"/>
-      <c r="SZ30" s="6"/>
-      <c r="TA30" s="6"/>
-      <c r="TB30" s="6"/>
-      <c r="TC30" s="6"/>
-      <c r="TD30" s="6"/>
-      <c r="TE30" s="6"/>
-      <c r="TF30" s="6"/>
-      <c r="TG30" s="6"/>
-      <c r="TH30" s="6"/>
-      <c r="TI30" s="6"/>
-      <c r="TJ30" s="6"/>
-      <c r="TK30" s="6"/>
-      <c r="TL30" s="6"/>
-      <c r="TM30" s="6"/>
-      <c r="TN30" s="6"/>
-      <c r="TO30" s="6"/>
-      <c r="TP30" s="6"/>
-      <c r="TQ30" s="6"/>
-      <c r="TR30" s="6"/>
-      <c r="TS30" s="6"/>
-      <c r="TT30" s="6"/>
-      <c r="TU30" s="6"/>
-      <c r="TV30" s="6"/>
-      <c r="TW30" s="6"/>
-      <c r="TX30" s="6"/>
-      <c r="TY30" s="6"/>
-      <c r="TZ30" s="6"/>
-      <c r="UA30" s="6"/>
-      <c r="UB30" s="6"/>
-      <c r="UC30" s="6"/>
-      <c r="UD30" s="6"/>
-      <c r="UE30" s="6"/>
-      <c r="UF30" s="6"/>
-      <c r="UG30" s="6"/>
-      <c r="UH30" s="6"/>
-      <c r="UI30" s="6"/>
-      <c r="UJ30" s="6"/>
-      <c r="UK30" s="6"/>
-      <c r="UL30" s="6"/>
-      <c r="UM30" s="6"/>
-      <c r="UN30" s="6"/>
-      <c r="UO30" s="6"/>
-      <c r="UP30" s="6"/>
-      <c r="UQ30" s="6"/>
-      <c r="UR30" s="6"/>
-      <c r="US30" s="6"/>
-      <c r="UT30" s="6"/>
-      <c r="UU30" s="6"/>
-      <c r="UV30" s="6"/>
-      <c r="UW30" s="6"/>
-      <c r="UX30" s="6"/>
-      <c r="UY30" s="6"/>
-      <c r="UZ30" s="6"/>
-      <c r="VA30" s="6"/>
-      <c r="VB30" s="6"/>
-      <c r="VC30" s="6"/>
-      <c r="VD30" s="6"/>
-      <c r="VE30" s="6"/>
-      <c r="VF30" s="6"/>
-      <c r="VG30" s="6"/>
-      <c r="VH30" s="6"/>
-      <c r="VI30" s="6"/>
-      <c r="VJ30" s="6"/>
-      <c r="VK30" s="6"/>
-      <c r="VL30" s="6"/>
-      <c r="VM30" s="6"/>
-      <c r="VN30" s="6"/>
-      <c r="VO30" s="6"/>
-      <c r="VP30" s="6"/>
-      <c r="VQ30" s="6"/>
-      <c r="VR30" s="6"/>
-      <c r="VS30" s="6"/>
-      <c r="VT30" s="6"/>
-      <c r="VU30" s="6"/>
-      <c r="VV30" s="6"/>
-      <c r="VW30" s="6"/>
-      <c r="VX30" s="6"/>
-      <c r="VY30" s="6"/>
-      <c r="VZ30" s="6"/>
-      <c r="WA30" s="6"/>
-      <c r="WB30" s="6"/>
-      <c r="WC30" s="6"/>
-      <c r="WD30" s="6"/>
-      <c r="WE30" s="6"/>
-      <c r="WF30" s="6"/>
-      <c r="WG30" s="6"/>
-      <c r="WH30" s="6"/>
-      <c r="WI30" s="6"/>
-      <c r="WJ30" s="6"/>
-      <c r="WK30" s="6"/>
-      <c r="WL30" s="6"/>
-      <c r="WM30" s="6"/>
-      <c r="WN30" s="6"/>
-      <c r="WO30" s="6"/>
-      <c r="WP30" s="6"/>
-      <c r="WQ30" s="6"/>
-      <c r="WR30" s="6"/>
-      <c r="WS30" s="6"/>
-      <c r="WT30" s="6"/>
-      <c r="WU30" s="6"/>
-      <c r="WV30" s="6"/>
-      <c r="WW30" s="6"/>
-      <c r="WX30" s="6"/>
-      <c r="WY30" s="6"/>
-      <c r="WZ30" s="6"/>
-      <c r="XA30" s="6"/>
-      <c r="XB30" s="6"/>
-      <c r="XC30" s="6"/>
-      <c r="XD30" s="6"/>
-      <c r="XE30" s="6"/>
-      <c r="XF30" s="6"/>
-      <c r="XG30" s="6"/>
-      <c r="XH30" s="6"/>
-      <c r="XI30" s="6"/>
-      <c r="XJ30" s="6"/>
-      <c r="XK30" s="6"/>
-      <c r="XL30" s="6"/>
-      <c r="XM30" s="6"/>
-      <c r="XN30" s="6"/>
-      <c r="XO30" s="6"/>
-      <c r="XP30" s="6"/>
-      <c r="XQ30" s="6"/>
-      <c r="XR30" s="6"/>
-      <c r="XS30" s="6"/>
-      <c r="XT30" s="6"/>
-      <c r="XU30" s="6"/>
-      <c r="XV30" s="6"/>
-      <c r="XW30" s="6"/>
-      <c r="XX30" s="6"/>
-      <c r="XY30" s="6"/>
-      <c r="XZ30" s="6"/>
-      <c r="YA30" s="6"/>
-      <c r="YB30" s="6"/>
-      <c r="YC30" s="6"/>
-      <c r="YD30" s="6"/>
-      <c r="YE30" s="6"/>
-      <c r="YF30" s="6"/>
-      <c r="YG30" s="6"/>
-      <c r="YH30" s="6"/>
-      <c r="YI30" s="6"/>
-      <c r="YJ30" s="6"/>
-      <c r="YK30" s="6"/>
-      <c r="YL30" s="6"/>
-      <c r="YM30" s="6"/>
-      <c r="YN30" s="6"/>
-      <c r="YO30" s="6"/>
-      <c r="YP30" s="6"/>
-      <c r="YQ30" s="6"/>
-      <c r="YR30" s="6"/>
-      <c r="YS30" s="6"/>
-      <c r="YT30" s="6"/>
-      <c r="YU30" s="6"/>
-      <c r="YV30" s="6"/>
-      <c r="YW30" s="6"/>
-      <c r="YX30" s="6"/>
-      <c r="YY30" s="6"/>
-      <c r="YZ30" s="6"/>
-      <c r="ZA30" s="6"/>
-      <c r="ZB30" s="6"/>
-      <c r="ZC30" s="6"/>
-      <c r="ZD30" s="6"/>
-      <c r="ZE30" s="6"/>
-      <c r="ZF30" s="6"/>
-      <c r="ZG30" s="6"/>
-      <c r="ZH30" s="6"/>
-      <c r="ZI30" s="6"/>
-      <c r="ZJ30" s="6"/>
-      <c r="ZK30" s="6"/>
-      <c r="ZL30" s="6"/>
-      <c r="ZM30" s="6"/>
-      <c r="ZN30" s="6"/>
-      <c r="ZO30" s="6"/>
-      <c r="ZP30" s="6"/>
-      <c r="ZQ30" s="6"/>
-      <c r="ZR30" s="6"/>
-      <c r="ZS30" s="6"/>
-      <c r="ZT30" s="6"/>
-      <c r="ZU30" s="6"/>
-      <c r="ZV30" s="6"/>
-      <c r="ZW30" s="6"/>
-      <c r="ZX30" s="6"/>
-      <c r="ZY30" s="6"/>
-      <c r="ZZ30" s="6"/>
-      <c r="AAA30" s="6"/>
-      <c r="AAB30" s="6"/>
-      <c r="AAC30" s="6"/>
-      <c r="AAD30" s="6"/>
-      <c r="AAE30" s="6"/>
-      <c r="AAF30" s="6"/>
-      <c r="AAG30" s="6"/>
-      <c r="AAH30" s="6"/>
-      <c r="AAI30" s="6"/>
-      <c r="AAJ30" s="6"/>
-      <c r="AAK30" s="6"/>
-      <c r="AAL30" s="6"/>
-      <c r="AAM30" s="6"/>
-      <c r="AAN30" s="6"/>
-      <c r="AAO30" s="6"/>
-      <c r="AAP30" s="6"/>
-      <c r="AAQ30" s="6"/>
-      <c r="AAR30" s="6"/>
-      <c r="AAS30" s="6"/>
-      <c r="AAT30" s="6"/>
-      <c r="AAU30" s="6"/>
-      <c r="AAV30" s="6"/>
-      <c r="AAW30" s="6"/>
-      <c r="AAX30" s="6"/>
-      <c r="AAY30" s="6"/>
-      <c r="AAZ30" s="6"/>
-      <c r="ABA30" s="6"/>
-      <c r="ABB30" s="6"/>
-      <c r="ABC30" s="6"/>
-      <c r="ABD30" s="6"/>
-      <c r="ABE30" s="6"/>
-      <c r="ABF30" s="6"/>
-      <c r="ABG30" s="6"/>
-      <c r="ABH30" s="6"/>
-      <c r="ABI30" s="6"/>
-      <c r="ABJ30" s="6"/>
-      <c r="ABK30" s="6"/>
-      <c r="ABL30" s="6"/>
-      <c r="ABM30" s="6"/>
-      <c r="ABN30" s="6"/>
-      <c r="ABO30" s="6"/>
-      <c r="ABP30" s="6"/>
-      <c r="ABQ30" s="6"/>
-      <c r="ABR30" s="6"/>
-      <c r="ABS30" s="6"/>
-      <c r="ABT30" s="6"/>
-      <c r="ABU30" s="6"/>
-      <c r="ABV30" s="6"/>
-      <c r="ABW30" s="6"/>
-      <c r="ABX30" s="6"/>
-      <c r="ABY30" s="6"/>
-      <c r="ABZ30" s="6"/>
-      <c r="ACA30" s="6"/>
-      <c r="ACB30" s="6"/>
-      <c r="ACC30" s="6"/>
-      <c r="ACD30" s="6"/>
-      <c r="ACE30" s="6"/>
-      <c r="ACF30" s="6"/>
-      <c r="ACG30" s="6"/>
-      <c r="ACH30" s="6"/>
-      <c r="ACI30" s="6"/>
-      <c r="ACJ30" s="6"/>
-      <c r="ACK30" s="6"/>
-      <c r="ACL30" s="6"/>
-      <c r="ACM30" s="6"/>
-      <c r="ACN30" s="6"/>
-      <c r="ACO30" s="6"/>
-      <c r="ACP30" s="6"/>
-      <c r="ACQ30" s="6"/>
-      <c r="ACR30" s="6"/>
-      <c r="ACS30" s="6"/>
-      <c r="ACT30" s="6"/>
-      <c r="ACU30" s="6"/>
-      <c r="ACV30" s="6"/>
-      <c r="ACW30" s="6"/>
-      <c r="ACX30" s="6"/>
-      <c r="ACY30" s="6"/>
-      <c r="ACZ30" s="6"/>
-      <c r="ADA30" s="6"/>
-      <c r="ADB30" s="6"/>
-      <c r="ADC30" s="6"/>
-      <c r="ADD30" s="6"/>
-      <c r="ADE30" s="6"/>
-      <c r="ADF30" s="6"/>
-      <c r="ADG30" s="6"/>
-      <c r="ADH30" s="6"/>
-      <c r="ADI30" s="6"/>
-      <c r="ADJ30" s="6"/>
-      <c r="ADK30" s="6"/>
-      <c r="ADL30" s="6"/>
-      <c r="ADM30" s="6"/>
-      <c r="ADN30" s="6"/>
-      <c r="ADO30" s="6"/>
-      <c r="ADP30" s="6"/>
-      <c r="ADQ30" s="6"/>
-      <c r="ADR30" s="6"/>
-      <c r="ADS30" s="6"/>
-      <c r="ADT30" s="6"/>
-      <c r="ADU30" s="6"/>
-      <c r="ADV30" s="6"/>
-      <c r="ADW30" s="6"/>
-      <c r="ADX30" s="6"/>
-      <c r="ADY30" s="6"/>
-      <c r="ADZ30" s="6"/>
-      <c r="AEA30" s="6"/>
-      <c r="AEB30" s="6"/>
-      <c r="AEC30" s="6"/>
-      <c r="AED30" s="6"/>
-      <c r="AEE30" s="6"/>
-      <c r="AEF30" s="6"/>
-      <c r="AEG30" s="6"/>
-      <c r="AEH30" s="6"/>
-      <c r="AEI30" s="6"/>
-      <c r="AEJ30" s="6"/>
-      <c r="AEK30" s="6"/>
-      <c r="AEL30" s="6"/>
-      <c r="AEM30" s="6"/>
-      <c r="AEN30" s="6"/>
-      <c r="AEO30" s="6"/>
-      <c r="AEP30" s="6"/>
-      <c r="AEQ30" s="6"/>
-      <c r="AER30" s="6"/>
-      <c r="AES30" s="6"/>
-      <c r="AET30" s="6"/>
-      <c r="AEU30" s="6"/>
-      <c r="AEV30" s="6"/>
-      <c r="AEW30" s="6"/>
-      <c r="AEX30" s="6"/>
-      <c r="AEY30" s="6"/>
-      <c r="AEZ30" s="6"/>
-      <c r="AFA30" s="6"/>
-      <c r="AFB30" s="6"/>
-      <c r="AFC30" s="6"/>
-      <c r="AFD30" s="6"/>
-      <c r="AFE30" s="6"/>
-      <c r="AFF30" s="6"/>
-      <c r="AFG30" s="6"/>
-      <c r="AFH30" s="6"/>
-      <c r="AFI30" s="6"/>
-      <c r="AFJ30" s="6"/>
-      <c r="AFK30" s="6"/>
-      <c r="AFL30" s="6"/>
-      <c r="AFM30" s="6"/>
-      <c r="AFN30" s="6"/>
-      <c r="AFO30" s="6"/>
-      <c r="AFP30" s="6"/>
-      <c r="AFQ30" s="6"/>
-      <c r="AFR30" s="6"/>
-      <c r="AFS30" s="6"/>
-      <c r="AFT30" s="6"/>
-      <c r="AFU30" s="6"/>
-      <c r="AFV30" s="6"/>
-      <c r="AFW30" s="6"/>
-      <c r="AFX30" s="6"/>
-      <c r="AFY30" s="6"/>
-      <c r="AFZ30" s="6"/>
-      <c r="AGA30" s="6"/>
-      <c r="AGB30" s="6"/>
-      <c r="AGC30" s="6"/>
-      <c r="AGD30" s="6"/>
-      <c r="AGE30" s="6"/>
-      <c r="AGF30" s="6"/>
-      <c r="AGG30" s="6"/>
-      <c r="AGH30" s="6"/>
-      <c r="AGI30" s="6"/>
-      <c r="AGJ30" s="6"/>
-      <c r="AGK30" s="6"/>
-      <c r="AGL30" s="6"/>
-      <c r="AGM30" s="6"/>
-      <c r="AGN30" s="6"/>
-      <c r="AGO30" s="6"/>
-      <c r="AGP30" s="6"/>
-      <c r="AGQ30" s="6"/>
-      <c r="AGR30" s="6"/>
-      <c r="AGS30" s="6"/>
-      <c r="AGT30" s="6"/>
-      <c r="AGU30" s="6"/>
-      <c r="AGV30" s="6"/>
-      <c r="AGW30" s="6"/>
-      <c r="AGX30" s="6"/>
-      <c r="AGY30" s="6"/>
-      <c r="AGZ30" s="6"/>
-      <c r="AHA30" s="6"/>
-      <c r="AHB30" s="6"/>
-      <c r="AHC30" s="6"/>
-      <c r="AHD30" s="6"/>
-      <c r="AHE30" s="6"/>
-      <c r="AHF30" s="6"/>
-      <c r="AHG30" s="6"/>
-      <c r="AHH30" s="6"/>
-      <c r="AHI30" s="6"/>
-      <c r="AHJ30" s="6"/>
-      <c r="AHK30" s="6"/>
-      <c r="AHL30" s="6"/>
-      <c r="AHM30" s="6"/>
-      <c r="AHN30" s="6"/>
-      <c r="AHO30" s="6"/>
-      <c r="AHP30" s="6"/>
-      <c r="AHQ30" s="6"/>
-      <c r="AHR30" s="6"/>
-      <c r="AHS30" s="6"/>
-      <c r="AHT30" s="6"/>
-      <c r="AHU30" s="6"/>
-      <c r="AHV30" s="6"/>
-      <c r="AHW30" s="6"/>
-      <c r="AHX30" s="6"/>
-      <c r="AHY30" s="6"/>
-      <c r="AHZ30" s="6"/>
-      <c r="AIA30" s="6"/>
-      <c r="AIB30" s="6"/>
-      <c r="AIC30" s="6"/>
-      <c r="AID30" s="6"/>
-      <c r="AIE30" s="6"/>
-      <c r="AIF30" s="6"/>
-      <c r="AIG30" s="6"/>
-      <c r="AIH30" s="6"/>
-      <c r="AII30" s="6"/>
-      <c r="AIJ30" s="6"/>
-      <c r="AIK30" s="6"/>
-      <c r="AIL30" s="6"/>
-      <c r="AIM30" s="6"/>
-      <c r="AIN30" s="6"/>
-      <c r="AIO30" s="6"/>
-      <c r="AIP30" s="6"/>
-      <c r="AIQ30" s="6"/>
-      <c r="AIR30" s="6"/>
-      <c r="AIS30" s="6"/>
-      <c r="AIT30" s="6"/>
-      <c r="AIU30" s="6"/>
-      <c r="AIV30" s="6"/>
-      <c r="AIW30" s="6"/>
-      <c r="AIX30" s="6"/>
-      <c r="AIY30" s="6"/>
-      <c r="AIZ30" s="6"/>
-      <c r="AJA30" s="6"/>
-      <c r="AJB30" s="6"/>
-      <c r="AJC30" s="6"/>
-      <c r="AJD30" s="6"/>
-      <c r="AJE30" s="6"/>
-      <c r="AJF30" s="6"/>
-      <c r="AJG30" s="6"/>
-      <c r="AJH30" s="6"/>
-      <c r="AJI30" s="6"/>
-      <c r="AJJ30" s="6"/>
-      <c r="AJK30" s="6"/>
-      <c r="AJL30" s="6"/>
-      <c r="AJM30" s="6"/>
-      <c r="AJN30" s="6"/>
-      <c r="AJO30" s="6"/>
-      <c r="AJP30" s="6"/>
-      <c r="AJQ30" s="6"/>
-      <c r="AJR30" s="6"/>
-      <c r="AJS30" s="6"/>
-      <c r="AJT30" s="6"/>
-      <c r="AJU30" s="6"/>
-      <c r="AJV30" s="6"/>
-      <c r="AJW30" s="6"/>
-      <c r="AJX30" s="6"/>
-      <c r="AJY30" s="6"/>
-      <c r="AJZ30" s="6"/>
-      <c r="AKA30" s="6"/>
-      <c r="AKB30" s="6"/>
-      <c r="AKC30" s="6"/>
-      <c r="AKD30" s="6"/>
-      <c r="AKE30" s="6"/>
-      <c r="AKF30" s="6"/>
-      <c r="AKG30" s="6"/>
-      <c r="AKH30" s="6"/>
-      <c r="AKI30" s="6"/>
-      <c r="AKJ30" s="6"/>
-      <c r="AKK30" s="6"/>
-      <c r="AKL30" s="6"/>
-      <c r="AKM30" s="6"/>
-      <c r="AKN30" s="6"/>
-      <c r="AKO30" s="6"/>
-      <c r="AKP30" s="6"/>
-      <c r="AKQ30" s="6"/>
-      <c r="AKR30" s="6"/>
-      <c r="AKS30" s="6"/>
-      <c r="AKT30" s="6"/>
-      <c r="AKU30" s="6"/>
-      <c r="AKV30" s="6"/>
-      <c r="AKW30" s="6"/>
-      <c r="AKX30" s="6"/>
-      <c r="AKY30" s="6"/>
-      <c r="AKZ30" s="6"/>
-      <c r="ALA30" s="6"/>
-      <c r="ALB30" s="6"/>
-      <c r="ALC30" s="6"/>
-      <c r="ALD30" s="6"/>
-      <c r="ALE30" s="6"/>
-      <c r="ALF30" s="6"/>
-      <c r="ALG30" s="6"/>
-      <c r="ALH30" s="6"/>
-      <c r="ALI30" s="6"/>
-      <c r="ALJ30" s="6"/>
-      <c r="ALK30" s="6"/>
-      <c r="ALL30" s="6"/>
-      <c r="ALM30" s="6"/>
-      <c r="ALN30" s="6"/>
-      <c r="ALO30" s="6"/>
-      <c r="ALP30" s="6"/>
-      <c r="ALQ30" s="6"/>
-      <c r="ALR30" s="6"/>
-      <c r="ALS30" s="6"/>
-      <c r="ALT30" s="6"/>
-      <c r="ALU30" s="6"/>
-      <c r="ALV30" s="6"/>
-      <c r="ALW30" s="6"/>
-      <c r="ALX30" s="6"/>
-      <c r="ALY30" s="6"/>
-      <c r="ALZ30" s="6"/>
-      <c r="AMA30" s="6"/>
-      <c r="AMB30" s="6"/>
-      <c r="AMC30" s="6"/>
-      <c r="AMD30" s="6"/>
-      <c r="AME30" s="6"/>
-      <c r="AMF30" s="6"/>
-      <c r="AMG30" s="6"/>
-      <c r="AMH30" s="6"/>
-      <c r="AMI30" s="6"/>
-      <c r="AMJ30" s="6"/>
+      <c r="C30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>8105875485</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8"/>
+      <c r="AQ30" s="8"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="8"/>
+      <c r="BA30" s="8"/>
+      <c r="BB30" s="8"/>
+      <c r="BC30" s="8"/>
+      <c r="BD30" s="8"/>
+      <c r="BE30" s="8"/>
+      <c r="BF30" s="8"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="8"/>
+      <c r="BM30" s="8"/>
+      <c r="BN30" s="8"/>
+      <c r="BO30" s="8"/>
+      <c r="BP30" s="8"/>
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
+      <c r="BU30" s="8"/>
+      <c r="BV30" s="8"/>
+      <c r="BW30" s="8"/>
+      <c r="BX30" s="8"/>
+      <c r="BY30" s="8"/>
+      <c r="BZ30" s="8"/>
+      <c r="CA30" s="8"/>
+      <c r="CB30" s="8"/>
+      <c r="CC30" s="8"/>
+      <c r="CD30" s="8"/>
+      <c r="CE30" s="8"/>
+      <c r="CF30" s="8"/>
+      <c r="CG30" s="8"/>
+      <c r="CH30" s="8"/>
+      <c r="CI30" s="8"/>
+      <c r="CJ30" s="8"/>
+      <c r="CK30" s="8"/>
+      <c r="CL30" s="8"/>
+      <c r="CM30" s="8"/>
+      <c r="CN30" s="8"/>
+      <c r="CO30" s="8"/>
+      <c r="CP30" s="8"/>
+      <c r="CQ30" s="8"/>
+      <c r="CR30" s="8"/>
+      <c r="CS30" s="8"/>
+      <c r="CT30" s="8"/>
+      <c r="CU30" s="8"/>
+      <c r="CV30" s="8"/>
+      <c r="CW30" s="8"/>
+      <c r="CX30" s="8"/>
+      <c r="CY30" s="8"/>
+      <c r="CZ30" s="8"/>
+      <c r="DA30" s="8"/>
+      <c r="DB30" s="8"/>
+      <c r="DC30" s="8"/>
+      <c r="DD30" s="8"/>
+      <c r="DE30" s="8"/>
+      <c r="DF30" s="8"/>
+      <c r="DG30" s="8"/>
+      <c r="DH30" s="8"/>
+      <c r="DI30" s="8"/>
+      <c r="DJ30" s="8"/>
+      <c r="DK30" s="8"/>
+      <c r="DL30" s="8"/>
+      <c r="DM30" s="8"/>
+      <c r="DN30" s="8"/>
+      <c r="DO30" s="8"/>
+      <c r="DP30" s="8"/>
+      <c r="DQ30" s="8"/>
+      <c r="DR30" s="8"/>
+      <c r="DS30" s="8"/>
+      <c r="DT30" s="8"/>
+      <c r="DU30" s="8"/>
+      <c r="DV30" s="8"/>
+      <c r="DW30" s="8"/>
+      <c r="DX30" s="8"/>
+      <c r="DY30" s="8"/>
+      <c r="DZ30" s="8"/>
+      <c r="EA30" s="8"/>
+      <c r="EB30" s="8"/>
+      <c r="EC30" s="8"/>
+      <c r="ED30" s="8"/>
+      <c r="EE30" s="8"/>
+      <c r="EF30" s="8"/>
+      <c r="EG30" s="8"/>
+      <c r="EH30" s="8"/>
+      <c r="EI30" s="8"/>
+      <c r="EJ30" s="8"/>
+      <c r="EK30" s="8"/>
+      <c r="EL30" s="8"/>
+      <c r="EM30" s="8"/>
+      <c r="EN30" s="8"/>
+      <c r="EO30" s="8"/>
+      <c r="EP30" s="8"/>
+      <c r="EQ30" s="8"/>
+      <c r="ER30" s="8"/>
+      <c r="ES30" s="8"/>
+      <c r="ET30" s="8"/>
+      <c r="EU30" s="8"/>
+      <c r="EV30" s="8"/>
+      <c r="EW30" s="8"/>
+      <c r="EX30" s="8"/>
+      <c r="EY30" s="8"/>
+      <c r="EZ30" s="8"/>
+      <c r="FA30" s="8"/>
+      <c r="FB30" s="8"/>
+      <c r="FC30" s="8"/>
+      <c r="FD30" s="8"/>
+      <c r="FE30" s="8"/>
+      <c r="FF30" s="8"/>
+      <c r="FG30" s="8"/>
+      <c r="FH30" s="8"/>
+      <c r="FI30" s="8"/>
+      <c r="FJ30" s="8"/>
+      <c r="FK30" s="8"/>
+      <c r="FL30" s="8"/>
+      <c r="FM30" s="8"/>
+      <c r="FN30" s="8"/>
+      <c r="FO30" s="8"/>
+      <c r="FP30" s="8"/>
+      <c r="FQ30" s="8"/>
+      <c r="FR30" s="8"/>
+      <c r="FS30" s="8"/>
+      <c r="FT30" s="8"/>
+      <c r="FU30" s="8"/>
+      <c r="FV30" s="8"/>
+      <c r="FW30" s="8"/>
+      <c r="FX30" s="8"/>
+      <c r="FY30" s="8"/>
+      <c r="FZ30" s="8"/>
+      <c r="GA30" s="8"/>
+      <c r="GB30" s="8"/>
+      <c r="GC30" s="8"/>
+      <c r="GD30" s="8"/>
+      <c r="GE30" s="8"/>
+      <c r="GF30" s="8"/>
+      <c r="GG30" s="8"/>
+      <c r="GH30" s="8"/>
+      <c r="GI30" s="8"/>
+      <c r="GJ30" s="8"/>
+      <c r="GK30" s="8"/>
+      <c r="GL30" s="8"/>
+      <c r="GM30" s="8"/>
+      <c r="GN30" s="8"/>
+      <c r="GO30" s="8"/>
+      <c r="GP30" s="8"/>
+      <c r="GQ30" s="8"/>
+      <c r="GR30" s="8"/>
+      <c r="GS30" s="8"/>
+      <c r="GT30" s="8"/>
+      <c r="GU30" s="8"/>
+      <c r="GV30" s="8"/>
+      <c r="GW30" s="8"/>
+      <c r="GX30" s="8"/>
+      <c r="GY30" s="8"/>
+      <c r="GZ30" s="8"/>
+      <c r="HA30" s="8"/>
+      <c r="HB30" s="8"/>
+      <c r="HC30" s="8"/>
+      <c r="HD30" s="8"/>
+      <c r="HE30" s="8"/>
+      <c r="HF30" s="8"/>
+      <c r="HG30" s="8"/>
+      <c r="HH30" s="8"/>
+      <c r="HI30" s="8"/>
+      <c r="HJ30" s="8"/>
+      <c r="HK30" s="8"/>
+      <c r="HL30" s="8"/>
+      <c r="HM30" s="8"/>
+      <c r="HN30" s="8"/>
+      <c r="HO30" s="8"/>
+      <c r="HP30" s="8"/>
+      <c r="HQ30" s="8"/>
+      <c r="HR30" s="8"/>
+      <c r="HS30" s="8"/>
+      <c r="HT30" s="8"/>
+      <c r="HU30" s="8"/>
+      <c r="HV30" s="8"/>
+      <c r="HW30" s="8"/>
+      <c r="HX30" s="8"/>
+      <c r="HY30" s="8"/>
+      <c r="HZ30" s="8"/>
+      <c r="IA30" s="8"/>
+      <c r="IB30" s="8"/>
+      <c r="IC30" s="8"/>
+      <c r="ID30" s="8"/>
+      <c r="IE30" s="8"/>
+      <c r="IF30" s="8"/>
+      <c r="IG30" s="8"/>
+      <c r="IH30" s="8"/>
+      <c r="II30" s="8"/>
+      <c r="IJ30" s="8"/>
+      <c r="IK30" s="8"/>
+      <c r="IL30" s="8"/>
+      <c r="IM30" s="8"/>
+      <c r="IN30" s="8"/>
+      <c r="IO30" s="8"/>
+      <c r="IP30" s="8"/>
+      <c r="IQ30" s="8"/>
+      <c r="IR30" s="8"/>
+      <c r="IS30" s="8"/>
+      <c r="IT30" s="8"/>
+      <c r="IU30" s="8"/>
+      <c r="IV30" s="8"/>
+      <c r="IW30" s="8"/>
+      <c r="IX30" s="8"/>
+      <c r="IY30" s="8"/>
+      <c r="IZ30" s="8"/>
+      <c r="JA30" s="8"/>
+      <c r="JB30" s="8"/>
+      <c r="JC30" s="8"/>
+      <c r="JD30" s="8"/>
+      <c r="JE30" s="8"/>
+      <c r="JF30" s="8"/>
+      <c r="JG30" s="8"/>
+      <c r="JH30" s="8"/>
+      <c r="JI30" s="8"/>
+      <c r="JJ30" s="8"/>
+      <c r="JK30" s="8"/>
+      <c r="JL30" s="8"/>
+      <c r="JM30" s="8"/>
+      <c r="JN30" s="8"/>
+      <c r="JO30" s="8"/>
+      <c r="JP30" s="8"/>
+      <c r="JQ30" s="8"/>
+      <c r="JR30" s="8"/>
+      <c r="JS30" s="8"/>
+      <c r="JT30" s="8"/>
+      <c r="JU30" s="8"/>
+      <c r="JV30" s="8"/>
+      <c r="JW30" s="8"/>
+      <c r="JX30" s="8"/>
+      <c r="JY30" s="8"/>
+      <c r="JZ30" s="8"/>
+      <c r="KA30" s="8"/>
+      <c r="KB30" s="8"/>
+      <c r="KC30" s="8"/>
+      <c r="KD30" s="8"/>
+      <c r="KE30" s="8"/>
+      <c r="KF30" s="8"/>
+      <c r="KG30" s="8"/>
+      <c r="KH30" s="8"/>
+      <c r="KI30" s="8"/>
+      <c r="KJ30" s="8"/>
+      <c r="KK30" s="8"/>
+      <c r="KL30" s="8"/>
+      <c r="KM30" s="8"/>
+      <c r="KN30" s="8"/>
+      <c r="KO30" s="8"/>
+      <c r="KP30" s="8"/>
+      <c r="KQ30" s="8"/>
+      <c r="KR30" s="8"/>
+      <c r="KS30" s="8"/>
+      <c r="KT30" s="8"/>
+      <c r="KU30" s="8"/>
+      <c r="KV30" s="8"/>
+      <c r="KW30" s="8"/>
+      <c r="KX30" s="8"/>
+      <c r="KY30" s="8"/>
+      <c r="KZ30" s="8"/>
+      <c r="LA30" s="8"/>
+      <c r="LB30" s="8"/>
+      <c r="LC30" s="8"/>
+      <c r="LD30" s="8"/>
+      <c r="LE30" s="8"/>
+      <c r="LF30" s="8"/>
+      <c r="LG30" s="8"/>
+      <c r="LH30" s="8"/>
+      <c r="LI30" s="8"/>
+      <c r="LJ30" s="8"/>
+      <c r="LK30" s="8"/>
+      <c r="LL30" s="8"/>
+      <c r="LM30" s="8"/>
+      <c r="LN30" s="8"/>
+      <c r="LO30" s="8"/>
+      <c r="LP30" s="8"/>
+      <c r="LQ30" s="8"/>
+      <c r="LR30" s="8"/>
+      <c r="LS30" s="8"/>
+      <c r="LT30" s="8"/>
+      <c r="LU30" s="8"/>
+      <c r="LV30" s="8"/>
+      <c r="LW30" s="8"/>
+      <c r="LX30" s="8"/>
+      <c r="LY30" s="8"/>
+      <c r="LZ30" s="8"/>
+      <c r="MA30" s="8"/>
+      <c r="MB30" s="8"/>
+      <c r="MC30" s="8"/>
+      <c r="MD30" s="8"/>
+      <c r="ME30" s="8"/>
+      <c r="MF30" s="8"/>
+      <c r="MG30" s="8"/>
+      <c r="MH30" s="8"/>
+      <c r="MI30" s="8"/>
+      <c r="MJ30" s="8"/>
+      <c r="MK30" s="8"/>
+      <c r="ML30" s="8"/>
+      <c r="MM30" s="8"/>
+      <c r="MN30" s="8"/>
+      <c r="MO30" s="8"/>
+      <c r="MP30" s="8"/>
+      <c r="MQ30" s="8"/>
+      <c r="MR30" s="8"/>
+      <c r="MS30" s="8"/>
+      <c r="MT30" s="8"/>
+      <c r="MU30" s="8"/>
+      <c r="MV30" s="8"/>
+      <c r="MW30" s="8"/>
+      <c r="MX30" s="8"/>
+      <c r="MY30" s="8"/>
+      <c r="MZ30" s="8"/>
+      <c r="NA30" s="8"/>
+      <c r="NB30" s="8"/>
+      <c r="NC30" s="8"/>
+      <c r="ND30" s="8"/>
+      <c r="NE30" s="8"/>
+      <c r="NF30" s="8"/>
+      <c r="NG30" s="8"/>
+      <c r="NH30" s="8"/>
+      <c r="NI30" s="8"/>
+      <c r="NJ30" s="8"/>
+      <c r="NK30" s="8"/>
+      <c r="NL30" s="8"/>
+      <c r="NM30" s="8"/>
+      <c r="NN30" s="8"/>
+      <c r="NO30" s="8"/>
+      <c r="NP30" s="8"/>
+      <c r="NQ30" s="8"/>
+      <c r="NR30" s="8"/>
+      <c r="NS30" s="8"/>
+      <c r="NT30" s="8"/>
+      <c r="NU30" s="8"/>
+      <c r="NV30" s="8"/>
+      <c r="NW30" s="8"/>
+      <c r="NX30" s="8"/>
+      <c r="NY30" s="8"/>
+      <c r="NZ30" s="8"/>
+      <c r="OA30" s="8"/>
+      <c r="OB30" s="8"/>
+      <c r="OC30" s="8"/>
+      <c r="OD30" s="8"/>
+      <c r="OE30" s="8"/>
+      <c r="OF30" s="8"/>
+      <c r="OG30" s="8"/>
+      <c r="OH30" s="8"/>
+      <c r="OI30" s="8"/>
+      <c r="OJ30" s="8"/>
+      <c r="OK30" s="8"/>
+      <c r="OL30" s="8"/>
+      <c r="OM30" s="8"/>
+      <c r="ON30" s="8"/>
+      <c r="OO30" s="8"/>
+      <c r="OP30" s="8"/>
+      <c r="OQ30" s="8"/>
+      <c r="OR30" s="8"/>
+      <c r="OS30" s="8"/>
+      <c r="OT30" s="8"/>
+      <c r="OU30" s="8"/>
+      <c r="OV30" s="8"/>
+      <c r="OW30" s="8"/>
+      <c r="OX30" s="8"/>
+      <c r="OY30" s="8"/>
+      <c r="OZ30" s="8"/>
+      <c r="PA30" s="8"/>
+      <c r="PB30" s="8"/>
+      <c r="PC30" s="8"/>
+      <c r="PD30" s="8"/>
+      <c r="PE30" s="8"/>
+      <c r="PF30" s="8"/>
+      <c r="PG30" s="8"/>
+      <c r="PH30" s="8"/>
+      <c r="PI30" s="8"/>
+      <c r="PJ30" s="8"/>
+      <c r="PK30" s="8"/>
+      <c r="PL30" s="8"/>
+      <c r="PM30" s="8"/>
+      <c r="PN30" s="8"/>
+      <c r="PO30" s="8"/>
+      <c r="PP30" s="8"/>
+      <c r="PQ30" s="8"/>
+      <c r="PR30" s="8"/>
+      <c r="PS30" s="8"/>
+      <c r="PT30" s="8"/>
+      <c r="PU30" s="8"/>
+      <c r="PV30" s="8"/>
+      <c r="PW30" s="8"/>
+      <c r="PX30" s="8"/>
+      <c r="PY30" s="8"/>
+      <c r="PZ30" s="8"/>
+      <c r="QA30" s="8"/>
+      <c r="QB30" s="8"/>
+      <c r="QC30" s="8"/>
+      <c r="QD30" s="8"/>
+      <c r="QE30" s="8"/>
+      <c r="QF30" s="8"/>
+      <c r="QG30" s="8"/>
+      <c r="QH30" s="8"/>
+      <c r="QI30" s="8"/>
+      <c r="QJ30" s="8"/>
+      <c r="QK30" s="8"/>
+      <c r="QL30" s="8"/>
+      <c r="QM30" s="8"/>
+      <c r="QN30" s="8"/>
+      <c r="QO30" s="8"/>
+      <c r="QP30" s="8"/>
+      <c r="QQ30" s="8"/>
+      <c r="QR30" s="8"/>
+      <c r="QS30" s="8"/>
+      <c r="QT30" s="8"/>
+      <c r="QU30" s="8"/>
+      <c r="QV30" s="8"/>
+      <c r="QW30" s="8"/>
+      <c r="QX30" s="8"/>
+      <c r="QY30" s="8"/>
+      <c r="QZ30" s="8"/>
+      <c r="RA30" s="8"/>
+      <c r="RB30" s="8"/>
+      <c r="RC30" s="8"/>
+      <c r="RD30" s="8"/>
+      <c r="RE30" s="8"/>
+      <c r="RF30" s="8"/>
+      <c r="RG30" s="8"/>
+      <c r="RH30" s="8"/>
+      <c r="RI30" s="8"/>
+      <c r="RJ30" s="8"/>
+      <c r="RK30" s="8"/>
+      <c r="RL30" s="8"/>
+      <c r="RM30" s="8"/>
+      <c r="RN30" s="8"/>
+      <c r="RO30" s="8"/>
+      <c r="RP30" s="8"/>
+      <c r="RQ30" s="8"/>
+      <c r="RR30" s="8"/>
+      <c r="RS30" s="8"/>
+      <c r="RT30" s="8"/>
+      <c r="RU30" s="8"/>
+      <c r="RV30" s="8"/>
+      <c r="RW30" s="8"/>
+      <c r="RX30" s="8"/>
+      <c r="RY30" s="8"/>
+      <c r="RZ30" s="8"/>
+      <c r="SA30" s="8"/>
+      <c r="SB30" s="8"/>
+      <c r="SC30" s="8"/>
+      <c r="SD30" s="8"/>
+      <c r="SE30" s="8"/>
+      <c r="SF30" s="8"/>
+      <c r="SG30" s="8"/>
+      <c r="SH30" s="8"/>
+      <c r="SI30" s="8"/>
+      <c r="SJ30" s="8"/>
+      <c r="SK30" s="8"/>
+      <c r="SL30" s="8"/>
+      <c r="SM30" s="8"/>
+      <c r="SN30" s="8"/>
+      <c r="SO30" s="8"/>
+      <c r="SP30" s="8"/>
+      <c r="SQ30" s="8"/>
+      <c r="SR30" s="8"/>
+      <c r="SS30" s="8"/>
+      <c r="ST30" s="8"/>
+      <c r="SU30" s="8"/>
+      <c r="SV30" s="8"/>
+      <c r="SW30" s="8"/>
+      <c r="SX30" s="8"/>
+      <c r="SY30" s="8"/>
+      <c r="SZ30" s="8"/>
+      <c r="TA30" s="8"/>
+      <c r="TB30" s="8"/>
+      <c r="TC30" s="8"/>
+      <c r="TD30" s="8"/>
+      <c r="TE30" s="8"/>
+      <c r="TF30" s="8"/>
+      <c r="TG30" s="8"/>
+      <c r="TH30" s="8"/>
+      <c r="TI30" s="8"/>
+      <c r="TJ30" s="8"/>
+      <c r="TK30" s="8"/>
+      <c r="TL30" s="8"/>
+      <c r="TM30" s="8"/>
+      <c r="TN30" s="8"/>
+      <c r="TO30" s="8"/>
+      <c r="TP30" s="8"/>
+      <c r="TQ30" s="8"/>
+      <c r="TR30" s="8"/>
+      <c r="TS30" s="8"/>
+      <c r="TT30" s="8"/>
+      <c r="TU30" s="8"/>
+      <c r="TV30" s="8"/>
+      <c r="TW30" s="8"/>
+      <c r="TX30" s="8"/>
+      <c r="TY30" s="8"/>
+      <c r="TZ30" s="8"/>
+      <c r="UA30" s="8"/>
+      <c r="UB30" s="8"/>
+      <c r="UC30" s="8"/>
+      <c r="UD30" s="8"/>
+      <c r="UE30" s="8"/>
+      <c r="UF30" s="8"/>
+      <c r="UG30" s="8"/>
+      <c r="UH30" s="8"/>
+      <c r="UI30" s="8"/>
+      <c r="UJ30" s="8"/>
+      <c r="UK30" s="8"/>
+      <c r="UL30" s="8"/>
+      <c r="UM30" s="8"/>
+      <c r="UN30" s="8"/>
+      <c r="UO30" s="8"/>
+      <c r="UP30" s="8"/>
+      <c r="UQ30" s="8"/>
+      <c r="UR30" s="8"/>
+      <c r="US30" s="8"/>
+      <c r="UT30" s="8"/>
+      <c r="UU30" s="8"/>
+      <c r="UV30" s="8"/>
+      <c r="UW30" s="8"/>
+      <c r="UX30" s="8"/>
+      <c r="UY30" s="8"/>
+      <c r="UZ30" s="8"/>
+      <c r="VA30" s="8"/>
+      <c r="VB30" s="8"/>
+      <c r="VC30" s="8"/>
+      <c r="VD30" s="8"/>
+      <c r="VE30" s="8"/>
+      <c r="VF30" s="8"/>
+      <c r="VG30" s="8"/>
+      <c r="VH30" s="8"/>
+      <c r="VI30" s="8"/>
+      <c r="VJ30" s="8"/>
+      <c r="VK30" s="8"/>
+      <c r="VL30" s="8"/>
+      <c r="VM30" s="8"/>
+      <c r="VN30" s="8"/>
+      <c r="VO30" s="8"/>
+      <c r="VP30" s="8"/>
+      <c r="VQ30" s="8"/>
+      <c r="VR30" s="8"/>
+      <c r="VS30" s="8"/>
+      <c r="VT30" s="8"/>
+      <c r="VU30" s="8"/>
+      <c r="VV30" s="8"/>
+      <c r="VW30" s="8"/>
+      <c r="VX30" s="8"/>
+      <c r="VY30" s="8"/>
+      <c r="VZ30" s="8"/>
+      <c r="WA30" s="8"/>
+      <c r="WB30" s="8"/>
+      <c r="WC30" s="8"/>
+      <c r="WD30" s="8"/>
+      <c r="WE30" s="8"/>
+      <c r="WF30" s="8"/>
+      <c r="WG30" s="8"/>
+      <c r="WH30" s="8"/>
+      <c r="WI30" s="8"/>
+      <c r="WJ30" s="8"/>
+      <c r="WK30" s="8"/>
+      <c r="WL30" s="8"/>
+      <c r="WM30" s="8"/>
+      <c r="WN30" s="8"/>
+      <c r="WO30" s="8"/>
+      <c r="WP30" s="8"/>
+      <c r="WQ30" s="8"/>
+      <c r="WR30" s="8"/>
+      <c r="WS30" s="8"/>
+      <c r="WT30" s="8"/>
+      <c r="WU30" s="8"/>
+      <c r="WV30" s="8"/>
+      <c r="WW30" s="8"/>
+      <c r="WX30" s="8"/>
+      <c r="WY30" s="8"/>
+      <c r="WZ30" s="8"/>
+      <c r="XA30" s="8"/>
+      <c r="XB30" s="8"/>
+      <c r="XC30" s="8"/>
+      <c r="XD30" s="8"/>
+      <c r="XE30" s="8"/>
+      <c r="XF30" s="8"/>
+      <c r="XG30" s="8"/>
+      <c r="XH30" s="8"/>
+      <c r="XI30" s="8"/>
+      <c r="XJ30" s="8"/>
+      <c r="XK30" s="8"/>
+      <c r="XL30" s="8"/>
+      <c r="XM30" s="8"/>
+      <c r="XN30" s="8"/>
+      <c r="XO30" s="8"/>
+      <c r="XP30" s="8"/>
+      <c r="XQ30" s="8"/>
+      <c r="XR30" s="8"/>
+      <c r="XS30" s="8"/>
+      <c r="XT30" s="8"/>
+      <c r="XU30" s="8"/>
+      <c r="XV30" s="8"/>
+      <c r="XW30" s="8"/>
+      <c r="XX30" s="8"/>
+      <c r="XY30" s="8"/>
+      <c r="XZ30" s="8"/>
+      <c r="YA30" s="8"/>
+      <c r="YB30" s="8"/>
+      <c r="YC30" s="8"/>
+      <c r="YD30" s="8"/>
+      <c r="YE30" s="8"/>
+      <c r="YF30" s="8"/>
+      <c r="YG30" s="8"/>
+      <c r="YH30" s="8"/>
+      <c r="YI30" s="8"/>
+      <c r="YJ30" s="8"/>
+      <c r="YK30" s="8"/>
+      <c r="YL30" s="8"/>
+      <c r="YM30" s="8"/>
+      <c r="YN30" s="8"/>
+      <c r="YO30" s="8"/>
+      <c r="YP30" s="8"/>
+      <c r="YQ30" s="8"/>
+      <c r="YR30" s="8"/>
+      <c r="YS30" s="8"/>
+      <c r="YT30" s="8"/>
+      <c r="YU30" s="8"/>
+      <c r="YV30" s="8"/>
+      <c r="YW30" s="8"/>
+      <c r="YX30" s="8"/>
+      <c r="YY30" s="8"/>
+      <c r="YZ30" s="8"/>
+      <c r="ZA30" s="8"/>
+      <c r="ZB30" s="8"/>
+      <c r="ZC30" s="8"/>
+      <c r="ZD30" s="8"/>
+      <c r="ZE30" s="8"/>
+      <c r="ZF30" s="8"/>
+      <c r="ZG30" s="8"/>
+      <c r="ZH30" s="8"/>
+      <c r="ZI30" s="8"/>
+      <c r="ZJ30" s="8"/>
+      <c r="ZK30" s="8"/>
+      <c r="ZL30" s="8"/>
+      <c r="ZM30" s="8"/>
+      <c r="ZN30" s="8"/>
+      <c r="ZO30" s="8"/>
+      <c r="ZP30" s="8"/>
+      <c r="ZQ30" s="8"/>
+      <c r="ZR30" s="8"/>
+      <c r="ZS30" s="8"/>
+      <c r="ZT30" s="8"/>
+      <c r="ZU30" s="8"/>
+      <c r="ZV30" s="8"/>
+      <c r="ZW30" s="8"/>
+      <c r="ZX30" s="8"/>
+      <c r="ZY30" s="8"/>
+      <c r="ZZ30" s="8"/>
+      <c r="AAA30" s="8"/>
+      <c r="AAB30" s="8"/>
+      <c r="AAC30" s="8"/>
+      <c r="AAD30" s="8"/>
+      <c r="AAE30" s="8"/>
+      <c r="AAF30" s="8"/>
+      <c r="AAG30" s="8"/>
+      <c r="AAH30" s="8"/>
+      <c r="AAI30" s="8"/>
+      <c r="AAJ30" s="8"/>
+      <c r="AAK30" s="8"/>
+      <c r="AAL30" s="8"/>
+      <c r="AAM30" s="8"/>
+      <c r="AAN30" s="8"/>
+      <c r="AAO30" s="8"/>
+      <c r="AAP30" s="8"/>
+      <c r="AAQ30" s="8"/>
+      <c r="AAR30" s="8"/>
+      <c r="AAS30" s="8"/>
+      <c r="AAT30" s="8"/>
+      <c r="AAU30" s="8"/>
+      <c r="AAV30" s="8"/>
+      <c r="AAW30" s="8"/>
+      <c r="AAX30" s="8"/>
+      <c r="AAY30" s="8"/>
+      <c r="AAZ30" s="8"/>
+      <c r="ABA30" s="8"/>
+      <c r="ABB30" s="8"/>
+      <c r="ABC30" s="8"/>
+      <c r="ABD30" s="8"/>
+      <c r="ABE30" s="8"/>
+      <c r="ABF30" s="8"/>
+      <c r="ABG30" s="8"/>
+      <c r="ABH30" s="8"/>
+      <c r="ABI30" s="8"/>
+      <c r="ABJ30" s="8"/>
+      <c r="ABK30" s="8"/>
+      <c r="ABL30" s="8"/>
+      <c r="ABM30" s="8"/>
+      <c r="ABN30" s="8"/>
+      <c r="ABO30" s="8"/>
+      <c r="ABP30" s="8"/>
+      <c r="ABQ30" s="8"/>
+      <c r="ABR30" s="8"/>
+      <c r="ABS30" s="8"/>
+      <c r="ABT30" s="8"/>
+      <c r="ABU30" s="8"/>
+      <c r="ABV30" s="8"/>
+      <c r="ABW30" s="8"/>
+      <c r="ABX30" s="8"/>
+      <c r="ABY30" s="8"/>
+      <c r="ABZ30" s="8"/>
+      <c r="ACA30" s="8"/>
+      <c r="ACB30" s="8"/>
+      <c r="ACC30" s="8"/>
+      <c r="ACD30" s="8"/>
+      <c r="ACE30" s="8"/>
+      <c r="ACF30" s="8"/>
+      <c r="ACG30" s="8"/>
+      <c r="ACH30" s="8"/>
+      <c r="ACI30" s="8"/>
+      <c r="ACJ30" s="8"/>
+      <c r="ACK30" s="8"/>
+      <c r="ACL30" s="8"/>
+      <c r="ACM30" s="8"/>
+      <c r="ACN30" s="8"/>
+      <c r="ACO30" s="8"/>
+      <c r="ACP30" s="8"/>
+      <c r="ACQ30" s="8"/>
+      <c r="ACR30" s="8"/>
+      <c r="ACS30" s="8"/>
+      <c r="ACT30" s="8"/>
+      <c r="ACU30" s="8"/>
+      <c r="ACV30" s="8"/>
+      <c r="ACW30" s="8"/>
+      <c r="ACX30" s="8"/>
+      <c r="ACY30" s="8"/>
+      <c r="ACZ30" s="8"/>
+      <c r="ADA30" s="8"/>
+      <c r="ADB30" s="8"/>
+      <c r="ADC30" s="8"/>
+      <c r="ADD30" s="8"/>
+      <c r="ADE30" s="8"/>
+      <c r="ADF30" s="8"/>
+      <c r="ADG30" s="8"/>
+      <c r="ADH30" s="8"/>
+      <c r="ADI30" s="8"/>
+      <c r="ADJ30" s="8"/>
+      <c r="ADK30" s="8"/>
+      <c r="ADL30" s="8"/>
+      <c r="ADM30" s="8"/>
+      <c r="ADN30" s="8"/>
+      <c r="ADO30" s="8"/>
+      <c r="ADP30" s="8"/>
+      <c r="ADQ30" s="8"/>
+      <c r="ADR30" s="8"/>
+      <c r="ADS30" s="8"/>
+      <c r="ADT30" s="8"/>
+      <c r="ADU30" s="8"/>
+      <c r="ADV30" s="8"/>
+      <c r="ADW30" s="8"/>
+      <c r="ADX30" s="8"/>
+      <c r="ADY30" s="8"/>
+      <c r="ADZ30" s="8"/>
+      <c r="AEA30" s="8"/>
+      <c r="AEB30" s="8"/>
+      <c r="AEC30" s="8"/>
+      <c r="AED30" s="8"/>
+      <c r="AEE30" s="8"/>
+      <c r="AEF30" s="8"/>
+      <c r="AEG30" s="8"/>
+      <c r="AEH30" s="8"/>
+      <c r="AEI30" s="8"/>
+      <c r="AEJ30" s="8"/>
+      <c r="AEK30" s="8"/>
+      <c r="AEL30" s="8"/>
+      <c r="AEM30" s="8"/>
+      <c r="AEN30" s="8"/>
+      <c r="AEO30" s="8"/>
+      <c r="AEP30" s="8"/>
+      <c r="AEQ30" s="8"/>
+      <c r="AER30" s="8"/>
+      <c r="AES30" s="8"/>
+      <c r="AET30" s="8"/>
+      <c r="AEU30" s="8"/>
+      <c r="AEV30" s="8"/>
+      <c r="AEW30" s="8"/>
+      <c r="AEX30" s="8"/>
+      <c r="AEY30" s="8"/>
+      <c r="AEZ30" s="8"/>
+      <c r="AFA30" s="8"/>
+      <c r="AFB30" s="8"/>
+      <c r="AFC30" s="8"/>
+      <c r="AFD30" s="8"/>
+      <c r="AFE30" s="8"/>
+      <c r="AFF30" s="8"/>
+      <c r="AFG30" s="8"/>
+      <c r="AFH30" s="8"/>
+      <c r="AFI30" s="8"/>
+      <c r="AFJ30" s="8"/>
+      <c r="AFK30" s="8"/>
+      <c r="AFL30" s="8"/>
+      <c r="AFM30" s="8"/>
+      <c r="AFN30" s="8"/>
+      <c r="AFO30" s="8"/>
+      <c r="AFP30" s="8"/>
+      <c r="AFQ30" s="8"/>
+      <c r="AFR30" s="8"/>
+      <c r="AFS30" s="8"/>
+      <c r="AFT30" s="8"/>
+      <c r="AFU30" s="8"/>
+      <c r="AFV30" s="8"/>
+      <c r="AFW30" s="8"/>
+      <c r="AFX30" s="8"/>
+      <c r="AFY30" s="8"/>
+      <c r="AFZ30" s="8"/>
+      <c r="AGA30" s="8"/>
+      <c r="AGB30" s="8"/>
+      <c r="AGC30" s="8"/>
+      <c r="AGD30" s="8"/>
+      <c r="AGE30" s="8"/>
+      <c r="AGF30" s="8"/>
+      <c r="AGG30" s="8"/>
+      <c r="AGH30" s="8"/>
+      <c r="AGI30" s="8"/>
+      <c r="AGJ30" s="8"/>
+      <c r="AGK30" s="8"/>
+      <c r="AGL30" s="8"/>
+      <c r="AGM30" s="8"/>
+      <c r="AGN30" s="8"/>
+      <c r="AGO30" s="8"/>
+      <c r="AGP30" s="8"/>
+      <c r="AGQ30" s="8"/>
+      <c r="AGR30" s="8"/>
+      <c r="AGS30" s="8"/>
+      <c r="AGT30" s="8"/>
+      <c r="AGU30" s="8"/>
+      <c r="AGV30" s="8"/>
+      <c r="AGW30" s="8"/>
+      <c r="AGX30" s="8"/>
+      <c r="AGY30" s="8"/>
+      <c r="AGZ30" s="8"/>
+      <c r="AHA30" s="8"/>
+      <c r="AHB30" s="8"/>
+      <c r="AHC30" s="8"/>
+      <c r="AHD30" s="8"/>
+      <c r="AHE30" s="8"/>
+      <c r="AHF30" s="8"/>
+      <c r="AHG30" s="8"/>
+      <c r="AHH30" s="8"/>
+      <c r="AHI30" s="8"/>
+      <c r="AHJ30" s="8"/>
+      <c r="AHK30" s="8"/>
+      <c r="AHL30" s="8"/>
+      <c r="AHM30" s="8"/>
+      <c r="AHN30" s="8"/>
+      <c r="AHO30" s="8"/>
+      <c r="AHP30" s="8"/>
+      <c r="AHQ30" s="8"/>
+      <c r="AHR30" s="8"/>
+      <c r="AHS30" s="8"/>
+      <c r="AHT30" s="8"/>
+      <c r="AHU30" s="8"/>
+      <c r="AHV30" s="8"/>
+      <c r="AHW30" s="8"/>
+      <c r="AHX30" s="8"/>
+      <c r="AHY30" s="8"/>
+      <c r="AHZ30" s="8"/>
+      <c r="AIA30" s="8"/>
+      <c r="AIB30" s="8"/>
+      <c r="AIC30" s="8"/>
+      <c r="AID30" s="8"/>
+      <c r="AIE30" s="8"/>
+      <c r="AIF30" s="8"/>
+      <c r="AIG30" s="8"/>
+      <c r="AIH30" s="8"/>
+      <c r="AII30" s="8"/>
+      <c r="AIJ30" s="8"/>
+      <c r="AIK30" s="8"/>
+      <c r="AIL30" s="8"/>
+      <c r="AIM30" s="8"/>
+      <c r="AIN30" s="8"/>
+      <c r="AIO30" s="8"/>
+      <c r="AIP30" s="8"/>
+      <c r="AIQ30" s="8"/>
+      <c r="AIR30" s="8"/>
+      <c r="AIS30" s="8"/>
+      <c r="AIT30" s="8"/>
+      <c r="AIU30" s="8"/>
+      <c r="AIV30" s="8"/>
+      <c r="AIW30" s="8"/>
+      <c r="AIX30" s="8"/>
+      <c r="AIY30" s="8"/>
+      <c r="AIZ30" s="8"/>
+      <c r="AJA30" s="8"/>
+      <c r="AJB30" s="8"/>
+      <c r="AJC30" s="8"/>
+      <c r="AJD30" s="8"/>
+      <c r="AJE30" s="8"/>
+      <c r="AJF30" s="8"/>
+      <c r="AJG30" s="8"/>
+      <c r="AJH30" s="8"/>
+      <c r="AJI30" s="8"/>
+      <c r="AJJ30" s="8"/>
+      <c r="AJK30" s="8"/>
+      <c r="AJL30" s="8"/>
+      <c r="AJM30" s="8"/>
+      <c r="AJN30" s="8"/>
+      <c r="AJO30" s="8"/>
+      <c r="AJP30" s="8"/>
+      <c r="AJQ30" s="8"/>
+      <c r="AJR30" s="8"/>
+      <c r="AJS30" s="8"/>
+      <c r="AJT30" s="8"/>
+      <c r="AJU30" s="8"/>
+      <c r="AJV30" s="8"/>
+      <c r="AJW30" s="8"/>
+      <c r="AJX30" s="8"/>
+      <c r="AJY30" s="8"/>
+      <c r="AJZ30" s="8"/>
+      <c r="AKA30" s="8"/>
+      <c r="AKB30" s="8"/>
+      <c r="AKC30" s="8"/>
+      <c r="AKD30" s="8"/>
+      <c r="AKE30" s="8"/>
+      <c r="AKF30" s="8"/>
+      <c r="AKG30" s="8"/>
+      <c r="AKH30" s="8"/>
+      <c r="AKI30" s="8"/>
+      <c r="AKJ30" s="8"/>
+      <c r="AKK30" s="8"/>
+      <c r="AKL30" s="8"/>
+      <c r="AKM30" s="8"/>
+      <c r="AKN30" s="8"/>
+      <c r="AKO30" s="8"/>
+      <c r="AKP30" s="8"/>
+      <c r="AKQ30" s="8"/>
+      <c r="AKR30" s="8"/>
+      <c r="AKS30" s="8"/>
+      <c r="AKT30" s="8"/>
+      <c r="AKU30" s="8"/>
+      <c r="AKV30" s="8"/>
+      <c r="AKW30" s="8"/>
+      <c r="AKX30" s="8"/>
+      <c r="AKY30" s="8"/>
+      <c r="AKZ30" s="8"/>
+      <c r="ALA30" s="8"/>
+      <c r="ALB30" s="8"/>
+      <c r="ALC30" s="8"/>
+      <c r="ALD30" s="8"/>
+      <c r="ALE30" s="8"/>
+      <c r="ALF30" s="8"/>
+      <c r="ALG30" s="8"/>
+      <c r="ALH30" s="8"/>
+      <c r="ALI30" s="8"/>
+      <c r="ALJ30" s="8"/>
+      <c r="ALK30" s="8"/>
+      <c r="ALL30" s="8"/>
+      <c r="ALM30" s="8"/>
+      <c r="ALN30" s="8"/>
+      <c r="ALO30" s="8"/>
+      <c r="ALP30" s="8"/>
+      <c r="ALQ30" s="8"/>
+      <c r="ALR30" s="8"/>
+      <c r="ALS30" s="8"/>
+      <c r="ALT30" s="8"/>
+      <c r="ALU30" s="8"/>
+      <c r="ALV30" s="8"/>
+      <c r="ALW30" s="8"/>
+      <c r="ALX30" s="8"/>
+      <c r="ALY30" s="8"/>
+      <c r="ALZ30" s="8"/>
+      <c r="AMA30" s="8"/>
+      <c r="AMB30" s="8"/>
+      <c r="AMC30" s="8"/>
+      <c r="AMD30" s="8"/>
+      <c r="AME30" s="8"/>
+      <c r="AMF30" s="8"/>
+      <c r="AMG30" s="8"/>
+      <c r="AMH30" s="8"/>
+      <c r="AMI30" s="8"/>
+      <c r="AMJ30" s="8"/>
     </row>
-    <row r="31" s="17" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="17" t="s">
-        <v>20</v>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>8078700677</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="8"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8"/>
+      <c r="AQ31" s="8"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8"/>
+      <c r="AU31" s="8"/>
+      <c r="AV31" s="8"/>
+      <c r="AW31" s="8"/>
+      <c r="AX31" s="8"/>
+      <c r="AY31" s="8"/>
+      <c r="AZ31" s="8"/>
+      <c r="BA31" s="8"/>
+      <c r="BB31" s="8"/>
+      <c r="BC31" s="8"/>
+      <c r="BD31" s="8"/>
+      <c r="BE31" s="8"/>
+      <c r="BF31" s="8"/>
+      <c r="BG31" s="8"/>
+      <c r="BH31" s="8"/>
+      <c r="BI31" s="8"/>
+      <c r="BJ31" s="8"/>
+      <c r="BK31" s="8"/>
+      <c r="BL31" s="8"/>
+      <c r="BM31" s="8"/>
+      <c r="BN31" s="8"/>
+      <c r="BO31" s="8"/>
+      <c r="BP31" s="8"/>
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8"/>
+      <c r="BU31" s="8"/>
+      <c r="BV31" s="8"/>
+      <c r="BW31" s="8"/>
+      <c r="BX31" s="8"/>
+      <c r="BY31" s="8"/>
+      <c r="BZ31" s="8"/>
+      <c r="CA31" s="8"/>
+      <c r="CB31" s="8"/>
+      <c r="CC31" s="8"/>
+      <c r="CD31" s="8"/>
+      <c r="CE31" s="8"/>
+      <c r="CF31" s="8"/>
+      <c r="CG31" s="8"/>
+      <c r="CH31" s="8"/>
+      <c r="CI31" s="8"/>
+      <c r="CJ31" s="8"/>
+      <c r="CK31" s="8"/>
+      <c r="CL31" s="8"/>
+      <c r="CM31" s="8"/>
+      <c r="CN31" s="8"/>
+      <c r="CO31" s="8"/>
+      <c r="CP31" s="8"/>
+      <c r="CQ31" s="8"/>
+      <c r="CR31" s="8"/>
+      <c r="CS31" s="8"/>
+      <c r="CT31" s="8"/>
+      <c r="CU31" s="8"/>
+      <c r="CV31" s="8"/>
+      <c r="CW31" s="8"/>
+      <c r="CX31" s="8"/>
+      <c r="CY31" s="8"/>
+      <c r="CZ31" s="8"/>
+      <c r="DA31" s="8"/>
+      <c r="DB31" s="8"/>
+      <c r="DC31" s="8"/>
+      <c r="DD31" s="8"/>
+      <c r="DE31" s="8"/>
+      <c r="DF31" s="8"/>
+      <c r="DG31" s="8"/>
+      <c r="DH31" s="8"/>
+      <c r="DI31" s="8"/>
+      <c r="DJ31" s="8"/>
+      <c r="DK31" s="8"/>
+      <c r="DL31" s="8"/>
+      <c r="DM31" s="8"/>
+      <c r="DN31" s="8"/>
+      <c r="DO31" s="8"/>
+      <c r="DP31" s="8"/>
+      <c r="DQ31" s="8"/>
+      <c r="DR31" s="8"/>
+      <c r="DS31" s="8"/>
+      <c r="DT31" s="8"/>
+      <c r="DU31" s="8"/>
+      <c r="DV31" s="8"/>
+      <c r="DW31" s="8"/>
+      <c r="DX31" s="8"/>
+      <c r="DY31" s="8"/>
+      <c r="DZ31" s="8"/>
+      <c r="EA31" s="8"/>
+      <c r="EB31" s="8"/>
+      <c r="EC31" s="8"/>
+      <c r="ED31" s="8"/>
+      <c r="EE31" s="8"/>
+      <c r="EF31" s="8"/>
+      <c r="EG31" s="8"/>
+      <c r="EH31" s="8"/>
+      <c r="EI31" s="8"/>
+      <c r="EJ31" s="8"/>
+      <c r="EK31" s="8"/>
+      <c r="EL31" s="8"/>
+      <c r="EM31" s="8"/>
+      <c r="EN31" s="8"/>
+      <c r="EO31" s="8"/>
+      <c r="EP31" s="8"/>
+      <c r="EQ31" s="8"/>
+      <c r="ER31" s="8"/>
+      <c r="ES31" s="8"/>
+      <c r="ET31" s="8"/>
+      <c r="EU31" s="8"/>
+      <c r="EV31" s="8"/>
+      <c r="EW31" s="8"/>
+      <c r="EX31" s="8"/>
+      <c r="EY31" s="8"/>
+      <c r="EZ31" s="8"/>
+      <c r="FA31" s="8"/>
+      <c r="FB31" s="8"/>
+      <c r="FC31" s="8"/>
+      <c r="FD31" s="8"/>
+      <c r="FE31" s="8"/>
+      <c r="FF31" s="8"/>
+      <c r="FG31" s="8"/>
+      <c r="FH31" s="8"/>
+      <c r="FI31" s="8"/>
+      <c r="FJ31" s="8"/>
+      <c r="FK31" s="8"/>
+      <c r="FL31" s="8"/>
+      <c r="FM31" s="8"/>
+      <c r="FN31" s="8"/>
+      <c r="FO31" s="8"/>
+      <c r="FP31" s="8"/>
+      <c r="FQ31" s="8"/>
+      <c r="FR31" s="8"/>
+      <c r="FS31" s="8"/>
+      <c r="FT31" s="8"/>
+      <c r="FU31" s="8"/>
+      <c r="FV31" s="8"/>
+      <c r="FW31" s="8"/>
+      <c r="FX31" s="8"/>
+      <c r="FY31" s="8"/>
+      <c r="FZ31" s="8"/>
+      <c r="GA31" s="8"/>
+      <c r="GB31" s="8"/>
+      <c r="GC31" s="8"/>
+      <c r="GD31" s="8"/>
+      <c r="GE31" s="8"/>
+      <c r="GF31" s="8"/>
+      <c r="GG31" s="8"/>
+      <c r="GH31" s="8"/>
+      <c r="GI31" s="8"/>
+      <c r="GJ31" s="8"/>
+      <c r="GK31" s="8"/>
+      <c r="GL31" s="8"/>
+      <c r="GM31" s="8"/>
+      <c r="GN31" s="8"/>
+      <c r="GO31" s="8"/>
+      <c r="GP31" s="8"/>
+      <c r="GQ31" s="8"/>
+      <c r="GR31" s="8"/>
+      <c r="GS31" s="8"/>
+      <c r="GT31" s="8"/>
+      <c r="GU31" s="8"/>
+      <c r="GV31" s="8"/>
+      <c r="GW31" s="8"/>
+      <c r="GX31" s="8"/>
+      <c r="GY31" s="8"/>
+      <c r="GZ31" s="8"/>
+      <c r="HA31" s="8"/>
+      <c r="HB31" s="8"/>
+      <c r="HC31" s="8"/>
+      <c r="HD31" s="8"/>
+      <c r="HE31" s="8"/>
+      <c r="HF31" s="8"/>
+      <c r="HG31" s="8"/>
+      <c r="HH31" s="8"/>
+      <c r="HI31" s="8"/>
+      <c r="HJ31" s="8"/>
+      <c r="HK31" s="8"/>
+      <c r="HL31" s="8"/>
+      <c r="HM31" s="8"/>
+      <c r="HN31" s="8"/>
+      <c r="HO31" s="8"/>
+      <c r="HP31" s="8"/>
+      <c r="HQ31" s="8"/>
+      <c r="HR31" s="8"/>
+      <c r="HS31" s="8"/>
+      <c r="HT31" s="8"/>
+      <c r="HU31" s="8"/>
+      <c r="HV31" s="8"/>
+      <c r="HW31" s="8"/>
+      <c r="HX31" s="8"/>
+      <c r="HY31" s="8"/>
+      <c r="HZ31" s="8"/>
+      <c r="IA31" s="8"/>
+      <c r="IB31" s="8"/>
+      <c r="IC31" s="8"/>
+      <c r="ID31" s="8"/>
+      <c r="IE31" s="8"/>
+      <c r="IF31" s="8"/>
+      <c r="IG31" s="8"/>
+      <c r="IH31" s="8"/>
+      <c r="II31" s="8"/>
+      <c r="IJ31" s="8"/>
+      <c r="IK31" s="8"/>
+      <c r="IL31" s="8"/>
+      <c r="IM31" s="8"/>
+      <c r="IN31" s="8"/>
+      <c r="IO31" s="8"/>
+      <c r="IP31" s="8"/>
+      <c r="IQ31" s="8"/>
+      <c r="IR31" s="8"/>
+      <c r="IS31" s="8"/>
+      <c r="IT31" s="8"/>
+      <c r="IU31" s="8"/>
+      <c r="IV31" s="8"/>
+      <c r="IW31" s="8"/>
+      <c r="IX31" s="8"/>
+      <c r="IY31" s="8"/>
+      <c r="IZ31" s="8"/>
+      <c r="JA31" s="8"/>
+      <c r="JB31" s="8"/>
+      <c r="JC31" s="8"/>
+      <c r="JD31" s="8"/>
+      <c r="JE31" s="8"/>
+      <c r="JF31" s="8"/>
+      <c r="JG31" s="8"/>
+      <c r="JH31" s="8"/>
+      <c r="JI31" s="8"/>
+      <c r="JJ31" s="8"/>
+      <c r="JK31" s="8"/>
+      <c r="JL31" s="8"/>
+      <c r="JM31" s="8"/>
+      <c r="JN31" s="8"/>
+      <c r="JO31" s="8"/>
+      <c r="JP31" s="8"/>
+      <c r="JQ31" s="8"/>
+      <c r="JR31" s="8"/>
+      <c r="JS31" s="8"/>
+      <c r="JT31" s="8"/>
+      <c r="JU31" s="8"/>
+      <c r="JV31" s="8"/>
+      <c r="JW31" s="8"/>
+      <c r="JX31" s="8"/>
+      <c r="JY31" s="8"/>
+      <c r="JZ31" s="8"/>
+      <c r="KA31" s="8"/>
+      <c r="KB31" s="8"/>
+      <c r="KC31" s="8"/>
+      <c r="KD31" s="8"/>
+      <c r="KE31" s="8"/>
+      <c r="KF31" s="8"/>
+      <c r="KG31" s="8"/>
+      <c r="KH31" s="8"/>
+      <c r="KI31" s="8"/>
+      <c r="KJ31" s="8"/>
+      <c r="KK31" s="8"/>
+      <c r="KL31" s="8"/>
+      <c r="KM31" s="8"/>
+      <c r="KN31" s="8"/>
+      <c r="KO31" s="8"/>
+      <c r="KP31" s="8"/>
+      <c r="KQ31" s="8"/>
+      <c r="KR31" s="8"/>
+      <c r="KS31" s="8"/>
+      <c r="KT31" s="8"/>
+      <c r="KU31" s="8"/>
+      <c r="KV31" s="8"/>
+      <c r="KW31" s="8"/>
+      <c r="KX31" s="8"/>
+      <c r="KY31" s="8"/>
+      <c r="KZ31" s="8"/>
+      <c r="LA31" s="8"/>
+      <c r="LB31" s="8"/>
+      <c r="LC31" s="8"/>
+      <c r="LD31" s="8"/>
+      <c r="LE31" s="8"/>
+      <c r="LF31" s="8"/>
+      <c r="LG31" s="8"/>
+      <c r="LH31" s="8"/>
+      <c r="LI31" s="8"/>
+      <c r="LJ31" s="8"/>
+      <c r="LK31" s="8"/>
+      <c r="LL31" s="8"/>
+      <c r="LM31" s="8"/>
+      <c r="LN31" s="8"/>
+      <c r="LO31" s="8"/>
+      <c r="LP31" s="8"/>
+      <c r="LQ31" s="8"/>
+      <c r="LR31" s="8"/>
+      <c r="LS31" s="8"/>
+      <c r="LT31" s="8"/>
+      <c r="LU31" s="8"/>
+      <c r="LV31" s="8"/>
+      <c r="LW31" s="8"/>
+      <c r="LX31" s="8"/>
+      <c r="LY31" s="8"/>
+      <c r="LZ31" s="8"/>
+      <c r="MA31" s="8"/>
+      <c r="MB31" s="8"/>
+      <c r="MC31" s="8"/>
+      <c r="MD31" s="8"/>
+      <c r="ME31" s="8"/>
+      <c r="MF31" s="8"/>
+      <c r="MG31" s="8"/>
+      <c r="MH31" s="8"/>
+      <c r="MI31" s="8"/>
+      <c r="MJ31" s="8"/>
+      <c r="MK31" s="8"/>
+      <c r="ML31" s="8"/>
+      <c r="MM31" s="8"/>
+      <c r="MN31" s="8"/>
+      <c r="MO31" s="8"/>
+      <c r="MP31" s="8"/>
+      <c r="MQ31" s="8"/>
+      <c r="MR31" s="8"/>
+      <c r="MS31" s="8"/>
+      <c r="MT31" s="8"/>
+      <c r="MU31" s="8"/>
+      <c r="MV31" s="8"/>
+      <c r="MW31" s="8"/>
+      <c r="MX31" s="8"/>
+      <c r="MY31" s="8"/>
+      <c r="MZ31" s="8"/>
+      <c r="NA31" s="8"/>
+      <c r="NB31" s="8"/>
+      <c r="NC31" s="8"/>
+      <c r="ND31" s="8"/>
+      <c r="NE31" s="8"/>
+      <c r="NF31" s="8"/>
+      <c r="NG31" s="8"/>
+      <c r="NH31" s="8"/>
+      <c r="NI31" s="8"/>
+      <c r="NJ31" s="8"/>
+      <c r="NK31" s="8"/>
+      <c r="NL31" s="8"/>
+      <c r="NM31" s="8"/>
+      <c r="NN31" s="8"/>
+      <c r="NO31" s="8"/>
+      <c r="NP31" s="8"/>
+      <c r="NQ31" s="8"/>
+      <c r="NR31" s="8"/>
+      <c r="NS31" s="8"/>
+      <c r="NT31" s="8"/>
+      <c r="NU31" s="8"/>
+      <c r="NV31" s="8"/>
+      <c r="NW31" s="8"/>
+      <c r="NX31" s="8"/>
+      <c r="NY31" s="8"/>
+      <c r="NZ31" s="8"/>
+      <c r="OA31" s="8"/>
+      <c r="OB31" s="8"/>
+      <c r="OC31" s="8"/>
+      <c r="OD31" s="8"/>
+      <c r="OE31" s="8"/>
+      <c r="OF31" s="8"/>
+      <c r="OG31" s="8"/>
+      <c r="OH31" s="8"/>
+      <c r="OI31" s="8"/>
+      <c r="OJ31" s="8"/>
+      <c r="OK31" s="8"/>
+      <c r="OL31" s="8"/>
+      <c r="OM31" s="8"/>
+      <c r="ON31" s="8"/>
+      <c r="OO31" s="8"/>
+      <c r="OP31" s="8"/>
+      <c r="OQ31" s="8"/>
+      <c r="OR31" s="8"/>
+      <c r="OS31" s="8"/>
+      <c r="OT31" s="8"/>
+      <c r="OU31" s="8"/>
+      <c r="OV31" s="8"/>
+      <c r="OW31" s="8"/>
+      <c r="OX31" s="8"/>
+      <c r="OY31" s="8"/>
+      <c r="OZ31" s="8"/>
+      <c r="PA31" s="8"/>
+      <c r="PB31" s="8"/>
+      <c r="PC31" s="8"/>
+      <c r="PD31" s="8"/>
+      <c r="PE31" s="8"/>
+      <c r="PF31" s="8"/>
+      <c r="PG31" s="8"/>
+      <c r="PH31" s="8"/>
+      <c r="PI31" s="8"/>
+      <c r="PJ31" s="8"/>
+      <c r="PK31" s="8"/>
+      <c r="PL31" s="8"/>
+      <c r="PM31" s="8"/>
+      <c r="PN31" s="8"/>
+      <c r="PO31" s="8"/>
+      <c r="PP31" s="8"/>
+      <c r="PQ31" s="8"/>
+      <c r="PR31" s="8"/>
+      <c r="PS31" s="8"/>
+      <c r="PT31" s="8"/>
+      <c r="PU31" s="8"/>
+      <c r="PV31" s="8"/>
+      <c r="PW31" s="8"/>
+      <c r="PX31" s="8"/>
+      <c r="PY31" s="8"/>
+      <c r="PZ31" s="8"/>
+      <c r="QA31" s="8"/>
+      <c r="QB31" s="8"/>
+      <c r="QC31" s="8"/>
+      <c r="QD31" s="8"/>
+      <c r="QE31" s="8"/>
+      <c r="QF31" s="8"/>
+      <c r="QG31" s="8"/>
+      <c r="QH31" s="8"/>
+      <c r="QI31" s="8"/>
+      <c r="QJ31" s="8"/>
+      <c r="QK31" s="8"/>
+      <c r="QL31" s="8"/>
+      <c r="QM31" s="8"/>
+      <c r="QN31" s="8"/>
+      <c r="QO31" s="8"/>
+      <c r="QP31" s="8"/>
+      <c r="QQ31" s="8"/>
+      <c r="QR31" s="8"/>
+      <c r="QS31" s="8"/>
+      <c r="QT31" s="8"/>
+      <c r="QU31" s="8"/>
+      <c r="QV31" s="8"/>
+      <c r="QW31" s="8"/>
+      <c r="QX31" s="8"/>
+      <c r="QY31" s="8"/>
+      <c r="QZ31" s="8"/>
+      <c r="RA31" s="8"/>
+      <c r="RB31" s="8"/>
+      <c r="RC31" s="8"/>
+      <c r="RD31" s="8"/>
+      <c r="RE31" s="8"/>
+      <c r="RF31" s="8"/>
+      <c r="RG31" s="8"/>
+      <c r="RH31" s="8"/>
+      <c r="RI31" s="8"/>
+      <c r="RJ31" s="8"/>
+      <c r="RK31" s="8"/>
+      <c r="RL31" s="8"/>
+      <c r="RM31" s="8"/>
+      <c r="RN31" s="8"/>
+      <c r="RO31" s="8"/>
+      <c r="RP31" s="8"/>
+      <c r="RQ31" s="8"/>
+      <c r="RR31" s="8"/>
+      <c r="RS31" s="8"/>
+      <c r="RT31" s="8"/>
+      <c r="RU31" s="8"/>
+      <c r="RV31" s="8"/>
+      <c r="RW31" s="8"/>
+      <c r="RX31" s="8"/>
+      <c r="RY31" s="8"/>
+      <c r="RZ31" s="8"/>
+      <c r="SA31" s="8"/>
+      <c r="SB31" s="8"/>
+      <c r="SC31" s="8"/>
+      <c r="SD31" s="8"/>
+      <c r="SE31" s="8"/>
+      <c r="SF31" s="8"/>
+      <c r="SG31" s="8"/>
+      <c r="SH31" s="8"/>
+      <c r="SI31" s="8"/>
+      <c r="SJ31" s="8"/>
+      <c r="SK31" s="8"/>
+      <c r="SL31" s="8"/>
+      <c r="SM31" s="8"/>
+      <c r="SN31" s="8"/>
+      <c r="SO31" s="8"/>
+      <c r="SP31" s="8"/>
+      <c r="SQ31" s="8"/>
+      <c r="SR31" s="8"/>
+      <c r="SS31" s="8"/>
+      <c r="ST31" s="8"/>
+      <c r="SU31" s="8"/>
+      <c r="SV31" s="8"/>
+      <c r="SW31" s="8"/>
+      <c r="SX31" s="8"/>
+      <c r="SY31" s="8"/>
+      <c r="SZ31" s="8"/>
+      <c r="TA31" s="8"/>
+      <c r="TB31" s="8"/>
+      <c r="TC31" s="8"/>
+      <c r="TD31" s="8"/>
+      <c r="TE31" s="8"/>
+      <c r="TF31" s="8"/>
+      <c r="TG31" s="8"/>
+      <c r="TH31" s="8"/>
+      <c r="TI31" s="8"/>
+      <c r="TJ31" s="8"/>
+      <c r="TK31" s="8"/>
+      <c r="TL31" s="8"/>
+      <c r="TM31" s="8"/>
+      <c r="TN31" s="8"/>
+      <c r="TO31" s="8"/>
+      <c r="TP31" s="8"/>
+      <c r="TQ31" s="8"/>
+      <c r="TR31" s="8"/>
+      <c r="TS31" s="8"/>
+      <c r="TT31" s="8"/>
+      <c r="TU31" s="8"/>
+      <c r="TV31" s="8"/>
+      <c r="TW31" s="8"/>
+      <c r="TX31" s="8"/>
+      <c r="TY31" s="8"/>
+      <c r="TZ31" s="8"/>
+      <c r="UA31" s="8"/>
+      <c r="UB31" s="8"/>
+      <c r="UC31" s="8"/>
+      <c r="UD31" s="8"/>
+      <c r="UE31" s="8"/>
+      <c r="UF31" s="8"/>
+      <c r="UG31" s="8"/>
+      <c r="UH31" s="8"/>
+      <c r="UI31" s="8"/>
+      <c r="UJ31" s="8"/>
+      <c r="UK31" s="8"/>
+      <c r="UL31" s="8"/>
+      <c r="UM31" s="8"/>
+      <c r="UN31" s="8"/>
+      <c r="UO31" s="8"/>
+      <c r="UP31" s="8"/>
+      <c r="UQ31" s="8"/>
+      <c r="UR31" s="8"/>
+      <c r="US31" s="8"/>
+      <c r="UT31" s="8"/>
+      <c r="UU31" s="8"/>
+      <c r="UV31" s="8"/>
+      <c r="UW31" s="8"/>
+      <c r="UX31" s="8"/>
+      <c r="UY31" s="8"/>
+      <c r="UZ31" s="8"/>
+      <c r="VA31" s="8"/>
+      <c r="VB31" s="8"/>
+      <c r="VC31" s="8"/>
+      <c r="VD31" s="8"/>
+      <c r="VE31" s="8"/>
+      <c r="VF31" s="8"/>
+      <c r="VG31" s="8"/>
+      <c r="VH31" s="8"/>
+      <c r="VI31" s="8"/>
+      <c r="VJ31" s="8"/>
+      <c r="VK31" s="8"/>
+      <c r="VL31" s="8"/>
+      <c r="VM31" s="8"/>
+      <c r="VN31" s="8"/>
+      <c r="VO31" s="8"/>
+      <c r="VP31" s="8"/>
+      <c r="VQ31" s="8"/>
+      <c r="VR31" s="8"/>
+      <c r="VS31" s="8"/>
+      <c r="VT31" s="8"/>
+      <c r="VU31" s="8"/>
+      <c r="VV31" s="8"/>
+      <c r="VW31" s="8"/>
+      <c r="VX31" s="8"/>
+      <c r="VY31" s="8"/>
+      <c r="VZ31" s="8"/>
+      <c r="WA31" s="8"/>
+      <c r="WB31" s="8"/>
+      <c r="WC31" s="8"/>
+      <c r="WD31" s="8"/>
+      <c r="WE31" s="8"/>
+      <c r="WF31" s="8"/>
+      <c r="WG31" s="8"/>
+      <c r="WH31" s="8"/>
+      <c r="WI31" s="8"/>
+      <c r="WJ31" s="8"/>
+      <c r="WK31" s="8"/>
+      <c r="WL31" s="8"/>
+      <c r="WM31" s="8"/>
+      <c r="WN31" s="8"/>
+      <c r="WO31" s="8"/>
+      <c r="WP31" s="8"/>
+      <c r="WQ31" s="8"/>
+      <c r="WR31" s="8"/>
+      <c r="WS31" s="8"/>
+      <c r="WT31" s="8"/>
+      <c r="WU31" s="8"/>
+      <c r="WV31" s="8"/>
+      <c r="WW31" s="8"/>
+      <c r="WX31" s="8"/>
+      <c r="WY31" s="8"/>
+      <c r="WZ31" s="8"/>
+      <c r="XA31" s="8"/>
+      <c r="XB31" s="8"/>
+      <c r="XC31" s="8"/>
+      <c r="XD31" s="8"/>
+      <c r="XE31" s="8"/>
+      <c r="XF31" s="8"/>
+      <c r="XG31" s="8"/>
+      <c r="XH31" s="8"/>
+      <c r="XI31" s="8"/>
+      <c r="XJ31" s="8"/>
+      <c r="XK31" s="8"/>
+      <c r="XL31" s="8"/>
+      <c r="XM31" s="8"/>
+      <c r="XN31" s="8"/>
+      <c r="XO31" s="8"/>
+      <c r="XP31" s="8"/>
+      <c r="XQ31" s="8"/>
+      <c r="XR31" s="8"/>
+      <c r="XS31" s="8"/>
+      <c r="XT31" s="8"/>
+      <c r="XU31" s="8"/>
+      <c r="XV31" s="8"/>
+      <c r="XW31" s="8"/>
+      <c r="XX31" s="8"/>
+      <c r="XY31" s="8"/>
+      <c r="XZ31" s="8"/>
+      <c r="YA31" s="8"/>
+      <c r="YB31" s="8"/>
+      <c r="YC31" s="8"/>
+      <c r="YD31" s="8"/>
+      <c r="YE31" s="8"/>
+      <c r="YF31" s="8"/>
+      <c r="YG31" s="8"/>
+      <c r="YH31" s="8"/>
+      <c r="YI31" s="8"/>
+      <c r="YJ31" s="8"/>
+      <c r="YK31" s="8"/>
+      <c r="YL31" s="8"/>
+      <c r="YM31" s="8"/>
+      <c r="YN31" s="8"/>
+      <c r="YO31" s="8"/>
+      <c r="YP31" s="8"/>
+      <c r="YQ31" s="8"/>
+      <c r="YR31" s="8"/>
+      <c r="YS31" s="8"/>
+      <c r="YT31" s="8"/>
+      <c r="YU31" s="8"/>
+      <c r="YV31" s="8"/>
+      <c r="YW31" s="8"/>
+      <c r="YX31" s="8"/>
+      <c r="YY31" s="8"/>
+      <c r="YZ31" s="8"/>
+      <c r="ZA31" s="8"/>
+      <c r="ZB31" s="8"/>
+      <c r="ZC31" s="8"/>
+      <c r="ZD31" s="8"/>
+      <c r="ZE31" s="8"/>
+      <c r="ZF31" s="8"/>
+      <c r="ZG31" s="8"/>
+      <c r="ZH31" s="8"/>
+      <c r="ZI31" s="8"/>
+      <c r="ZJ31" s="8"/>
+      <c r="ZK31" s="8"/>
+      <c r="ZL31" s="8"/>
+      <c r="ZM31" s="8"/>
+      <c r="ZN31" s="8"/>
+      <c r="ZO31" s="8"/>
+      <c r="ZP31" s="8"/>
+      <c r="ZQ31" s="8"/>
+      <c r="ZR31" s="8"/>
+      <c r="ZS31" s="8"/>
+      <c r="ZT31" s="8"/>
+      <c r="ZU31" s="8"/>
+      <c r="ZV31" s="8"/>
+      <c r="ZW31" s="8"/>
+      <c r="ZX31" s="8"/>
+      <c r="ZY31" s="8"/>
+      <c r="ZZ31" s="8"/>
+      <c r="AAA31" s="8"/>
+      <c r="AAB31" s="8"/>
+      <c r="AAC31" s="8"/>
+      <c r="AAD31" s="8"/>
+      <c r="AAE31" s="8"/>
+      <c r="AAF31" s="8"/>
+      <c r="AAG31" s="8"/>
+      <c r="AAH31" s="8"/>
+      <c r="AAI31" s="8"/>
+      <c r="AAJ31" s="8"/>
+      <c r="AAK31" s="8"/>
+      <c r="AAL31" s="8"/>
+      <c r="AAM31" s="8"/>
+      <c r="AAN31" s="8"/>
+      <c r="AAO31" s="8"/>
+      <c r="AAP31" s="8"/>
+      <c r="AAQ31" s="8"/>
+      <c r="AAR31" s="8"/>
+      <c r="AAS31" s="8"/>
+      <c r="AAT31" s="8"/>
+      <c r="AAU31" s="8"/>
+      <c r="AAV31" s="8"/>
+      <c r="AAW31" s="8"/>
+      <c r="AAX31" s="8"/>
+      <c r="AAY31" s="8"/>
+      <c r="AAZ31" s="8"/>
+      <c r="ABA31" s="8"/>
+      <c r="ABB31" s="8"/>
+      <c r="ABC31" s="8"/>
+      <c r="ABD31" s="8"/>
+      <c r="ABE31" s="8"/>
+      <c r="ABF31" s="8"/>
+      <c r="ABG31" s="8"/>
+      <c r="ABH31" s="8"/>
+      <c r="ABI31" s="8"/>
+      <c r="ABJ31" s="8"/>
+      <c r="ABK31" s="8"/>
+      <c r="ABL31" s="8"/>
+      <c r="ABM31" s="8"/>
+      <c r="ABN31" s="8"/>
+      <c r="ABO31" s="8"/>
+      <c r="ABP31" s="8"/>
+      <c r="ABQ31" s="8"/>
+      <c r="ABR31" s="8"/>
+      <c r="ABS31" s="8"/>
+      <c r="ABT31" s="8"/>
+      <c r="ABU31" s="8"/>
+      <c r="ABV31" s="8"/>
+      <c r="ABW31" s="8"/>
+      <c r="ABX31" s="8"/>
+      <c r="ABY31" s="8"/>
+      <c r="ABZ31" s="8"/>
+      <c r="ACA31" s="8"/>
+      <c r="ACB31" s="8"/>
+      <c r="ACC31" s="8"/>
+      <c r="ACD31" s="8"/>
+      <c r="ACE31" s="8"/>
+      <c r="ACF31" s="8"/>
+      <c r="ACG31" s="8"/>
+      <c r="ACH31" s="8"/>
+      <c r="ACI31" s="8"/>
+      <c r="ACJ31" s="8"/>
+      <c r="ACK31" s="8"/>
+      <c r="ACL31" s="8"/>
+      <c r="ACM31" s="8"/>
+      <c r="ACN31" s="8"/>
+      <c r="ACO31" s="8"/>
+      <c r="ACP31" s="8"/>
+      <c r="ACQ31" s="8"/>
+      <c r="ACR31" s="8"/>
+      <c r="ACS31" s="8"/>
+      <c r="ACT31" s="8"/>
+      <c r="ACU31" s="8"/>
+      <c r="ACV31" s="8"/>
+      <c r="ACW31" s="8"/>
+      <c r="ACX31" s="8"/>
+      <c r="ACY31" s="8"/>
+      <c r="ACZ31" s="8"/>
+      <c r="ADA31" s="8"/>
+      <c r="ADB31" s="8"/>
+      <c r="ADC31" s="8"/>
+      <c r="ADD31" s="8"/>
+      <c r="ADE31" s="8"/>
+      <c r="ADF31" s="8"/>
+      <c r="ADG31" s="8"/>
+      <c r="ADH31" s="8"/>
+      <c r="ADI31" s="8"/>
+      <c r="ADJ31" s="8"/>
+      <c r="ADK31" s="8"/>
+      <c r="ADL31" s="8"/>
+      <c r="ADM31" s="8"/>
+      <c r="ADN31" s="8"/>
+      <c r="ADO31" s="8"/>
+      <c r="ADP31" s="8"/>
+      <c r="ADQ31" s="8"/>
+      <c r="ADR31" s="8"/>
+      <c r="ADS31" s="8"/>
+      <c r="ADT31" s="8"/>
+      <c r="ADU31" s="8"/>
+      <c r="ADV31" s="8"/>
+      <c r="ADW31" s="8"/>
+      <c r="ADX31" s="8"/>
+      <c r="ADY31" s="8"/>
+      <c r="ADZ31" s="8"/>
+      <c r="AEA31" s="8"/>
+      <c r="AEB31" s="8"/>
+      <c r="AEC31" s="8"/>
+      <c r="AED31" s="8"/>
+      <c r="AEE31" s="8"/>
+      <c r="AEF31" s="8"/>
+      <c r="AEG31" s="8"/>
+      <c r="AEH31" s="8"/>
+      <c r="AEI31" s="8"/>
+      <c r="AEJ31" s="8"/>
+      <c r="AEK31" s="8"/>
+      <c r="AEL31" s="8"/>
+      <c r="AEM31" s="8"/>
+      <c r="AEN31" s="8"/>
+      <c r="AEO31" s="8"/>
+      <c r="AEP31" s="8"/>
+      <c r="AEQ31" s="8"/>
+      <c r="AER31" s="8"/>
+      <c r="AES31" s="8"/>
+      <c r="AET31" s="8"/>
+      <c r="AEU31" s="8"/>
+      <c r="AEV31" s="8"/>
+      <c r="AEW31" s="8"/>
+      <c r="AEX31" s="8"/>
+      <c r="AEY31" s="8"/>
+      <c r="AEZ31" s="8"/>
+      <c r="AFA31" s="8"/>
+      <c r="AFB31" s="8"/>
+      <c r="AFC31" s="8"/>
+      <c r="AFD31" s="8"/>
+      <c r="AFE31" s="8"/>
+      <c r="AFF31" s="8"/>
+      <c r="AFG31" s="8"/>
+      <c r="AFH31" s="8"/>
+      <c r="AFI31" s="8"/>
+      <c r="AFJ31" s="8"/>
+      <c r="AFK31" s="8"/>
+      <c r="AFL31" s="8"/>
+      <c r="AFM31" s="8"/>
+      <c r="AFN31" s="8"/>
+      <c r="AFO31" s="8"/>
+      <c r="AFP31" s="8"/>
+      <c r="AFQ31" s="8"/>
+      <c r="AFR31" s="8"/>
+      <c r="AFS31" s="8"/>
+      <c r="AFT31" s="8"/>
+      <c r="AFU31" s="8"/>
+      <c r="AFV31" s="8"/>
+      <c r="AFW31" s="8"/>
+      <c r="AFX31" s="8"/>
+      <c r="AFY31" s="8"/>
+      <c r="AFZ31" s="8"/>
+      <c r="AGA31" s="8"/>
+      <c r="AGB31" s="8"/>
+      <c r="AGC31" s="8"/>
+      <c r="AGD31" s="8"/>
+      <c r="AGE31" s="8"/>
+      <c r="AGF31" s="8"/>
+      <c r="AGG31" s="8"/>
+      <c r="AGH31" s="8"/>
+      <c r="AGI31" s="8"/>
+      <c r="AGJ31" s="8"/>
+      <c r="AGK31" s="8"/>
+      <c r="AGL31" s="8"/>
+      <c r="AGM31" s="8"/>
+      <c r="AGN31" s="8"/>
+      <c r="AGO31" s="8"/>
+      <c r="AGP31" s="8"/>
+      <c r="AGQ31" s="8"/>
+      <c r="AGR31" s="8"/>
+      <c r="AGS31" s="8"/>
+      <c r="AGT31" s="8"/>
+      <c r="AGU31" s="8"/>
+      <c r="AGV31" s="8"/>
+      <c r="AGW31" s="8"/>
+      <c r="AGX31" s="8"/>
+      <c r="AGY31" s="8"/>
+      <c r="AGZ31" s="8"/>
+      <c r="AHA31" s="8"/>
+      <c r="AHB31" s="8"/>
+      <c r="AHC31" s="8"/>
+      <c r="AHD31" s="8"/>
+      <c r="AHE31" s="8"/>
+      <c r="AHF31" s="8"/>
+      <c r="AHG31" s="8"/>
+      <c r="AHH31" s="8"/>
+      <c r="AHI31" s="8"/>
+      <c r="AHJ31" s="8"/>
+      <c r="AHK31" s="8"/>
+      <c r="AHL31" s="8"/>
+      <c r="AHM31" s="8"/>
+      <c r="AHN31" s="8"/>
+      <c r="AHO31" s="8"/>
+      <c r="AHP31" s="8"/>
+      <c r="AHQ31" s="8"/>
+      <c r="AHR31" s="8"/>
+      <c r="AHS31" s="8"/>
+      <c r="AHT31" s="8"/>
+      <c r="AHU31" s="8"/>
+      <c r="AHV31" s="8"/>
+      <c r="AHW31" s="8"/>
+      <c r="AHX31" s="8"/>
+      <c r="AHY31" s="8"/>
+      <c r="AHZ31" s="8"/>
+      <c r="AIA31" s="8"/>
+      <c r="AIB31" s="8"/>
+      <c r="AIC31" s="8"/>
+      <c r="AID31" s="8"/>
+      <c r="AIE31" s="8"/>
+      <c r="AIF31" s="8"/>
+      <c r="AIG31" s="8"/>
+      <c r="AIH31" s="8"/>
+      <c r="AII31" s="8"/>
+      <c r="AIJ31" s="8"/>
+      <c r="AIK31" s="8"/>
+      <c r="AIL31" s="8"/>
+      <c r="AIM31" s="8"/>
+      <c r="AIN31" s="8"/>
+      <c r="AIO31" s="8"/>
+      <c r="AIP31" s="8"/>
+      <c r="AIQ31" s="8"/>
+      <c r="AIR31" s="8"/>
+      <c r="AIS31" s="8"/>
+      <c r="AIT31" s="8"/>
+      <c r="AIU31" s="8"/>
+      <c r="AIV31" s="8"/>
+      <c r="AIW31" s="8"/>
+      <c r="AIX31" s="8"/>
+      <c r="AIY31" s="8"/>
+      <c r="AIZ31" s="8"/>
+      <c r="AJA31" s="8"/>
+      <c r="AJB31" s="8"/>
+      <c r="AJC31" s="8"/>
+      <c r="AJD31" s="8"/>
+      <c r="AJE31" s="8"/>
+      <c r="AJF31" s="8"/>
+      <c r="AJG31" s="8"/>
+      <c r="AJH31" s="8"/>
+      <c r="AJI31" s="8"/>
+      <c r="AJJ31" s="8"/>
+      <c r="AJK31" s="8"/>
+      <c r="AJL31" s="8"/>
+      <c r="AJM31" s="8"/>
+      <c r="AJN31" s="8"/>
+      <c r="AJO31" s="8"/>
+      <c r="AJP31" s="8"/>
+      <c r="AJQ31" s="8"/>
+      <c r="AJR31" s="8"/>
+      <c r="AJS31" s="8"/>
+      <c r="AJT31" s="8"/>
+      <c r="AJU31" s="8"/>
+      <c r="AJV31" s="8"/>
+      <c r="AJW31" s="8"/>
+      <c r="AJX31" s="8"/>
+      <c r="AJY31" s="8"/>
+      <c r="AJZ31" s="8"/>
+      <c r="AKA31" s="8"/>
+      <c r="AKB31" s="8"/>
+      <c r="AKC31" s="8"/>
+      <c r="AKD31" s="8"/>
+      <c r="AKE31" s="8"/>
+      <c r="AKF31" s="8"/>
+      <c r="AKG31" s="8"/>
+      <c r="AKH31" s="8"/>
+      <c r="AKI31" s="8"/>
+      <c r="AKJ31" s="8"/>
+      <c r="AKK31" s="8"/>
+      <c r="AKL31" s="8"/>
+      <c r="AKM31" s="8"/>
+      <c r="AKN31" s="8"/>
+      <c r="AKO31" s="8"/>
+      <c r="AKP31" s="8"/>
+      <c r="AKQ31" s="8"/>
+      <c r="AKR31" s="8"/>
+      <c r="AKS31" s="8"/>
+      <c r="AKT31" s="8"/>
+      <c r="AKU31" s="8"/>
+      <c r="AKV31" s="8"/>
+      <c r="AKW31" s="8"/>
+      <c r="AKX31" s="8"/>
+      <c r="AKY31" s="8"/>
+      <c r="AKZ31" s="8"/>
+      <c r="ALA31" s="8"/>
+      <c r="ALB31" s="8"/>
+      <c r="ALC31" s="8"/>
+      <c r="ALD31" s="8"/>
+      <c r="ALE31" s="8"/>
+      <c r="ALF31" s="8"/>
+      <c r="ALG31" s="8"/>
+      <c r="ALH31" s="8"/>
+      <c r="ALI31" s="8"/>
+      <c r="ALJ31" s="8"/>
+      <c r="ALK31" s="8"/>
+      <c r="ALL31" s="8"/>
+      <c r="ALM31" s="8"/>
+      <c r="ALN31" s="8"/>
+      <c r="ALO31" s="8"/>
+      <c r="ALP31" s="8"/>
+      <c r="ALQ31" s="8"/>
+      <c r="ALR31" s="8"/>
+      <c r="ALS31" s="8"/>
+      <c r="ALT31" s="8"/>
+      <c r="ALU31" s="8"/>
+      <c r="ALV31" s="8"/>
+      <c r="ALW31" s="8"/>
+      <c r="ALX31" s="8"/>
+      <c r="ALY31" s="8"/>
+      <c r="ALZ31" s="8"/>
+      <c r="AMA31" s="8"/>
+      <c r="AMB31" s="8"/>
+      <c r="AMC31" s="8"/>
+      <c r="AMD31" s="8"/>
+      <c r="AME31" s="8"/>
+      <c r="AMF31" s="8"/>
+      <c r="AMG31" s="8"/>
+      <c r="AMH31" s="8"/>
+      <c r="AMI31" s="8"/>
+      <c r="AMJ31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
-        <v>21</v>
+      <c r="A32" s="0"/>
+      <c r="B32" s="0" t="s">
+        <v>43</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
-      <c r="AW32" s="17"/>
-      <c r="AX32" s="17"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="17"/>
-      <c r="BA32" s="17"/>
-      <c r="BB32" s="17"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="17"/>
-      <c r="BE32" s="17"/>
-      <c r="BF32" s="17"/>
-      <c r="BG32" s="17"/>
-      <c r="BH32" s="17"/>
-      <c r="BI32" s="17"/>
-      <c r="BJ32" s="17"/>
-      <c r="BK32" s="17"/>
-      <c r="BL32" s="17"/>
-      <c r="BM32" s="17"/>
-      <c r="BN32" s="17"/>
-      <c r="BO32" s="17"/>
-      <c r="BP32" s="17"/>
-      <c r="BQ32" s="17"/>
-      <c r="BR32" s="17"/>
-      <c r="BS32" s="17"/>
-      <c r="BT32" s="17"/>
-      <c r="BU32" s="17"/>
-      <c r="BV32" s="17"/>
-      <c r="BW32" s="17"/>
-      <c r="BX32" s="17"/>
-      <c r="BY32" s="17"/>
-      <c r="BZ32" s="17"/>
-      <c r="CA32" s="17"/>
-      <c r="CB32" s="17"/>
-      <c r="CC32" s="17"/>
-      <c r="CD32" s="17"/>
-      <c r="CE32" s="17"/>
-      <c r="CF32" s="17"/>
-      <c r="CG32" s="17"/>
-      <c r="CH32" s="17"/>
-      <c r="CI32" s="17"/>
-      <c r="CJ32" s="17"/>
-      <c r="CK32" s="17"/>
-      <c r="CL32" s="17"/>
-      <c r="CM32" s="17"/>
-      <c r="CN32" s="17"/>
-      <c r="CO32" s="17"/>
-      <c r="CP32" s="17"/>
-      <c r="CQ32" s="17"/>
-      <c r="CR32" s="17"/>
-      <c r="CS32" s="17"/>
-      <c r="CT32" s="17"/>
-      <c r="CU32" s="17"/>
-      <c r="CV32" s="17"/>
-      <c r="CW32" s="17"/>
-      <c r="CX32" s="17"/>
-      <c r="CY32" s="17"/>
-      <c r="CZ32" s="17"/>
-      <c r="DA32" s="17"/>
-      <c r="DB32" s="17"/>
-      <c r="DC32" s="17"/>
-      <c r="DD32" s="17"/>
-      <c r="DE32" s="17"/>
-      <c r="DF32" s="17"/>
-      <c r="DG32" s="17"/>
-      <c r="DH32" s="17"/>
-      <c r="DI32" s="17"/>
-      <c r="DJ32" s="17"/>
-      <c r="DK32" s="17"/>
-      <c r="DL32" s="17"/>
-      <c r="DM32" s="17"/>
-      <c r="DN32" s="17"/>
-      <c r="DO32" s="17"/>
-      <c r="DP32" s="17"/>
-      <c r="DQ32" s="17"/>
-      <c r="DR32" s="17"/>
-      <c r="DS32" s="17"/>
-      <c r="DT32" s="17"/>
-      <c r="DU32" s="17"/>
-      <c r="DV32" s="17"/>
-      <c r="DW32" s="17"/>
-      <c r="DX32" s="17"/>
-      <c r="DY32" s="17"/>
-      <c r="DZ32" s="17"/>
-      <c r="EA32" s="17"/>
-      <c r="EB32" s="17"/>
-      <c r="EC32" s="17"/>
-      <c r="ED32" s="17"/>
-      <c r="EE32" s="17"/>
-      <c r="EF32" s="17"/>
-      <c r="EG32" s="17"/>
-      <c r="EH32" s="17"/>
-      <c r="EI32" s="17"/>
-      <c r="EJ32" s="17"/>
-      <c r="EK32" s="17"/>
-      <c r="EL32" s="17"/>
-      <c r="EM32" s="17"/>
-      <c r="EN32" s="17"/>
-      <c r="EO32" s="17"/>
-      <c r="EP32" s="17"/>
-      <c r="EQ32" s="17"/>
-      <c r="ER32" s="17"/>
-      <c r="ES32" s="17"/>
-      <c r="ET32" s="17"/>
-      <c r="EU32" s="17"/>
-      <c r="EV32" s="17"/>
-      <c r="EW32" s="17"/>
-      <c r="EX32" s="17"/>
-      <c r="EY32" s="17"/>
-      <c r="EZ32" s="17"/>
-      <c r="FA32" s="17"/>
-      <c r="FB32" s="17"/>
-      <c r="FC32" s="17"/>
-      <c r="FD32" s="17"/>
-      <c r="FE32" s="17"/>
-      <c r="FF32" s="17"/>
-      <c r="FG32" s="17"/>
-      <c r="FH32" s="17"/>
-      <c r="FI32" s="17"/>
-      <c r="FJ32" s="17"/>
-      <c r="FK32" s="17"/>
-      <c r="FL32" s="17"/>
-      <c r="FM32" s="17"/>
-      <c r="FN32" s="17"/>
-      <c r="FO32" s="17"/>
-      <c r="FP32" s="17"/>
-      <c r="FQ32" s="17"/>
-      <c r="FR32" s="17"/>
-      <c r="FS32" s="17"/>
-      <c r="FT32" s="17"/>
-      <c r="FU32" s="17"/>
-      <c r="FV32" s="17"/>
-      <c r="FW32" s="17"/>
-      <c r="FX32" s="17"/>
-      <c r="FY32" s="17"/>
-      <c r="FZ32" s="17"/>
-      <c r="GA32" s="17"/>
-      <c r="GB32" s="17"/>
-      <c r="GC32" s="17"/>
-      <c r="GD32" s="17"/>
-      <c r="GE32" s="17"/>
-      <c r="GF32" s="17"/>
-      <c r="GG32" s="17"/>
-      <c r="GH32" s="17"/>
-      <c r="GI32" s="17"/>
-      <c r="GJ32" s="17"/>
-      <c r="GK32" s="17"/>
-      <c r="GL32" s="17"/>
-      <c r="GM32" s="17"/>
-      <c r="GN32" s="17"/>
-      <c r="GO32" s="17"/>
-      <c r="GP32" s="17"/>
-      <c r="GQ32" s="17"/>
-      <c r="GR32" s="17"/>
-      <c r="GS32" s="17"/>
-      <c r="GT32" s="17"/>
-      <c r="GU32" s="17"/>
-      <c r="GV32" s="17"/>
-      <c r="GW32" s="17"/>
-      <c r="GX32" s="17"/>
-      <c r="GY32" s="17"/>
-      <c r="GZ32" s="17"/>
-      <c r="HA32" s="17"/>
-      <c r="HB32" s="17"/>
-      <c r="HC32" s="17"/>
-      <c r="HD32" s="17"/>
-      <c r="HE32" s="17"/>
-      <c r="HF32" s="17"/>
-      <c r="HG32" s="17"/>
-      <c r="HH32" s="17"/>
-      <c r="HI32" s="17"/>
-      <c r="HJ32" s="17"/>
-      <c r="HK32" s="17"/>
-      <c r="HL32" s="17"/>
-      <c r="HM32" s="17"/>
-      <c r="HN32" s="17"/>
-      <c r="HO32" s="17"/>
-      <c r="HP32" s="17"/>
-      <c r="HQ32" s="17"/>
-      <c r="HR32" s="17"/>
-      <c r="HS32" s="17"/>
-      <c r="HT32" s="17"/>
-      <c r="HU32" s="17"/>
-      <c r="HV32" s="17"/>
-      <c r="HW32" s="17"/>
-      <c r="HX32" s="17"/>
-      <c r="HY32" s="17"/>
-      <c r="HZ32" s="17"/>
-      <c r="IA32" s="17"/>
-      <c r="IB32" s="17"/>
-      <c r="IC32" s="17"/>
-      <c r="ID32" s="17"/>
-      <c r="IE32" s="17"/>
-      <c r="IF32" s="17"/>
-      <c r="IG32" s="17"/>
-      <c r="IH32" s="17"/>
-      <c r="II32" s="17"/>
-      <c r="IJ32" s="17"/>
-      <c r="IK32" s="17"/>
-      <c r="IL32" s="17"/>
-      <c r="IM32" s="17"/>
-      <c r="IN32" s="17"/>
-      <c r="IO32" s="17"/>
-      <c r="IP32" s="17"/>
-      <c r="IQ32" s="17"/>
-      <c r="IR32" s="17"/>
-      <c r="IS32" s="17"/>
-      <c r="IT32" s="17"/>
-      <c r="IU32" s="17"/>
-      <c r="IV32" s="17"/>
-      <c r="IW32" s="17"/>
-      <c r="IX32" s="17"/>
-      <c r="IY32" s="17"/>
-      <c r="IZ32" s="17"/>
-      <c r="JA32" s="17"/>
-      <c r="JB32" s="17"/>
-      <c r="JC32" s="17"/>
-      <c r="JD32" s="17"/>
-      <c r="JE32" s="17"/>
-      <c r="JF32" s="17"/>
-      <c r="JG32" s="17"/>
-      <c r="JH32" s="17"/>
-      <c r="JI32" s="17"/>
-      <c r="JJ32" s="17"/>
-      <c r="JK32" s="17"/>
-      <c r="JL32" s="17"/>
-      <c r="JM32" s="17"/>
-      <c r="JN32" s="17"/>
-      <c r="JO32" s="17"/>
-      <c r="JP32" s="17"/>
-      <c r="JQ32" s="17"/>
-      <c r="JR32" s="17"/>
-      <c r="JS32" s="17"/>
-      <c r="JT32" s="17"/>
-      <c r="JU32" s="17"/>
-      <c r="JV32" s="17"/>
-      <c r="JW32" s="17"/>
-      <c r="JX32" s="17"/>
-      <c r="JY32" s="17"/>
-      <c r="JZ32" s="17"/>
-      <c r="KA32" s="17"/>
-      <c r="KB32" s="17"/>
-      <c r="KC32" s="17"/>
-      <c r="KD32" s="17"/>
-      <c r="KE32" s="17"/>
-      <c r="KF32" s="17"/>
-      <c r="KG32" s="17"/>
-      <c r="KH32" s="17"/>
-      <c r="KI32" s="17"/>
-      <c r="KJ32" s="17"/>
-      <c r="KK32" s="17"/>
-      <c r="KL32" s="17"/>
-      <c r="KM32" s="17"/>
-      <c r="KN32" s="17"/>
-      <c r="KO32" s="17"/>
-      <c r="KP32" s="17"/>
-      <c r="KQ32" s="17"/>
-      <c r="KR32" s="17"/>
-      <c r="KS32" s="17"/>
-      <c r="KT32" s="17"/>
-      <c r="KU32" s="17"/>
-      <c r="KV32" s="17"/>
-      <c r="KW32" s="17"/>
-      <c r="KX32" s="17"/>
-      <c r="KY32" s="17"/>
-      <c r="KZ32" s="17"/>
-      <c r="LA32" s="17"/>
-      <c r="LB32" s="17"/>
-      <c r="LC32" s="17"/>
-      <c r="LD32" s="17"/>
-      <c r="LE32" s="17"/>
-      <c r="LF32" s="17"/>
-      <c r="LG32" s="17"/>
-      <c r="LH32" s="17"/>
-      <c r="LI32" s="17"/>
-      <c r="LJ32" s="17"/>
-      <c r="LK32" s="17"/>
-      <c r="LL32" s="17"/>
-      <c r="LM32" s="17"/>
-      <c r="LN32" s="17"/>
-      <c r="LO32" s="17"/>
-      <c r="LP32" s="17"/>
-      <c r="LQ32" s="17"/>
-      <c r="LR32" s="17"/>
-      <c r="LS32" s="17"/>
-      <c r="LT32" s="17"/>
-      <c r="LU32" s="17"/>
-      <c r="LV32" s="17"/>
-      <c r="LW32" s="17"/>
-      <c r="LX32" s="17"/>
-      <c r="LY32" s="17"/>
-      <c r="LZ32" s="17"/>
-      <c r="MA32" s="17"/>
-      <c r="MB32" s="17"/>
-      <c r="MC32" s="17"/>
-      <c r="MD32" s="17"/>
-      <c r="ME32" s="17"/>
-      <c r="MF32" s="17"/>
-      <c r="MG32" s="17"/>
-      <c r="MH32" s="17"/>
-      <c r="MI32" s="17"/>
-      <c r="MJ32" s="17"/>
-      <c r="MK32" s="17"/>
-      <c r="ML32" s="17"/>
-      <c r="MM32" s="17"/>
-      <c r="MN32" s="17"/>
-      <c r="MO32" s="17"/>
-      <c r="MP32" s="17"/>
-      <c r="MQ32" s="17"/>
-      <c r="MR32" s="17"/>
-      <c r="MS32" s="17"/>
-      <c r="MT32" s="17"/>
-      <c r="MU32" s="17"/>
-      <c r="MV32" s="17"/>
-      <c r="MW32" s="17"/>
-      <c r="MX32" s="17"/>
-      <c r="MY32" s="17"/>
-      <c r="MZ32" s="17"/>
-      <c r="NA32" s="17"/>
-      <c r="NB32" s="17"/>
-      <c r="NC32" s="17"/>
-      <c r="ND32" s="17"/>
-      <c r="NE32" s="17"/>
-      <c r="NF32" s="17"/>
-      <c r="NG32" s="17"/>
-      <c r="NH32" s="17"/>
-      <c r="NI32" s="17"/>
-      <c r="NJ32" s="17"/>
-      <c r="NK32" s="17"/>
-      <c r="NL32" s="17"/>
-      <c r="NM32" s="17"/>
-      <c r="NN32" s="17"/>
-      <c r="NO32" s="17"/>
-      <c r="NP32" s="17"/>
-      <c r="NQ32" s="17"/>
-      <c r="NR32" s="17"/>
-      <c r="NS32" s="17"/>
-      <c r="NT32" s="17"/>
-      <c r="NU32" s="17"/>
-      <c r="NV32" s="17"/>
-      <c r="NW32" s="17"/>
-      <c r="NX32" s="17"/>
-      <c r="NY32" s="17"/>
-      <c r="NZ32" s="17"/>
-      <c r="OA32" s="17"/>
-      <c r="OB32" s="17"/>
-      <c r="OC32" s="17"/>
-      <c r="OD32" s="17"/>
-      <c r="OE32" s="17"/>
-      <c r="OF32" s="17"/>
-      <c r="OG32" s="17"/>
-      <c r="OH32" s="17"/>
-      <c r="OI32" s="17"/>
-      <c r="OJ32" s="17"/>
-      <c r="OK32" s="17"/>
-      <c r="OL32" s="17"/>
-      <c r="OM32" s="17"/>
-      <c r="ON32" s="17"/>
-      <c r="OO32" s="17"/>
-      <c r="OP32" s="17"/>
-      <c r="OQ32" s="17"/>
-      <c r="OR32" s="17"/>
-      <c r="OS32" s="17"/>
-      <c r="OT32" s="17"/>
-      <c r="OU32" s="17"/>
-      <c r="OV32" s="17"/>
-      <c r="OW32" s="17"/>
-      <c r="OX32" s="17"/>
-      <c r="OY32" s="17"/>
-      <c r="OZ32" s="17"/>
-      <c r="PA32" s="17"/>
-      <c r="PB32" s="17"/>
-      <c r="PC32" s="17"/>
-      <c r="PD32" s="17"/>
-      <c r="PE32" s="17"/>
-      <c r="PF32" s="17"/>
-      <c r="PG32" s="17"/>
-      <c r="PH32" s="17"/>
-      <c r="PI32" s="17"/>
-      <c r="PJ32" s="17"/>
-      <c r="PK32" s="17"/>
-      <c r="PL32" s="17"/>
-      <c r="PM32" s="17"/>
-      <c r="PN32" s="17"/>
-      <c r="PO32" s="17"/>
-      <c r="PP32" s="17"/>
-      <c r="PQ32" s="17"/>
-      <c r="PR32" s="17"/>
-      <c r="PS32" s="17"/>
-      <c r="PT32" s="17"/>
-      <c r="PU32" s="17"/>
-      <c r="PV32" s="17"/>
-      <c r="PW32" s="17"/>
-      <c r="PX32" s="17"/>
-      <c r="PY32" s="17"/>
-      <c r="PZ32" s="17"/>
-      <c r="QA32" s="17"/>
-      <c r="QB32" s="17"/>
-      <c r="QC32" s="17"/>
-      <c r="QD32" s="17"/>
-      <c r="QE32" s="17"/>
-      <c r="QF32" s="17"/>
-      <c r="QG32" s="17"/>
-      <c r="QH32" s="17"/>
-      <c r="QI32" s="17"/>
-      <c r="QJ32" s="17"/>
-      <c r="QK32" s="17"/>
-      <c r="QL32" s="17"/>
-      <c r="QM32" s="17"/>
-      <c r="QN32" s="17"/>
-      <c r="QO32" s="17"/>
-      <c r="QP32" s="17"/>
-      <c r="QQ32" s="17"/>
-      <c r="QR32" s="17"/>
-      <c r="QS32" s="17"/>
-      <c r="QT32" s="17"/>
-      <c r="QU32" s="17"/>
-      <c r="QV32" s="17"/>
-      <c r="QW32" s="17"/>
-      <c r="QX32" s="17"/>
-      <c r="QY32" s="17"/>
-      <c r="QZ32" s="17"/>
-      <c r="RA32" s="17"/>
-      <c r="RB32" s="17"/>
-      <c r="RC32" s="17"/>
-      <c r="RD32" s="17"/>
-      <c r="RE32" s="17"/>
-      <c r="RF32" s="17"/>
-      <c r="RG32" s="17"/>
-      <c r="RH32" s="17"/>
-      <c r="RI32" s="17"/>
-      <c r="RJ32" s="17"/>
-      <c r="RK32" s="17"/>
-      <c r="RL32" s="17"/>
-      <c r="RM32" s="17"/>
-      <c r="RN32" s="17"/>
-      <c r="RO32" s="17"/>
-      <c r="RP32" s="17"/>
-      <c r="RQ32" s="17"/>
-      <c r="RR32" s="17"/>
-      <c r="RS32" s="17"/>
-      <c r="RT32" s="17"/>
-      <c r="RU32" s="17"/>
-      <c r="RV32" s="17"/>
-      <c r="RW32" s="17"/>
-      <c r="RX32" s="17"/>
-      <c r="RY32" s="17"/>
-      <c r="RZ32" s="17"/>
-      <c r="SA32" s="17"/>
-      <c r="SB32" s="17"/>
-      <c r="SC32" s="17"/>
-      <c r="SD32" s="17"/>
-      <c r="SE32" s="17"/>
-      <c r="SF32" s="17"/>
-      <c r="SG32" s="17"/>
-      <c r="SH32" s="17"/>
-      <c r="SI32" s="17"/>
-      <c r="SJ32" s="17"/>
-      <c r="SK32" s="17"/>
-      <c r="SL32" s="17"/>
-      <c r="SM32" s="17"/>
-      <c r="SN32" s="17"/>
-      <c r="SO32" s="17"/>
-      <c r="SP32" s="17"/>
-      <c r="SQ32" s="17"/>
-      <c r="SR32" s="17"/>
-      <c r="SS32" s="17"/>
-      <c r="ST32" s="17"/>
-      <c r="SU32" s="17"/>
-      <c r="SV32" s="17"/>
-      <c r="SW32" s="17"/>
-      <c r="SX32" s="17"/>
-      <c r="SY32" s="17"/>
-      <c r="SZ32" s="17"/>
-      <c r="TA32" s="17"/>
-      <c r="TB32" s="17"/>
-      <c r="TC32" s="17"/>
-      <c r="TD32" s="17"/>
-      <c r="TE32" s="17"/>
-      <c r="TF32" s="17"/>
-      <c r="TG32" s="17"/>
-      <c r="TH32" s="17"/>
-      <c r="TI32" s="17"/>
-      <c r="TJ32" s="17"/>
-      <c r="TK32" s="17"/>
-      <c r="TL32" s="17"/>
-      <c r="TM32" s="17"/>
-      <c r="TN32" s="17"/>
-      <c r="TO32" s="17"/>
-      <c r="TP32" s="17"/>
-      <c r="TQ32" s="17"/>
-      <c r="TR32" s="17"/>
-      <c r="TS32" s="17"/>
-      <c r="TT32" s="17"/>
-      <c r="TU32" s="17"/>
-      <c r="TV32" s="17"/>
-      <c r="TW32" s="17"/>
-      <c r="TX32" s="17"/>
-      <c r="TY32" s="17"/>
-      <c r="TZ32" s="17"/>
-      <c r="UA32" s="17"/>
-      <c r="UB32" s="17"/>
-      <c r="UC32" s="17"/>
-      <c r="UD32" s="17"/>
-      <c r="UE32" s="17"/>
-      <c r="UF32" s="17"/>
-      <c r="UG32" s="17"/>
-      <c r="UH32" s="17"/>
-      <c r="UI32" s="17"/>
-      <c r="UJ32" s="17"/>
-      <c r="UK32" s="17"/>
-      <c r="UL32" s="17"/>
-      <c r="UM32" s="17"/>
-      <c r="UN32" s="17"/>
-      <c r="UO32" s="17"/>
-      <c r="UP32" s="17"/>
-      <c r="UQ32" s="17"/>
-      <c r="UR32" s="17"/>
-      <c r="US32" s="17"/>
-      <c r="UT32" s="17"/>
-      <c r="UU32" s="17"/>
-      <c r="UV32" s="17"/>
-      <c r="UW32" s="17"/>
-      <c r="UX32" s="17"/>
-      <c r="UY32" s="17"/>
-      <c r="UZ32" s="17"/>
-      <c r="VA32" s="17"/>
-      <c r="VB32" s="17"/>
-      <c r="VC32" s="17"/>
-      <c r="VD32" s="17"/>
-      <c r="VE32" s="17"/>
-      <c r="VF32" s="17"/>
-      <c r="VG32" s="17"/>
-      <c r="VH32" s="17"/>
-      <c r="VI32" s="17"/>
-      <c r="VJ32" s="17"/>
-      <c r="VK32" s="17"/>
-      <c r="VL32" s="17"/>
-      <c r="VM32" s="17"/>
-      <c r="VN32" s="17"/>
-      <c r="VO32" s="17"/>
-      <c r="VP32" s="17"/>
-      <c r="VQ32" s="17"/>
-      <c r="VR32" s="17"/>
-      <c r="VS32" s="17"/>
-      <c r="VT32" s="17"/>
-      <c r="VU32" s="17"/>
-      <c r="VV32" s="17"/>
-      <c r="VW32" s="17"/>
-      <c r="VX32" s="17"/>
-      <c r="VY32" s="17"/>
-      <c r="VZ32" s="17"/>
-      <c r="WA32" s="17"/>
-      <c r="WB32" s="17"/>
-      <c r="WC32" s="17"/>
-      <c r="WD32" s="17"/>
-      <c r="WE32" s="17"/>
-      <c r="WF32" s="17"/>
-      <c r="WG32" s="17"/>
-      <c r="WH32" s="17"/>
-      <c r="WI32" s="17"/>
-      <c r="WJ32" s="17"/>
-      <c r="WK32" s="17"/>
-      <c r="WL32" s="17"/>
-      <c r="WM32" s="17"/>
-      <c r="WN32" s="17"/>
-      <c r="WO32" s="17"/>
-      <c r="WP32" s="17"/>
-      <c r="WQ32" s="17"/>
-      <c r="WR32" s="17"/>
-      <c r="WS32" s="17"/>
-      <c r="WT32" s="17"/>
-      <c r="WU32" s="17"/>
-      <c r="WV32" s="17"/>
-      <c r="WW32" s="17"/>
-      <c r="WX32" s="17"/>
-      <c r="WY32" s="17"/>
-      <c r="WZ32" s="17"/>
-      <c r="XA32" s="17"/>
-      <c r="XB32" s="17"/>
-      <c r="XC32" s="17"/>
-      <c r="XD32" s="17"/>
-      <c r="XE32" s="17"/>
-      <c r="XF32" s="17"/>
-      <c r="XG32" s="17"/>
-      <c r="XH32" s="17"/>
-      <c r="XI32" s="17"/>
-      <c r="XJ32" s="17"/>
-      <c r="XK32" s="17"/>
-      <c r="XL32" s="17"/>
-      <c r="XM32" s="17"/>
-      <c r="XN32" s="17"/>
-      <c r="XO32" s="17"/>
-      <c r="XP32" s="17"/>
-      <c r="XQ32" s="17"/>
-      <c r="XR32" s="17"/>
-      <c r="XS32" s="17"/>
-      <c r="XT32" s="17"/>
-      <c r="XU32" s="17"/>
-      <c r="XV32" s="17"/>
-      <c r="XW32" s="17"/>
-      <c r="XX32" s="17"/>
-      <c r="XY32" s="17"/>
-      <c r="XZ32" s="17"/>
-      <c r="YA32" s="17"/>
-      <c r="YB32" s="17"/>
-      <c r="YC32" s="17"/>
-      <c r="YD32" s="17"/>
-      <c r="YE32" s="17"/>
-      <c r="YF32" s="17"/>
-      <c r="YG32" s="17"/>
-      <c r="YH32" s="17"/>
-      <c r="YI32" s="17"/>
-      <c r="YJ32" s="17"/>
-      <c r="YK32" s="17"/>
-      <c r="YL32" s="17"/>
-      <c r="YM32" s="17"/>
-      <c r="YN32" s="17"/>
-      <c r="YO32" s="17"/>
-      <c r="YP32" s="17"/>
-      <c r="YQ32" s="17"/>
-      <c r="YR32" s="17"/>
-      <c r="YS32" s="17"/>
-      <c r="YT32" s="17"/>
-      <c r="YU32" s="17"/>
-      <c r="YV32" s="17"/>
-      <c r="YW32" s="17"/>
-      <c r="YX32" s="17"/>
-      <c r="YY32" s="17"/>
-      <c r="YZ32" s="17"/>
-      <c r="ZA32" s="17"/>
-      <c r="ZB32" s="17"/>
-      <c r="ZC32" s="17"/>
-      <c r="ZD32" s="17"/>
-      <c r="ZE32" s="17"/>
-      <c r="ZF32" s="17"/>
-      <c r="ZG32" s="17"/>
-      <c r="ZH32" s="17"/>
-      <c r="ZI32" s="17"/>
-      <c r="ZJ32" s="17"/>
-      <c r="ZK32" s="17"/>
-      <c r="ZL32" s="17"/>
-      <c r="ZM32" s="17"/>
-      <c r="ZN32" s="17"/>
-      <c r="ZO32" s="17"/>
-      <c r="ZP32" s="17"/>
-      <c r="ZQ32" s="17"/>
-      <c r="ZR32" s="17"/>
-      <c r="ZS32" s="17"/>
-      <c r="ZT32" s="17"/>
-      <c r="ZU32" s="17"/>
-      <c r="ZV32" s="17"/>
-      <c r="ZW32" s="17"/>
-      <c r="ZX32" s="17"/>
-      <c r="ZY32" s="17"/>
-      <c r="ZZ32" s="17"/>
-      <c r="AAA32" s="17"/>
-      <c r="AAB32" s="17"/>
-      <c r="AAC32" s="17"/>
-      <c r="AAD32" s="17"/>
-      <c r="AAE32" s="17"/>
-      <c r="AAF32" s="17"/>
-      <c r="AAG32" s="17"/>
-      <c r="AAH32" s="17"/>
-      <c r="AAI32" s="17"/>
-      <c r="AAJ32" s="17"/>
-      <c r="AAK32" s="17"/>
-      <c r="AAL32" s="17"/>
-      <c r="AAM32" s="17"/>
-      <c r="AAN32" s="17"/>
-      <c r="AAO32" s="17"/>
-      <c r="AAP32" s="17"/>
-      <c r="AAQ32" s="17"/>
-      <c r="AAR32" s="17"/>
-      <c r="AAS32" s="17"/>
-      <c r="AAT32" s="17"/>
-      <c r="AAU32" s="17"/>
-      <c r="AAV32" s="17"/>
-      <c r="AAW32" s="17"/>
-      <c r="AAX32" s="17"/>
-      <c r="AAY32" s="17"/>
-      <c r="AAZ32" s="17"/>
-      <c r="ABA32" s="17"/>
-      <c r="ABB32" s="17"/>
-      <c r="ABC32" s="17"/>
-      <c r="ABD32" s="17"/>
-      <c r="ABE32" s="17"/>
-      <c r="ABF32" s="17"/>
-      <c r="ABG32" s="17"/>
-      <c r="ABH32" s="17"/>
-      <c r="ABI32" s="17"/>
-      <c r="ABJ32" s="17"/>
-      <c r="ABK32" s="17"/>
-      <c r="ABL32" s="17"/>
-      <c r="ABM32" s="17"/>
-      <c r="ABN32" s="17"/>
-      <c r="ABO32" s="17"/>
-      <c r="ABP32" s="17"/>
-      <c r="ABQ32" s="17"/>
-      <c r="ABR32" s="17"/>
-      <c r="ABS32" s="17"/>
-      <c r="ABT32" s="17"/>
-      <c r="ABU32" s="17"/>
-      <c r="ABV32" s="17"/>
-      <c r="ABW32" s="17"/>
-      <c r="ABX32" s="17"/>
-      <c r="ABY32" s="17"/>
-      <c r="ABZ32" s="17"/>
-      <c r="ACA32" s="17"/>
-      <c r="ACB32" s="17"/>
-      <c r="ACC32" s="17"/>
-      <c r="ACD32" s="17"/>
-      <c r="ACE32" s="17"/>
-      <c r="ACF32" s="17"/>
-      <c r="ACG32" s="17"/>
-      <c r="ACH32" s="17"/>
-      <c r="ACI32" s="17"/>
-      <c r="ACJ32" s="17"/>
-      <c r="ACK32" s="17"/>
-      <c r="ACL32" s="17"/>
-      <c r="ACM32" s="17"/>
-      <c r="ACN32" s="17"/>
-      <c r="ACO32" s="17"/>
-      <c r="ACP32" s="17"/>
-      <c r="ACQ32" s="17"/>
-      <c r="ACR32" s="17"/>
-      <c r="ACS32" s="17"/>
-      <c r="ACT32" s="17"/>
-      <c r="ACU32" s="17"/>
-      <c r="ACV32" s="17"/>
-      <c r="ACW32" s="17"/>
-      <c r="ACX32" s="17"/>
-      <c r="ACY32" s="17"/>
-      <c r="ACZ32" s="17"/>
-      <c r="ADA32" s="17"/>
-      <c r="ADB32" s="17"/>
-      <c r="ADC32" s="17"/>
-      <c r="ADD32" s="17"/>
-      <c r="ADE32" s="17"/>
-      <c r="ADF32" s="17"/>
-      <c r="ADG32" s="17"/>
-      <c r="ADH32" s="17"/>
-      <c r="ADI32" s="17"/>
-      <c r="ADJ32" s="17"/>
-      <c r="ADK32" s="17"/>
-      <c r="ADL32" s="17"/>
-      <c r="ADM32" s="17"/>
-      <c r="ADN32" s="17"/>
-      <c r="ADO32" s="17"/>
-      <c r="ADP32" s="17"/>
-      <c r="ADQ32" s="17"/>
-      <c r="ADR32" s="17"/>
-      <c r="ADS32" s="17"/>
-      <c r="ADT32" s="17"/>
-      <c r="ADU32" s="17"/>
-      <c r="ADV32" s="17"/>
-      <c r="ADW32" s="17"/>
-      <c r="ADX32" s="17"/>
-      <c r="ADY32" s="17"/>
-      <c r="ADZ32" s="17"/>
-      <c r="AEA32" s="17"/>
-      <c r="AEB32" s="17"/>
-      <c r="AEC32" s="17"/>
-      <c r="AED32" s="17"/>
-      <c r="AEE32" s="17"/>
-      <c r="AEF32" s="17"/>
-      <c r="AEG32" s="17"/>
-      <c r="AEH32" s="17"/>
-      <c r="AEI32" s="17"/>
-      <c r="AEJ32" s="17"/>
-      <c r="AEK32" s="17"/>
-      <c r="AEL32" s="17"/>
-      <c r="AEM32" s="17"/>
-      <c r="AEN32" s="17"/>
-      <c r="AEO32" s="17"/>
-      <c r="AEP32" s="17"/>
-      <c r="AEQ32" s="17"/>
-      <c r="AER32" s="17"/>
-      <c r="AES32" s="17"/>
-      <c r="AET32" s="17"/>
-      <c r="AEU32" s="17"/>
-      <c r="AEV32" s="17"/>
-      <c r="AEW32" s="17"/>
-      <c r="AEX32" s="17"/>
-      <c r="AEY32" s="17"/>
-      <c r="AEZ32" s="17"/>
-      <c r="AFA32" s="17"/>
-      <c r="AFB32" s="17"/>
-      <c r="AFC32" s="17"/>
-      <c r="AFD32" s="17"/>
-      <c r="AFE32" s="17"/>
-      <c r="AFF32" s="17"/>
-      <c r="AFG32" s="17"/>
-      <c r="AFH32" s="17"/>
-      <c r="AFI32" s="17"/>
-      <c r="AFJ32" s="17"/>
-      <c r="AFK32" s="17"/>
-      <c r="AFL32" s="17"/>
-      <c r="AFM32" s="17"/>
-      <c r="AFN32" s="17"/>
-      <c r="AFO32" s="17"/>
-      <c r="AFP32" s="17"/>
-      <c r="AFQ32" s="17"/>
-      <c r="AFR32" s="17"/>
-      <c r="AFS32" s="17"/>
-      <c r="AFT32" s="17"/>
-      <c r="AFU32" s="17"/>
-      <c r="AFV32" s="17"/>
-      <c r="AFW32" s="17"/>
-      <c r="AFX32" s="17"/>
-      <c r="AFY32" s="17"/>
-      <c r="AFZ32" s="17"/>
-      <c r="AGA32" s="17"/>
-      <c r="AGB32" s="17"/>
-      <c r="AGC32" s="17"/>
-      <c r="AGD32" s="17"/>
-      <c r="AGE32" s="17"/>
-      <c r="AGF32" s="17"/>
-      <c r="AGG32" s="17"/>
-      <c r="AGH32" s="17"/>
-      <c r="AGI32" s="17"/>
-      <c r="AGJ32" s="17"/>
-      <c r="AGK32" s="17"/>
-      <c r="AGL32" s="17"/>
-      <c r="AGM32" s="17"/>
-      <c r="AGN32" s="17"/>
-      <c r="AGO32" s="17"/>
-      <c r="AGP32" s="17"/>
-      <c r="AGQ32" s="17"/>
-      <c r="AGR32" s="17"/>
-      <c r="AGS32" s="17"/>
-      <c r="AGT32" s="17"/>
-      <c r="AGU32" s="17"/>
-      <c r="AGV32" s="17"/>
-      <c r="AGW32" s="17"/>
-      <c r="AGX32" s="17"/>
-      <c r="AGY32" s="17"/>
-      <c r="AGZ32" s="17"/>
-      <c r="AHA32" s="17"/>
-      <c r="AHB32" s="17"/>
-      <c r="AHC32" s="17"/>
-      <c r="AHD32" s="17"/>
-      <c r="AHE32" s="17"/>
-      <c r="AHF32" s="17"/>
-      <c r="AHG32" s="17"/>
-      <c r="AHH32" s="17"/>
-      <c r="AHI32" s="17"/>
-      <c r="AHJ32" s="17"/>
-      <c r="AHK32" s="17"/>
-      <c r="AHL32" s="17"/>
-      <c r="AHM32" s="17"/>
-      <c r="AHN32" s="17"/>
-      <c r="AHO32" s="17"/>
-      <c r="AHP32" s="17"/>
-      <c r="AHQ32" s="17"/>
-      <c r="AHR32" s="17"/>
-      <c r="AHS32" s="17"/>
-      <c r="AHT32" s="17"/>
-      <c r="AHU32" s="17"/>
-      <c r="AHV32" s="17"/>
-      <c r="AHW32" s="17"/>
-      <c r="AHX32" s="17"/>
-      <c r="AHY32" s="17"/>
-      <c r="AHZ32" s="17"/>
-      <c r="AIA32" s="17"/>
-      <c r="AIB32" s="17"/>
-      <c r="AIC32" s="17"/>
-      <c r="AID32" s="17"/>
-      <c r="AIE32" s="17"/>
-      <c r="AIF32" s="17"/>
-      <c r="AIG32" s="17"/>
-      <c r="AIH32" s="17"/>
-      <c r="AII32" s="17"/>
-      <c r="AIJ32" s="17"/>
-      <c r="AIK32" s="17"/>
-      <c r="AIL32" s="17"/>
-      <c r="AIM32" s="17"/>
-      <c r="AIN32" s="17"/>
-      <c r="AIO32" s="17"/>
-      <c r="AIP32" s="17"/>
-      <c r="AIQ32" s="17"/>
-      <c r="AIR32" s="17"/>
-      <c r="AIS32" s="17"/>
-      <c r="AIT32" s="17"/>
-      <c r="AIU32" s="17"/>
-      <c r="AIV32" s="17"/>
-      <c r="AIW32" s="17"/>
-      <c r="AIX32" s="17"/>
-      <c r="AIY32" s="17"/>
-      <c r="AIZ32" s="17"/>
-      <c r="AJA32" s="17"/>
-      <c r="AJB32" s="17"/>
-      <c r="AJC32" s="17"/>
-      <c r="AJD32" s="17"/>
-      <c r="AJE32" s="17"/>
-      <c r="AJF32" s="17"/>
-      <c r="AJG32" s="17"/>
-      <c r="AJH32" s="17"/>
-      <c r="AJI32" s="17"/>
-      <c r="AJJ32" s="17"/>
-      <c r="AJK32" s="17"/>
-      <c r="AJL32" s="17"/>
-      <c r="AJM32" s="17"/>
-      <c r="AJN32" s="17"/>
-      <c r="AJO32" s="17"/>
-      <c r="AJP32" s="17"/>
-      <c r="AJQ32" s="17"/>
-      <c r="AJR32" s="17"/>
-      <c r="AJS32" s="17"/>
-      <c r="AJT32" s="17"/>
-      <c r="AJU32" s="17"/>
-      <c r="AJV32" s="17"/>
-      <c r="AJW32" s="17"/>
-      <c r="AJX32" s="17"/>
-      <c r="AJY32" s="17"/>
-      <c r="AJZ32" s="17"/>
-      <c r="AKA32" s="17"/>
-      <c r="AKB32" s="17"/>
-      <c r="AKC32" s="17"/>
-      <c r="AKD32" s="17"/>
-      <c r="AKE32" s="17"/>
-      <c r="AKF32" s="17"/>
-      <c r="AKG32" s="17"/>
-      <c r="AKH32" s="17"/>
-      <c r="AKI32" s="17"/>
-      <c r="AKJ32" s="17"/>
-      <c r="AKK32" s="17"/>
-      <c r="AKL32" s="17"/>
-      <c r="AKM32" s="17"/>
-      <c r="AKN32" s="17"/>
-      <c r="AKO32" s="17"/>
-      <c r="AKP32" s="17"/>
-      <c r="AKQ32" s="17"/>
-      <c r="AKR32" s="17"/>
-      <c r="AKS32" s="17"/>
-      <c r="AKT32" s="17"/>
-      <c r="AKU32" s="17"/>
-      <c r="AKV32" s="17"/>
-      <c r="AKW32" s="17"/>
-      <c r="AKX32" s="17"/>
-      <c r="AKY32" s="17"/>
-      <c r="AKZ32" s="17"/>
-      <c r="ALA32" s="17"/>
-      <c r="ALB32" s="17"/>
-      <c r="ALC32" s="17"/>
-      <c r="ALD32" s="17"/>
-      <c r="ALE32" s="17"/>
-      <c r="ALF32" s="17"/>
-      <c r="ALG32" s="17"/>
-      <c r="ALH32" s="17"/>
-      <c r="ALI32" s="17"/>
-      <c r="ALJ32" s="17"/>
-      <c r="ALK32" s="17"/>
-      <c r="ALL32" s="17"/>
-      <c r="ALM32" s="17"/>
-      <c r="ALN32" s="17"/>
-      <c r="ALO32" s="17"/>
-      <c r="ALP32" s="17"/>
-      <c r="ALQ32" s="17"/>
-      <c r="ALR32" s="17"/>
-      <c r="ALS32" s="17"/>
-      <c r="ALT32" s="17"/>
-      <c r="ALU32" s="17"/>
-      <c r="ALV32" s="17"/>
-      <c r="ALW32" s="17"/>
-      <c r="ALX32" s="17"/>
-      <c r="ALY32" s="17"/>
-      <c r="ALZ32" s="17"/>
-      <c r="AMA32" s="17"/>
-      <c r="AMB32" s="17"/>
-      <c r="AMC32" s="17"/>
-      <c r="AMD32" s="17"/>
-      <c r="AME32" s="17"/>
-      <c r="AMF32" s="17"/>
-      <c r="AMG32" s="17"/>
-      <c r="AMH32" s="17"/>
-      <c r="AMI32" s="17"/>
-      <c r="AMJ32" s="17"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
+      <c r="BP32" s="0"/>
+      <c r="BQ32" s="0"/>
+      <c r="BR32" s="0"/>
+      <c r="BS32" s="0"/>
+      <c r="BT32" s="0"/>
+      <c r="BU32" s="0"/>
+      <c r="BV32" s="0"/>
+      <c r="BW32" s="0"/>
+      <c r="BX32" s="0"/>
+      <c r="BY32" s="0"/>
+      <c r="BZ32" s="0"/>
+      <c r="CA32" s="0"/>
+      <c r="CB32" s="0"/>
+      <c r="CC32" s="0"/>
+      <c r="CD32" s="0"/>
+      <c r="CE32" s="0"/>
+      <c r="CF32" s="0"/>
+      <c r="CG32" s="0"/>
+      <c r="CH32" s="0"/>
+      <c r="CI32" s="0"/>
+      <c r="CJ32" s="0"/>
+      <c r="CK32" s="0"/>
+      <c r="CL32" s="0"/>
+      <c r="CM32" s="0"/>
+      <c r="CN32" s="0"/>
+      <c r="CO32" s="0"/>
+      <c r="CP32" s="0"/>
+      <c r="CQ32" s="0"/>
+      <c r="CR32" s="0"/>
+      <c r="CS32" s="0"/>
+      <c r="CT32" s="0"/>
+      <c r="CU32" s="0"/>
+      <c r="CV32" s="0"/>
+      <c r="CW32" s="0"/>
+      <c r="CX32" s="0"/>
+      <c r="CY32" s="0"/>
+      <c r="CZ32" s="0"/>
+      <c r="DA32" s="0"/>
+      <c r="DB32" s="0"/>
+      <c r="DC32" s="0"/>
+      <c r="DD32" s="0"/>
+      <c r="DE32" s="0"/>
+      <c r="DF32" s="0"/>
+      <c r="DG32" s="0"/>
+      <c r="DH32" s="0"/>
+      <c r="DI32" s="0"/>
+      <c r="DJ32" s="0"/>
+      <c r="DK32" s="0"/>
+      <c r="DL32" s="0"/>
+      <c r="DM32" s="0"/>
+      <c r="DN32" s="0"/>
+      <c r="DO32" s="0"/>
+      <c r="DP32" s="0"/>
+      <c r="DQ32" s="0"/>
+      <c r="DR32" s="0"/>
+      <c r="DS32" s="0"/>
+      <c r="DT32" s="0"/>
+      <c r="DU32" s="0"/>
+      <c r="DV32" s="0"/>
+      <c r="DW32" s="0"/>
+      <c r="DX32" s="0"/>
+      <c r="DY32" s="0"/>
+      <c r="DZ32" s="0"/>
+      <c r="EA32" s="0"/>
+      <c r="EB32" s="0"/>
+      <c r="EC32" s="0"/>
+      <c r="ED32" s="0"/>
+      <c r="EE32" s="0"/>
+      <c r="EF32" s="0"/>
+      <c r="EG32" s="0"/>
+      <c r="EH32" s="0"/>
+      <c r="EI32" s="0"/>
+      <c r="EJ32" s="0"/>
+      <c r="EK32" s="0"/>
+      <c r="EL32" s="0"/>
+      <c r="EM32" s="0"/>
+      <c r="EN32" s="0"/>
+      <c r="EO32" s="0"/>
+      <c r="EP32" s="0"/>
+      <c r="EQ32" s="0"/>
+      <c r="ER32" s="0"/>
+      <c r="ES32" s="0"/>
+      <c r="ET32" s="0"/>
+      <c r="EU32" s="0"/>
+      <c r="EV32" s="0"/>
+      <c r="EW32" s="0"/>
+      <c r="EX32" s="0"/>
+      <c r="EY32" s="0"/>
+      <c r="EZ32" s="0"/>
+      <c r="FA32" s="0"/>
+      <c r="FB32" s="0"/>
+      <c r="FC32" s="0"/>
+      <c r="FD32" s="0"/>
+      <c r="FE32" s="0"/>
+      <c r="FF32" s="0"/>
+      <c r="FG32" s="0"/>
+      <c r="FH32" s="0"/>
+      <c r="FI32" s="0"/>
+      <c r="FJ32" s="0"/>
+      <c r="FK32" s="0"/>
+      <c r="FL32" s="0"/>
+      <c r="FM32" s="0"/>
+      <c r="FN32" s="0"/>
+      <c r="FO32" s="0"/>
+      <c r="FP32" s="0"/>
+      <c r="FQ32" s="0"/>
+      <c r="FR32" s="0"/>
+      <c r="FS32" s="0"/>
+      <c r="FT32" s="0"/>
+      <c r="FU32" s="0"/>
+      <c r="FV32" s="0"/>
+      <c r="FW32" s="0"/>
+      <c r="FX32" s="0"/>
+      <c r="FY32" s="0"/>
+      <c r="FZ32" s="0"/>
+      <c r="GA32" s="0"/>
+      <c r="GB32" s="0"/>
+      <c r="GC32" s="0"/>
+      <c r="GD32" s="0"/>
+      <c r="GE32" s="0"/>
+      <c r="GF32" s="0"/>
+      <c r="GG32" s="0"/>
+      <c r="GH32" s="0"/>
+      <c r="GI32" s="0"/>
+      <c r="GJ32" s="0"/>
+      <c r="GK32" s="0"/>
+      <c r="GL32" s="0"/>
+      <c r="GM32" s="0"/>
+      <c r="GN32" s="0"/>
+      <c r="GO32" s="0"/>
+      <c r="GP32" s="0"/>
+      <c r="GQ32" s="0"/>
+      <c r="GR32" s="0"/>
+      <c r="GS32" s="0"/>
+      <c r="GT32" s="0"/>
+      <c r="GU32" s="0"/>
+      <c r="GV32" s="0"/>
+      <c r="GW32" s="0"/>
+      <c r="GX32" s="0"/>
+      <c r="GY32" s="0"/>
+      <c r="GZ32" s="0"/>
+      <c r="HA32" s="0"/>
+      <c r="HB32" s="0"/>
+      <c r="HC32" s="0"/>
+      <c r="HD32" s="0"/>
+      <c r="HE32" s="0"/>
+      <c r="HF32" s="0"/>
+      <c r="HG32" s="0"/>
+      <c r="HH32" s="0"/>
+      <c r="HI32" s="0"/>
+      <c r="HJ32" s="0"/>
+      <c r="HK32" s="0"/>
+      <c r="HL32" s="0"/>
+      <c r="HM32" s="0"/>
+      <c r="HN32" s="0"/>
+      <c r="HO32" s="0"/>
+      <c r="HP32" s="0"/>
+      <c r="HQ32" s="0"/>
+      <c r="HR32" s="0"/>
+      <c r="HS32" s="0"/>
+      <c r="HT32" s="0"/>
+      <c r="HU32" s="0"/>
+      <c r="HV32" s="0"/>
+      <c r="HW32" s="0"/>
+      <c r="HX32" s="0"/>
+      <c r="HY32" s="0"/>
+      <c r="HZ32" s="0"/>
+      <c r="IA32" s="0"/>
+      <c r="IB32" s="0"/>
+      <c r="IC32" s="0"/>
+      <c r="ID32" s="0"/>
+      <c r="IE32" s="0"/>
+      <c r="IF32" s="0"/>
+      <c r="IG32" s="0"/>
+      <c r="IH32" s="0"/>
+      <c r="II32" s="0"/>
+      <c r="IJ32" s="0"/>
+      <c r="IK32" s="0"/>
+      <c r="IL32" s="0"/>
+      <c r="IM32" s="0"/>
+      <c r="IN32" s="0"/>
+      <c r="IO32" s="0"/>
+      <c r="IP32" s="0"/>
+      <c r="IQ32" s="0"/>
+      <c r="IR32" s="0"/>
+      <c r="IS32" s="0"/>
+      <c r="IT32" s="0"/>
+      <c r="IU32" s="0"/>
+      <c r="IV32" s="0"/>
+      <c r="IW32" s="0"/>
+      <c r="IX32" s="0"/>
+      <c r="IY32" s="0"/>
+      <c r="IZ32" s="0"/>
+      <c r="JA32" s="0"/>
+      <c r="JB32" s="0"/>
+      <c r="JC32" s="0"/>
+      <c r="JD32" s="0"/>
+      <c r="JE32" s="0"/>
+      <c r="JF32" s="0"/>
+      <c r="JG32" s="0"/>
+      <c r="JH32" s="0"/>
+      <c r="JI32" s="0"/>
+      <c r="JJ32" s="0"/>
+      <c r="JK32" s="0"/>
+      <c r="JL32" s="0"/>
+      <c r="JM32" s="0"/>
+      <c r="JN32" s="0"/>
+      <c r="JO32" s="0"/>
+      <c r="JP32" s="0"/>
+      <c r="JQ32" s="0"/>
+      <c r="JR32" s="0"/>
+      <c r="JS32" s="0"/>
+      <c r="JT32" s="0"/>
+      <c r="JU32" s="0"/>
+      <c r="JV32" s="0"/>
+      <c r="JW32" s="0"/>
+      <c r="JX32" s="0"/>
+      <c r="JY32" s="0"/>
+      <c r="JZ32" s="0"/>
+      <c r="KA32" s="0"/>
+      <c r="KB32" s="0"/>
+      <c r="KC32" s="0"/>
+      <c r="KD32" s="0"/>
+      <c r="KE32" s="0"/>
+      <c r="KF32" s="0"/>
+      <c r="KG32" s="0"/>
+      <c r="KH32" s="0"/>
+      <c r="KI32" s="0"/>
+      <c r="KJ32" s="0"/>
+      <c r="KK32" s="0"/>
+      <c r="KL32" s="0"/>
+      <c r="KM32" s="0"/>
+      <c r="KN32" s="0"/>
+      <c r="KO32" s="0"/>
+      <c r="KP32" s="0"/>
+      <c r="KQ32" s="0"/>
+      <c r="KR32" s="0"/>
+      <c r="KS32" s="0"/>
+      <c r="KT32" s="0"/>
+      <c r="KU32" s="0"/>
+      <c r="KV32" s="0"/>
+      <c r="KW32" s="0"/>
+      <c r="KX32" s="0"/>
+      <c r="KY32" s="0"/>
+      <c r="KZ32" s="0"/>
+      <c r="LA32" s="0"/>
+      <c r="LB32" s="0"/>
+      <c r="LC32" s="0"/>
+      <c r="LD32" s="0"/>
+      <c r="LE32" s="0"/>
+      <c r="LF32" s="0"/>
+      <c r="LG32" s="0"/>
+      <c r="LH32" s="0"/>
+      <c r="LI32" s="0"/>
+      <c r="LJ32" s="0"/>
+      <c r="LK32" s="0"/>
+      <c r="LL32" s="0"/>
+      <c r="LM32" s="0"/>
+      <c r="LN32" s="0"/>
+      <c r="LO32" s="0"/>
+      <c r="LP32" s="0"/>
+      <c r="LQ32" s="0"/>
+      <c r="LR32" s="0"/>
+      <c r="LS32" s="0"/>
+      <c r="LT32" s="0"/>
+      <c r="LU32" s="0"/>
+      <c r="LV32" s="0"/>
+      <c r="LW32" s="0"/>
+      <c r="LX32" s="0"/>
+      <c r="LY32" s="0"/>
+      <c r="LZ32" s="0"/>
+      <c r="MA32" s="0"/>
+      <c r="MB32" s="0"/>
+      <c r="MC32" s="0"/>
+      <c r="MD32" s="0"/>
+      <c r="ME32" s="0"/>
+      <c r="MF32" s="0"/>
+      <c r="MG32" s="0"/>
+      <c r="MH32" s="0"/>
+      <c r="MI32" s="0"/>
+      <c r="MJ32" s="0"/>
+      <c r="MK32" s="0"/>
+      <c r="ML32" s="0"/>
+      <c r="MM32" s="0"/>
+      <c r="MN32" s="0"/>
+      <c r="MO32" s="0"/>
+      <c r="MP32" s="0"/>
+      <c r="MQ32" s="0"/>
+      <c r="MR32" s="0"/>
+      <c r="MS32" s="0"/>
+      <c r="MT32" s="0"/>
+      <c r="MU32" s="0"/>
+      <c r="MV32" s="0"/>
+      <c r="MW32" s="0"/>
+      <c r="MX32" s="0"/>
+      <c r="MY32" s="0"/>
+      <c r="MZ32" s="0"/>
+      <c r="NA32" s="0"/>
+      <c r="NB32" s="0"/>
+      <c r="NC32" s="0"/>
+      <c r="ND32" s="0"/>
+      <c r="NE32" s="0"/>
+      <c r="NF32" s="0"/>
+      <c r="NG32" s="0"/>
+      <c r="NH32" s="0"/>
+      <c r="NI32" s="0"/>
+      <c r="NJ32" s="0"/>
+      <c r="NK32" s="0"/>
+      <c r="NL32" s="0"/>
+      <c r="NM32" s="0"/>
+      <c r="NN32" s="0"/>
+      <c r="NO32" s="0"/>
+      <c r="NP32" s="0"/>
+      <c r="NQ32" s="0"/>
+      <c r="NR32" s="0"/>
+      <c r="NS32" s="0"/>
+      <c r="NT32" s="0"/>
+      <c r="NU32" s="0"/>
+      <c r="NV32" s="0"/>
+      <c r="NW32" s="0"/>
+      <c r="NX32" s="0"/>
+      <c r="NY32" s="0"/>
+      <c r="NZ32" s="0"/>
+      <c r="OA32" s="0"/>
+      <c r="OB32" s="0"/>
+      <c r="OC32" s="0"/>
+      <c r="OD32" s="0"/>
+      <c r="OE32" s="0"/>
+      <c r="OF32" s="0"/>
+      <c r="OG32" s="0"/>
+      <c r="OH32" s="0"/>
+      <c r="OI32" s="0"/>
+      <c r="OJ32" s="0"/>
+      <c r="OK32" s="0"/>
+      <c r="OL32" s="0"/>
+      <c r="OM32" s="0"/>
+      <c r="ON32" s="0"/>
+      <c r="OO32" s="0"/>
+      <c r="OP32" s="0"/>
+      <c r="OQ32" s="0"/>
+      <c r="OR32" s="0"/>
+      <c r="OS32" s="0"/>
+      <c r="OT32" s="0"/>
+      <c r="OU32" s="0"/>
+      <c r="OV32" s="0"/>
+      <c r="OW32" s="0"/>
+      <c r="OX32" s="0"/>
+      <c r="OY32" s="0"/>
+      <c r="OZ32" s="0"/>
+      <c r="PA32" s="0"/>
+      <c r="PB32" s="0"/>
+      <c r="PC32" s="0"/>
+      <c r="PD32" s="0"/>
+      <c r="PE32" s="0"/>
+      <c r="PF32" s="0"/>
+      <c r="PG32" s="0"/>
+      <c r="PH32" s="0"/>
+      <c r="PI32" s="0"/>
+      <c r="PJ32" s="0"/>
+      <c r="PK32" s="0"/>
+      <c r="PL32" s="0"/>
+      <c r="PM32" s="0"/>
+      <c r="PN32" s="0"/>
+      <c r="PO32" s="0"/>
+      <c r="PP32" s="0"/>
+      <c r="PQ32" s="0"/>
+      <c r="PR32" s="0"/>
+      <c r="PS32" s="0"/>
+      <c r="PT32" s="0"/>
+      <c r="PU32" s="0"/>
+      <c r="PV32" s="0"/>
+      <c r="PW32" s="0"/>
+      <c r="PX32" s="0"/>
+      <c r="PY32" s="0"/>
+      <c r="PZ32" s="0"/>
+      <c r="QA32" s="0"/>
+      <c r="QB32" s="0"/>
+      <c r="QC32" s="0"/>
+      <c r="QD32" s="0"/>
+      <c r="QE32" s="0"/>
+      <c r="QF32" s="0"/>
+      <c r="QG32" s="0"/>
+      <c r="QH32" s="0"/>
+      <c r="QI32" s="0"/>
+      <c r="QJ32" s="0"/>
+      <c r="QK32" s="0"/>
+      <c r="QL32" s="0"/>
+      <c r="QM32" s="0"/>
+      <c r="QN32" s="0"/>
+      <c r="QO32" s="0"/>
+      <c r="QP32" s="0"/>
+      <c r="QQ32" s="0"/>
+      <c r="QR32" s="0"/>
+      <c r="QS32" s="0"/>
+      <c r="QT32" s="0"/>
+      <c r="QU32" s="0"/>
+      <c r="QV32" s="0"/>
+      <c r="QW32" s="0"/>
+      <c r="QX32" s="0"/>
+      <c r="QY32" s="0"/>
+      <c r="QZ32" s="0"/>
+      <c r="RA32" s="0"/>
+      <c r="RB32" s="0"/>
+      <c r="RC32" s="0"/>
+      <c r="RD32" s="0"/>
+      <c r="RE32" s="0"/>
+      <c r="RF32" s="0"/>
+      <c r="RG32" s="0"/>
+      <c r="RH32" s="0"/>
+      <c r="RI32" s="0"/>
+      <c r="RJ32" s="0"/>
+      <c r="RK32" s="0"/>
+      <c r="RL32" s="0"/>
+      <c r="RM32" s="0"/>
+      <c r="RN32" s="0"/>
+      <c r="RO32" s="0"/>
+      <c r="RP32" s="0"/>
+      <c r="RQ32" s="0"/>
+      <c r="RR32" s="0"/>
+      <c r="RS32" s="0"/>
+      <c r="RT32" s="0"/>
+      <c r="RU32" s="0"/>
+      <c r="RV32" s="0"/>
+      <c r="RW32" s="0"/>
+      <c r="RX32" s="0"/>
+      <c r="RY32" s="0"/>
+      <c r="RZ32" s="0"/>
+      <c r="SA32" s="0"/>
+      <c r="SB32" s="0"/>
+      <c r="SC32" s="0"/>
+      <c r="SD32" s="0"/>
+      <c r="SE32" s="0"/>
+      <c r="SF32" s="0"/>
+      <c r="SG32" s="0"/>
+      <c r="SH32" s="0"/>
+      <c r="SI32" s="0"/>
+      <c r="SJ32" s="0"/>
+      <c r="SK32" s="0"/>
+      <c r="SL32" s="0"/>
+      <c r="SM32" s="0"/>
+      <c r="SN32" s="0"/>
+      <c r="SO32" s="0"/>
+      <c r="SP32" s="0"/>
+      <c r="SQ32" s="0"/>
+      <c r="SR32" s="0"/>
+      <c r="SS32" s="0"/>
+      <c r="ST32" s="0"/>
+      <c r="SU32" s="0"/>
+      <c r="SV32" s="0"/>
+      <c r="SW32" s="0"/>
+      <c r="SX32" s="0"/>
+      <c r="SY32" s="0"/>
+      <c r="SZ32" s="0"/>
+      <c r="TA32" s="0"/>
+      <c r="TB32" s="0"/>
+      <c r="TC32" s="0"/>
+      <c r="TD32" s="0"/>
+      <c r="TE32" s="0"/>
+      <c r="TF32" s="0"/>
+      <c r="TG32" s="0"/>
+      <c r="TH32" s="0"/>
+      <c r="TI32" s="0"/>
+      <c r="TJ32" s="0"/>
+      <c r="TK32" s="0"/>
+      <c r="TL32" s="0"/>
+      <c r="TM32" s="0"/>
+      <c r="TN32" s="0"/>
+      <c r="TO32" s="0"/>
+      <c r="TP32" s="0"/>
+      <c r="TQ32" s="0"/>
+      <c r="TR32" s="0"/>
+      <c r="TS32" s="0"/>
+      <c r="TT32" s="0"/>
+      <c r="TU32" s="0"/>
+      <c r="TV32" s="0"/>
+      <c r="TW32" s="0"/>
+      <c r="TX32" s="0"/>
+      <c r="TY32" s="0"/>
+      <c r="TZ32" s="0"/>
+      <c r="UA32" s="0"/>
+      <c r="UB32" s="0"/>
+      <c r="UC32" s="0"/>
+      <c r="UD32" s="0"/>
+      <c r="UE32" s="0"/>
+      <c r="UF32" s="0"/>
+      <c r="UG32" s="0"/>
+      <c r="UH32" s="0"/>
+      <c r="UI32" s="0"/>
+      <c r="UJ32" s="0"/>
+      <c r="UK32" s="0"/>
+      <c r="UL32" s="0"/>
+      <c r="UM32" s="0"/>
+      <c r="UN32" s="0"/>
+      <c r="UO32" s="0"/>
+      <c r="UP32" s="0"/>
+      <c r="UQ32" s="0"/>
+      <c r="UR32" s="0"/>
+      <c r="US32" s="0"/>
+      <c r="UT32" s="0"/>
+      <c r="UU32" s="0"/>
+      <c r="UV32" s="0"/>
+      <c r="UW32" s="0"/>
+      <c r="UX32" s="0"/>
+      <c r="UY32" s="0"/>
+      <c r="UZ32" s="0"/>
+      <c r="VA32" s="0"/>
+      <c r="VB32" s="0"/>
+      <c r="VC32" s="0"/>
+      <c r="VD32" s="0"/>
+      <c r="VE32" s="0"/>
+      <c r="VF32" s="0"/>
+      <c r="VG32" s="0"/>
+      <c r="VH32" s="0"/>
+      <c r="VI32" s="0"/>
+      <c r="VJ32" s="0"/>
+      <c r="VK32" s="0"/>
+      <c r="VL32" s="0"/>
+      <c r="VM32" s="0"/>
+      <c r="VN32" s="0"/>
+      <c r="VO32" s="0"/>
+      <c r="VP32" s="0"/>
+      <c r="VQ32" s="0"/>
+      <c r="VR32" s="0"/>
+      <c r="VS32" s="0"/>
+      <c r="VT32" s="0"/>
+      <c r="VU32" s="0"/>
+      <c r="VV32" s="0"/>
+      <c r="VW32" s="0"/>
+      <c r="VX32" s="0"/>
+      <c r="VY32" s="0"/>
+      <c r="VZ32" s="0"/>
+      <c r="WA32" s="0"/>
+      <c r="WB32" s="0"/>
+      <c r="WC32" s="0"/>
+      <c r="WD32" s="0"/>
+      <c r="WE32" s="0"/>
+      <c r="WF32" s="0"/>
+      <c r="WG32" s="0"/>
+      <c r="WH32" s="0"/>
+      <c r="WI32" s="0"/>
+      <c r="WJ32" s="0"/>
+      <c r="WK32" s="0"/>
+      <c r="WL32" s="0"/>
+      <c r="WM32" s="0"/>
+      <c r="WN32" s="0"/>
+      <c r="WO32" s="0"/>
+      <c r="WP32" s="0"/>
+      <c r="WQ32" s="0"/>
+      <c r="WR32" s="0"/>
+      <c r="WS32" s="0"/>
+      <c r="WT32" s="0"/>
+      <c r="WU32" s="0"/>
+      <c r="WV32" s="0"/>
+      <c r="WW32" s="0"/>
+      <c r="WX32" s="0"/>
+      <c r="WY32" s="0"/>
+      <c r="WZ32" s="0"/>
+      <c r="XA32" s="0"/>
+      <c r="XB32" s="0"/>
+      <c r="XC32" s="0"/>
+      <c r="XD32" s="0"/>
+      <c r="XE32" s="0"/>
+      <c r="XF32" s="0"/>
+      <c r="XG32" s="0"/>
+      <c r="XH32" s="0"/>
+      <c r="XI32" s="0"/>
+      <c r="XJ32" s="0"/>
+      <c r="XK32" s="0"/>
+      <c r="XL32" s="0"/>
+      <c r="XM32" s="0"/>
+      <c r="XN32" s="0"/>
+      <c r="XO32" s="0"/>
+      <c r="XP32" s="0"/>
+      <c r="XQ32" s="0"/>
+      <c r="XR32" s="0"/>
+      <c r="XS32" s="0"/>
+      <c r="XT32" s="0"/>
+      <c r="XU32" s="0"/>
+      <c r="XV32" s="0"/>
+      <c r="XW32" s="0"/>
+      <c r="XX32" s="0"/>
+      <c r="XY32" s="0"/>
+      <c r="XZ32" s="0"/>
+      <c r="YA32" s="0"/>
+      <c r="YB32" s="0"/>
+      <c r="YC32" s="0"/>
+      <c r="YD32" s="0"/>
+      <c r="YE32" s="0"/>
+      <c r="YF32" s="0"/>
+      <c r="YG32" s="0"/>
+      <c r="YH32" s="0"/>
+      <c r="YI32" s="0"/>
+      <c r="YJ32" s="0"/>
+      <c r="YK32" s="0"/>
+      <c r="YL32" s="0"/>
+      <c r="YM32" s="0"/>
+      <c r="YN32" s="0"/>
+      <c r="YO32" s="0"/>
+      <c r="YP32" s="0"/>
+      <c r="YQ32" s="0"/>
+      <c r="YR32" s="0"/>
+      <c r="YS32" s="0"/>
+      <c r="YT32" s="0"/>
+      <c r="YU32" s="0"/>
+      <c r="YV32" s="0"/>
+      <c r="YW32" s="0"/>
+      <c r="YX32" s="0"/>
+      <c r="YY32" s="0"/>
+      <c r="YZ32" s="0"/>
+      <c r="ZA32" s="0"/>
+      <c r="ZB32" s="0"/>
+      <c r="ZC32" s="0"/>
+      <c r="ZD32" s="0"/>
+      <c r="ZE32" s="0"/>
+      <c r="ZF32" s="0"/>
+      <c r="ZG32" s="0"/>
+      <c r="ZH32" s="0"/>
+      <c r="ZI32" s="0"/>
+      <c r="ZJ32" s="0"/>
+      <c r="ZK32" s="0"/>
+      <c r="ZL32" s="0"/>
+      <c r="ZM32" s="0"/>
+      <c r="ZN32" s="0"/>
+      <c r="ZO32" s="0"/>
+      <c r="ZP32" s="0"/>
+      <c r="ZQ32" s="0"/>
+      <c r="ZR32" s="0"/>
+      <c r="ZS32" s="0"/>
+      <c r="ZT32" s="0"/>
+      <c r="ZU32" s="0"/>
+      <c r="ZV32" s="0"/>
+      <c r="ZW32" s="0"/>
+      <c r="ZX32" s="0"/>
+      <c r="ZY32" s="0"/>
+      <c r="ZZ32" s="0"/>
+      <c r="AAA32" s="0"/>
+      <c r="AAB32" s="0"/>
+      <c r="AAC32" s="0"/>
+      <c r="AAD32" s="0"/>
+      <c r="AAE32" s="0"/>
+      <c r="AAF32" s="0"/>
+      <c r="AAG32" s="0"/>
+      <c r="AAH32" s="0"/>
+      <c r="AAI32" s="0"/>
+      <c r="AAJ32" s="0"/>
+      <c r="AAK32" s="0"/>
+      <c r="AAL32" s="0"/>
+      <c r="AAM32" s="0"/>
+      <c r="AAN32" s="0"/>
+      <c r="AAO32" s="0"/>
+      <c r="AAP32" s="0"/>
+      <c r="AAQ32" s="0"/>
+      <c r="AAR32" s="0"/>
+      <c r="AAS32" s="0"/>
+      <c r="AAT32" s="0"/>
+      <c r="AAU32" s="0"/>
+      <c r="AAV32" s="0"/>
+      <c r="AAW32" s="0"/>
+      <c r="AAX32" s="0"/>
+      <c r="AAY32" s="0"/>
+      <c r="AAZ32" s="0"/>
+      <c r="ABA32" s="0"/>
+      <c r="ABB32" s="0"/>
+      <c r="ABC32" s="0"/>
+      <c r="ABD32" s="0"/>
+      <c r="ABE32" s="0"/>
+      <c r="ABF32" s="0"/>
+      <c r="ABG32" s="0"/>
+      <c r="ABH32" s="0"/>
+      <c r="ABI32" s="0"/>
+      <c r="ABJ32" s="0"/>
+      <c r="ABK32" s="0"/>
+      <c r="ABL32" s="0"/>
+      <c r="ABM32" s="0"/>
+      <c r="ABN32" s="0"/>
+      <c r="ABO32" s="0"/>
+      <c r="ABP32" s="0"/>
+      <c r="ABQ32" s="0"/>
+      <c r="ABR32" s="0"/>
+      <c r="ABS32" s="0"/>
+      <c r="ABT32" s="0"/>
+      <c r="ABU32" s="0"/>
+      <c r="ABV32" s="0"/>
+      <c r="ABW32" s="0"/>
+      <c r="ABX32" s="0"/>
+      <c r="ABY32" s="0"/>
+      <c r="ABZ32" s="0"/>
+      <c r="ACA32" s="0"/>
+      <c r="ACB32" s="0"/>
+      <c r="ACC32" s="0"/>
+      <c r="ACD32" s="0"/>
+      <c r="ACE32" s="0"/>
+      <c r="ACF32" s="0"/>
+      <c r="ACG32" s="0"/>
+      <c r="ACH32" s="0"/>
+      <c r="ACI32" s="0"/>
+      <c r="ACJ32" s="0"/>
+      <c r="ACK32" s="0"/>
+      <c r="ACL32" s="0"/>
+      <c r="ACM32" s="0"/>
+      <c r="ACN32" s="0"/>
+      <c r="ACO32" s="0"/>
+      <c r="ACP32" s="0"/>
+      <c r="ACQ32" s="0"/>
+      <c r="ACR32" s="0"/>
+      <c r="ACS32" s="0"/>
+      <c r="ACT32" s="0"/>
+      <c r="ACU32" s="0"/>
+      <c r="ACV32" s="0"/>
+      <c r="ACW32" s="0"/>
+      <c r="ACX32" s="0"/>
+      <c r="ACY32" s="0"/>
+      <c r="ACZ32" s="0"/>
+      <c r="ADA32" s="0"/>
+      <c r="ADB32" s="0"/>
+      <c r="ADC32" s="0"/>
+      <c r="ADD32" s="0"/>
+      <c r="ADE32" s="0"/>
+      <c r="ADF32" s="0"/>
+      <c r="ADG32" s="0"/>
+      <c r="ADH32" s="0"/>
+      <c r="ADI32" s="0"/>
+      <c r="ADJ32" s="0"/>
+      <c r="ADK32" s="0"/>
+      <c r="ADL32" s="0"/>
+      <c r="ADM32" s="0"/>
+      <c r="ADN32" s="0"/>
+      <c r="ADO32" s="0"/>
+      <c r="ADP32" s="0"/>
+      <c r="ADQ32" s="0"/>
+      <c r="ADR32" s="0"/>
+      <c r="ADS32" s="0"/>
+      <c r="ADT32" s="0"/>
+      <c r="ADU32" s="0"/>
+      <c r="ADV32" s="0"/>
+      <c r="ADW32" s="0"/>
+      <c r="ADX32" s="0"/>
+      <c r="ADY32" s="0"/>
+      <c r="ADZ32" s="0"/>
+      <c r="AEA32" s="0"/>
+      <c r="AEB32" s="0"/>
+      <c r="AEC32" s="0"/>
+      <c r="AED32" s="0"/>
+      <c r="AEE32" s="0"/>
+      <c r="AEF32" s="0"/>
+      <c r="AEG32" s="0"/>
+      <c r="AEH32" s="0"/>
+      <c r="AEI32" s="0"/>
+      <c r="AEJ32" s="0"/>
+      <c r="AEK32" s="0"/>
+      <c r="AEL32" s="0"/>
+      <c r="AEM32" s="0"/>
+      <c r="AEN32" s="0"/>
+      <c r="AEO32" s="0"/>
+      <c r="AEP32" s="0"/>
+      <c r="AEQ32" s="0"/>
+      <c r="AER32" s="0"/>
+      <c r="AES32" s="0"/>
+      <c r="AET32" s="0"/>
+      <c r="AEU32" s="0"/>
+      <c r="AEV32" s="0"/>
+      <c r="AEW32" s="0"/>
+      <c r="AEX32" s="0"/>
+      <c r="AEY32" s="0"/>
+      <c r="AEZ32" s="0"/>
+      <c r="AFA32" s="0"/>
+      <c r="AFB32" s="0"/>
+      <c r="AFC32" s="0"/>
+      <c r="AFD32" s="0"/>
+      <c r="AFE32" s="0"/>
+      <c r="AFF32" s="0"/>
+      <c r="AFG32" s="0"/>
+      <c r="AFH32" s="0"/>
+      <c r="AFI32" s="0"/>
+      <c r="AFJ32" s="0"/>
+      <c r="AFK32" s="0"/>
+      <c r="AFL32" s="0"/>
+      <c r="AFM32" s="0"/>
+      <c r="AFN32" s="0"/>
+      <c r="AFO32" s="0"/>
+      <c r="AFP32" s="0"/>
+      <c r="AFQ32" s="0"/>
+      <c r="AFR32" s="0"/>
+      <c r="AFS32" s="0"/>
+      <c r="AFT32" s="0"/>
+      <c r="AFU32" s="0"/>
+      <c r="AFV32" s="0"/>
+      <c r="AFW32" s="0"/>
+      <c r="AFX32" s="0"/>
+      <c r="AFY32" s="0"/>
+      <c r="AFZ32" s="0"/>
+      <c r="AGA32" s="0"/>
+      <c r="AGB32" s="0"/>
+      <c r="AGC32" s="0"/>
+      <c r="AGD32" s="0"/>
+      <c r="AGE32" s="0"/>
+      <c r="AGF32" s="0"/>
+      <c r="AGG32" s="0"/>
+      <c r="AGH32" s="0"/>
+      <c r="AGI32" s="0"/>
+      <c r="AGJ32" s="0"/>
+      <c r="AGK32" s="0"/>
+      <c r="AGL32" s="0"/>
+      <c r="AGM32" s="0"/>
+      <c r="AGN32" s="0"/>
+      <c r="AGO32" s="0"/>
+      <c r="AGP32" s="0"/>
+      <c r="AGQ32" s="0"/>
+      <c r="AGR32" s="0"/>
+      <c r="AGS32" s="0"/>
+      <c r="AGT32" s="0"/>
+      <c r="AGU32" s="0"/>
+      <c r="AGV32" s="0"/>
+      <c r="AGW32" s="0"/>
+      <c r="AGX32" s="0"/>
+      <c r="AGY32" s="0"/>
+      <c r="AGZ32" s="0"/>
+      <c r="AHA32" s="0"/>
+      <c r="AHB32" s="0"/>
+      <c r="AHC32" s="0"/>
+      <c r="AHD32" s="0"/>
+      <c r="AHE32" s="0"/>
+      <c r="AHF32" s="0"/>
+      <c r="AHG32" s="0"/>
+      <c r="AHH32" s="0"/>
+      <c r="AHI32" s="0"/>
+      <c r="AHJ32" s="0"/>
+      <c r="AHK32" s="0"/>
+      <c r="AHL32" s="0"/>
+      <c r="AHM32" s="0"/>
+      <c r="AHN32" s="0"/>
+      <c r="AHO32" s="0"/>
+      <c r="AHP32" s="0"/>
+      <c r="AHQ32" s="0"/>
+      <c r="AHR32" s="0"/>
+      <c r="AHS32" s="0"/>
+      <c r="AHT32" s="0"/>
+      <c r="AHU32" s="0"/>
+      <c r="AHV32" s="0"/>
+      <c r="AHW32" s="0"/>
+      <c r="AHX32" s="0"/>
+      <c r="AHY32" s="0"/>
+      <c r="AHZ32" s="0"/>
+      <c r="AIA32" s="0"/>
+      <c r="AIB32" s="0"/>
+      <c r="AIC32" s="0"/>
+      <c r="AID32" s="0"/>
+      <c r="AIE32" s="0"/>
+      <c r="AIF32" s="0"/>
+      <c r="AIG32" s="0"/>
+      <c r="AIH32" s="0"/>
+      <c r="AII32" s="0"/>
+      <c r="AIJ32" s="0"/>
+      <c r="AIK32" s="0"/>
+      <c r="AIL32" s="0"/>
+      <c r="AIM32" s="0"/>
+      <c r="AIN32" s="0"/>
+      <c r="AIO32" s="0"/>
+      <c r="AIP32" s="0"/>
+      <c r="AIQ32" s="0"/>
+      <c r="AIR32" s="0"/>
+      <c r="AIS32" s="0"/>
+      <c r="AIT32" s="0"/>
+      <c r="AIU32" s="0"/>
+      <c r="AIV32" s="0"/>
+      <c r="AIW32" s="0"/>
+      <c r="AIX32" s="0"/>
+      <c r="AIY32" s="0"/>
+      <c r="AIZ32" s="0"/>
+      <c r="AJA32" s="0"/>
+      <c r="AJB32" s="0"/>
+      <c r="AJC32" s="0"/>
+      <c r="AJD32" s="0"/>
+      <c r="AJE32" s="0"/>
+      <c r="AJF32" s="0"/>
+      <c r="AJG32" s="0"/>
+      <c r="AJH32" s="0"/>
+      <c r="AJI32" s="0"/>
+      <c r="AJJ32" s="0"/>
+      <c r="AJK32" s="0"/>
+      <c r="AJL32" s="0"/>
+      <c r="AJM32" s="0"/>
+      <c r="AJN32" s="0"/>
+      <c r="AJO32" s="0"/>
+      <c r="AJP32" s="0"/>
+      <c r="AJQ32" s="0"/>
+      <c r="AJR32" s="0"/>
+      <c r="AJS32" s="0"/>
+      <c r="AJT32" s="0"/>
+      <c r="AJU32" s="0"/>
+      <c r="AJV32" s="0"/>
+      <c r="AJW32" s="0"/>
+      <c r="AJX32" s="0"/>
+      <c r="AJY32" s="0"/>
+      <c r="AJZ32" s="0"/>
+      <c r="AKA32" s="0"/>
+      <c r="AKB32" s="0"/>
+      <c r="AKC32" s="0"/>
+      <c r="AKD32" s="0"/>
+      <c r="AKE32" s="0"/>
+      <c r="AKF32" s="0"/>
+      <c r="AKG32" s="0"/>
+      <c r="AKH32" s="0"/>
+      <c r="AKI32" s="0"/>
+      <c r="AKJ32" s="0"/>
+      <c r="AKK32" s="0"/>
+      <c r="AKL32" s="0"/>
+      <c r="AKM32" s="0"/>
+      <c r="AKN32" s="0"/>
+      <c r="AKO32" s="0"/>
+      <c r="AKP32" s="0"/>
+      <c r="AKQ32" s="0"/>
+      <c r="AKR32" s="0"/>
+      <c r="AKS32" s="0"/>
+      <c r="AKT32" s="0"/>
+      <c r="AKU32" s="0"/>
+      <c r="AKV32" s="0"/>
+      <c r="AKW32" s="0"/>
+      <c r="AKX32" s="0"/>
+      <c r="AKY32" s="0"/>
+      <c r="AKZ32" s="0"/>
+      <c r="ALA32" s="0"/>
+      <c r="ALB32" s="0"/>
+      <c r="ALC32" s="0"/>
+      <c r="ALD32" s="0"/>
+      <c r="ALE32" s="0"/>
+      <c r="ALF32" s="0"/>
+      <c r="ALG32" s="0"/>
+      <c r="ALH32" s="0"/>
+      <c r="ALI32" s="0"/>
+      <c r="ALJ32" s="0"/>
+      <c r="ALK32" s="0"/>
+      <c r="ALL32" s="0"/>
+      <c r="ALM32" s="0"/>
+      <c r="ALN32" s="0"/>
+      <c r="ALO32" s="0"/>
+      <c r="ALP32" s="0"/>
+      <c r="ALQ32" s="0"/>
+      <c r="ALR32" s="0"/>
+      <c r="ALS32" s="0"/>
+      <c r="ALT32" s="0"/>
+      <c r="ALU32" s="0"/>
+      <c r="ALV32" s="0"/>
+      <c r="ALW32" s="0"/>
+      <c r="ALX32" s="0"/>
+      <c r="ALY32" s="0"/>
+      <c r="ALZ32" s="0"/>
+      <c r="AMA32" s="0"/>
+      <c r="AMB32" s="0"/>
+      <c r="AMC32" s="0"/>
+      <c r="AMD32" s="0"/>
+      <c r="AME32" s="0"/>
+      <c r="AMF32" s="0"/>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
-      <c r="B33" s="14" t="s">
-        <v>22</v>
+      <c r="B33" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="14"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="7"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -18216,44 +21619,89 @@
       <c r="AMI33" s="6"/>
       <c r="AMJ33" s="6"/>
     </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+      <c r="G35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+    </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="22"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="23"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="24"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="26" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="19"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="19"/>
+      <c r="D47" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
